--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -8,11 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
-    <sheet name="控件规则" sheetId="2" r:id="rId2"/>
-    <sheet name="动画与音效规则" sheetId="3" r:id="rId3"/>
+    <sheet name="分辨率适配规则" sheetId="4" r:id="rId2"/>
+    <sheet name="控件规则" sheetId="2" r:id="rId3"/>
+    <sheet name="设计格式规范" sheetId="5" r:id="rId4"/>
+    <sheet name="动画与音效规则" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="278">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -721,12 +723,466 @@
     <t>待补充</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>基础原型设计分辨率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要使用960*640大小的分辨率做为基础分辨率进行设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对不同分辨率的屏幕，做适配时需要保持游戏界面资源等比例放大或者缩小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能出现拉伸或者变形压缩等情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如等比例放大缩小后，屏幕四周留有黑边，需要使用图案进行填充（符合游戏风格的图案即可）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕方向相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>横屏游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平放置时打开游戏，需要保证Home键，Android功能栏在界面右侧的模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖屏游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平放置时打开游戏，需要保证Home键，Android功能栏在界面下方的模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如游戏可旋转，则在设备翻转后可平滑旋转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏画面旋转临界点为倒置画面与水平夹角小于45度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如下图所示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用设备分辨率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone4S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓终端机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone6plus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPhone6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1334×750</t>
+  </si>
+  <si>
+    <t>1920×1080</t>
+  </si>
+  <si>
+    <t>1136*640</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800*480</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024*768</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>960*640</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如等比放大缩小后，无法完全匹配当前设备的分辨率，则需要进行设备适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一：图案边框填充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等比放大或缩小后，屏幕左右或者上下多余出的部分用图案进行填充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如上图中屏幕左右多余的边框则为填充作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二：锚点自动适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面的基准点，将控件定位在最近的基准点，当分辨率改变后，锚点变化后会带动控件位置变化自动适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加分辨率适配部分内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级窗口/二级窗口/三级窗口/浮窗窗口A/浮窗窗口B/确认窗口/提示窗口/Tips</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口布局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文案内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如固定文案，则写明文案内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所包含的控件名称（各控件规范见下方）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果界面有特殊功能或者需求，需要在此注明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口弹出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、控件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、窗口界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对于按钮所在的父窗口/控件的位置说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现/隐藏规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何显示，如何隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮文案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如非固定文案，则需要标明文案中的变量同时说明变量如何取值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为点击抬起后响应，如果特殊需求，需要说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.mp3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图示意</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.标签页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示形式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向/纵向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页文案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表文案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.进度条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条文案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字/比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有需截图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度未满</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框文案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认为点击输入框激活输入键盘，如有特殊需求请说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFFFFF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每行字数，最多几行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入达到上限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充设计格式规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +1278,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -846,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -880,66 +1373,38 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="普通 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <vertAlign val="baseline"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <vertAlign val="baseline"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="21"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="30"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -955,6 +1420,603 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="组合 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="12603135">
+          <a:off x="1476374" y="10887076"/>
+          <a:ext cx="5076825" cy="2600325"/>
+          <a:chOff x="1133475" y="4267199"/>
+          <a:chExt cx="5076825" cy="2600325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="组合 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1133475" y="4267199"/>
+            <a:ext cx="5076825" cy="2600325"/>
+            <a:chOff x="1476375" y="4267199"/>
+            <a:chExt cx="4704593" cy="2600325"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="圆角矩形 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1476375" y="4267199"/>
+              <a:ext cx="4704593" cy="2600325"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="矩形 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1962595" y="4400549"/>
+              <a:ext cx="3456000" cy="2304000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="椭圆 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5633717" y="5419723"/>
+              <a:ext cx="333605" cy="360000"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="矩形 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5737519" y="5524500"/>
+              <a:ext cx="124042" cy="144463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1676399" y="4416161"/>
+            <a:ext cx="3705225" cy="2275708"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="571500" y="8543925"/>
+          <a:ext cx="6667500" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="8382000"/>
+          <a:ext cx="466794" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>水平</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="5781675"/>
+          <a:ext cx="4705350" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25855</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42156</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>200268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="弧形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14753180">
+          <a:off x="5477543" y="8683655"/>
+          <a:ext cx="771525" cy="702101"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>665383</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113310</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="650434" cy="392415"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4780183" y="8704860"/>
+          <a:ext cx="650434" cy="392415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>45°</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:tint val="85000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2305050"/>
+          <a:ext cx="5619048" cy="3685715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3689,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3888,39 +4950,39 @@
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="14">
+        <v>42111</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -3928,21 +4990,89 @@
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3955,10 +5085,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="L305" sqref="L305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4898,7 +6211,1268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="8.875" style="21"/>
+    <col min="3" max="4" width="8.875" style="20"/>
+    <col min="5" max="5" width="10.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="20"/>
+    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C3" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C5" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C7" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C10" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C12" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C14" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="21"/>
+      <c r="D20" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="21"/>
+      <c r="D22" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="21"/>
+      <c r="D24" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="21"/>
+      <c r="D26" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="21"/>
+      <c r="D27" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="21"/>
+      <c r="D29" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="21"/>
+      <c r="D31" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="21"/>
+      <c r="D32" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C33" s="21"/>
+      <c r="D33" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C34" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D35" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="D36" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C39" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C40" s="21"/>
+      <c r="D40" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C41" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C42" s="21"/>
+      <c r="D42" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C43" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C44" s="21"/>
+      <c r="D44" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C45" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C46" s="21"/>
+      <c r="D46" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C47" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C48" s="21"/>
+      <c r="D48" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="21"/>
+      <c r="D49" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="21"/>
+      <c r="D51" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="21"/>
+      <c r="D53" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="21"/>
+      <c r="D54" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="21"/>
+      <c r="D55" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="21"/>
+      <c r="D56" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D58" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D59" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="21"/>
+      <c r="D63" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C65" s="21"/>
+      <c r="D65" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C66" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C67" s="21"/>
+      <c r="D67" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C68" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C69" s="21"/>
+      <c r="D69" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C70" s="21"/>
+      <c r="D70" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C71" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C72" s="21"/>
+      <c r="D72" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C73" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C74" s="21"/>
+      <c r="D74" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C75" s="21"/>
+      <c r="D75" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C76" s="21"/>
+      <c r="D76" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C77" s="21"/>
+      <c r="D77" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A78" s="24"/>
+      <c r="C78" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A79" s="24"/>
+      <c r="D79" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A80" s="24"/>
+      <c r="D80" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B82" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C83" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C84" s="21"/>
+      <c r="D84" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C85" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C86" s="21"/>
+      <c r="D86" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C87" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C88" s="21"/>
+      <c r="D88" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C89" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C90" s="21"/>
+      <c r="D90" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C91" s="21"/>
+      <c r="D91" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C92" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C93" s="21"/>
+      <c r="D93" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C94" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C95" s="21"/>
+      <c r="D95" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C96" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C97" s="21"/>
+      <c r="D97" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C98" s="21"/>
+      <c r="D98" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C99" s="21"/>
+      <c r="D99" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C100" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C101" s="25"/>
+      <c r="D101" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C105" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C106" s="21"/>
+      <c r="D106" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C107" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C108" s="21"/>
+      <c r="D108" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C109" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C110" s="21"/>
+      <c r="D110" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C111" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C112" s="21"/>
+      <c r="D112" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+    </row>
+    <row r="113" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C113" s="21"/>
+      <c r="D113" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+    </row>
+    <row r="114" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C114" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+    </row>
+    <row r="115" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C115" s="21"/>
+      <c r="D115" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+    </row>
+    <row r="116" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C116" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+    </row>
+    <row r="117" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C117" s="21"/>
+      <c r="D117" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+    </row>
+    <row r="118" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C118" s="21"/>
+      <c r="D118" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+    </row>
+    <row r="119" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C119" s="21"/>
+      <c r="D119" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+    </row>
+    <row r="120" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C120" s="21"/>
+      <c r="D120" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
+      <c r="T120" s="21"/>
+    </row>
+    <row r="121" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C121" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
+      <c r="T121" s="21"/>
+    </row>
+    <row r="122" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D122" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+    </row>
+    <row r="123" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="D123" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="21"/>
+      <c r="R123" s="21"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="21"/>
+    </row>
+    <row r="124" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="21"/>
+      <c r="Q124" s="21"/>
+      <c r="R124" s="21"/>
+      <c r="S124" s="21"/>
+      <c r="T124" s="21"/>
+    </row>
+    <row r="125" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="23"/>
+      <c r="P125" s="23"/>
+      <c r="Q125" s="23"/>
+      <c r="R125" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,27 @@
     <sheet name="控件规则" sheetId="2" r:id="rId3"/>
     <sheet name="设计格式规范" sheetId="5" r:id="rId4"/>
     <sheet name="动画与音效规则" sheetId="3" r:id="rId5"/>
+    <sheet name="音乐音效" sheetId="7" r:id="rId6"/>
+    <sheet name="设计备忘" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="tips位置规则以及文本标准">控件规则!$C$364:$I$387</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="374">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -178,10 +186,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>同一个界面中字体种类不可超过4种</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>同一个段文字描述中，字色种类不应该多于3种</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -346,10 +350,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>应包含：确定按钮、取消按钮、主体界面、窗口标题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>必须同时包含取消按钮与确定按钮</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -410,64 +410,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>按钮需要有正常以及按下两种状态显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>禁止类，条件不足，不推荐等描述内容的字色可以使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>红色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（慎用）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>推荐类，满足需求或者正确等描述内容的字色可以使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF92D050"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绿色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（慎用）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、按钮文字数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮文字上的数量最多不超过5个汉字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -508,10 +450,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>按钮需要有正常、按下、选中三种状态显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>其中正常也可理解为未选中状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -560,10 +498,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>列表项需要有正常、按下、选中三种状态显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>若列表为可以展开样式，则需要在列表展开的按钮上标识当前状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -588,18 +522,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>五、列表项文字数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>列表项文字上的数量最多不超过8个汉字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>三、标签按钮文字数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>标签按钮文字上的数量最多不超过8个汉字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -684,18 +610,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>当需要注解的位置位于屏幕左侧时，点击出现的tips出现在注解位置右侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当需要注解的位置位于屏幕右侧时，点击出现的tips出现在注解位置左侧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>为保证tips出现的位置相对统一，需要每个界面单独规定出现tips的统一位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>输入框相关规范</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -704,18 +618,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>键盘出现后需要保证输入框始终显示在键盘上方，并不被键盘锁遮挡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>当只需要输入数字项时，弹出的键盘默认选择为数字键盘形式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>账号以及名称的输入框后需要有一键清除输入内容的按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出键盘后点击非键盘与输入框位置，则键盘隐藏</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -789,10 +695,6 @@
   </si>
   <si>
     <t>iPad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓终端机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -930,14 +832,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xx.mp3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yy.mp3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.按钮</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1002,10 +896,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xx.mp3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮样式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1146,35 +1036,490 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>每行字数，最多几行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入达到上限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充设计格式规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 浮动窗口中按钮位置可以不固定？没有统一标准？</t>
+  </si>
+  <si>
+    <t>4. 浮动窗口和提示窗口区别是？</t>
+  </si>
+  <si>
+    <t>5. 按钮颜色是不是应该直接明确是否使用，如果使用红色和绿色分别对应什么？</t>
+  </si>
+  <si>
+    <t>6. 我们何时确定游戏选用字体库？</t>
+  </si>
+  <si>
+    <t>1. 各类界面尺寸是否有？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 文字对齐规则是否需要？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些信息是需要给玩家强提示的，不希望可以直接点击界面就消失，需要点击按钮消失的，采用浮窗窗口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础尺寸需要UI排布后确认大小，然后补充进文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>并不是所有风格的UI中都适用按钮颜色变化，需要针对性考虑，如果针对目前的项目是可以使用的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、列表项文字规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、标签按钮文字规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项中文本居中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签按钮中文本居中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮中文本居中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips中文本规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容左对齐显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面文本规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息每行最多显示18个汉字，超过显示数量换行显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当只有一行文本时，文本居中显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有多行文本时，文本左对齐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补充可规范化的文本对齐方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定和返回的按钮位置可能不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓中端机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.tips的位置是否统一规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.按钮的不可用状态规则，分类方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘出现后需要保证输入框始终显示在键盘上方，并不被键盘遮挡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认下战音的字体是否可用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号为18px（正文）、20px（标题）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础字色为白色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips最大显示尺寸为 320*420像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要注解的位置位于屏幕左侧时，点击出现的tips出现在屏幕左侧居中位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当需要注解的位置位于屏幕右侧时，点击出现的tips出现在屏幕右侧居中位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充tips出现位置规范以及文本显示规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口显示相关规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为840*540像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.wav</t>
+  </si>
+  <si>
+    <t>同一个界面中字体种类不可超过4种</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态文字默认使用冬青黑体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐类，满足需求或者正确等描述内容的字色可以使用绿色（慎用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止类，条件不足，不推荐等描述内容的字色可以使用红色（慎用）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体字色规范见各控件要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体字号规范见各控件要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>字色</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>字号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18px</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFFFFF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每行字数，最多几行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入达到上限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充设计格式规范</t>
+    <t>R：90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：66</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词标识字色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：165</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：191</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>除正文注释外基础字色为棕色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文注释基础字色为浅棕色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：167</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：134</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：98</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小960*640像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称颜色同道具品级颜色保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量文本颜色为白色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：255</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、按钮文本规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号为28px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色为棕色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准按钮尺寸为180*70px，如UI中使用特殊大小按钮，需要标识按钮尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签页无默认尺寸，设计标签页时需要保证同一个界面中的同一类标签页尺寸相同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项无默认尺寸，设计列表项时需要保证同一个界面中的同一类列表项尺寸相同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、进度条文本相关规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号为26px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计进度条时，需要明确说明进度条的颜色，以及显示形式（数字or比例）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例文字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字色为黑色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框中应有对应提示文字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字及输入框中已输入文本内容左对齐显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号为24px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字字色为灰色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容字色为黑色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充各控件字色字号规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充音效音乐格式规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity通常使用.aiff与.wav作为音效格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效格式规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity通常使用.map与.ogg作为音效格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前产品（coms）使用wav作为统一音效格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前产品（coms）使用ogg作为统一音效格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应包含：确定按钮、取消按钮、主体界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R：50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>G：50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B：50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮需要有normal、pressed以及disabled三种状态显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签按钮需要有normal、highlighted、pressed以及disabled四种状态显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项需要有normal、highlighted、pressed以及disabled四种状态显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充按钮状态说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式需标明需求颜色（或者色系）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1182,7 +1527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,20 +1602,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF92D050"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1315,6 +1646,50 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3B0FF7"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1333,13 +1708,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1371,43 +1747,55 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="普通 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -1441,8 +1829,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="12603135">
-          <a:off x="1476374" y="10887076"/>
-          <a:ext cx="5076825" cy="2600325"/>
+          <a:off x="1463674" y="10887076"/>
+          <a:ext cx="5032375" cy="2600325"/>
           <a:chOff x="1133475" y="4267199"/>
           <a:chExt cx="5076825" cy="2600325"/>
         </a:xfrm>
@@ -2022,13 +2410,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2038,8 +2426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="6286500"/>
-          <a:ext cx="4695825" cy="2533650"/>
+          <a:off x="2074069" y="7709297"/>
+          <a:ext cx="4652962" cy="2519362"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -2206,13 +2594,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2222,8 +2610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="11811000"/>
-          <a:ext cx="4695825" cy="2533650"/>
+          <a:off x="2074069" y="17161669"/>
+          <a:ext cx="4652962" cy="2519362"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -2390,13 +2778,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2447,13 +2835,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2463,8 +2851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="17468850"/>
-          <a:ext cx="4695825" cy="2533650"/>
+          <a:off x="2074069" y="26537841"/>
+          <a:ext cx="4652962" cy="2519362"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -2570,13 +2958,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2627,13 +3015,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2643,8 +3031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2076450" y="22936200"/>
-          <a:ext cx="4562475" cy="2343150"/>
+          <a:off x="2055019" y="35516344"/>
+          <a:ext cx="4519612" cy="2330053"/>
           <a:chOff x="2076450" y="25869900"/>
           <a:chExt cx="4562475" cy="2343150"/>
         </a:xfrm>
@@ -2791,13 +3179,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2860,7 +3248,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="334451"/>
@@ -2915,13 +3303,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2981,13 +3369,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3057,13 +3445,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3131,91 +3519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="圆角矩形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3648075" y="36109275"/>
-          <a:ext cx="1381125" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>窗口标题</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3275,13 +3587,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3371,13 +3683,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>481</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3387,8 +3699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1409700" y="61388623"/>
-          <a:ext cx="3810000" cy="266702"/>
+          <a:off x="1395413" y="100004164"/>
+          <a:ext cx="3774281" cy="264320"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
         </a:xfrm>
@@ -3620,13 +3932,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>484</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>485</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3636,8 +3948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1343026" y="62331598"/>
-          <a:ext cx="3876674" cy="266702"/>
+          <a:off x="1335882" y="100941186"/>
+          <a:ext cx="3833812" cy="265511"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
         </a:xfrm>
@@ -3869,13 +4181,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>486</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>487</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3885,8 +4197,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1343025" y="62712598"/>
-          <a:ext cx="3886200" cy="266702"/>
+          <a:off x="1335881" y="101319804"/>
+          <a:ext cx="3843338" cy="265512"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
         </a:xfrm>
@@ -4118,13 +4430,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>515</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>517</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4165,7 +4477,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>提示文字</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4174,27 +4497,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="椭圆 76"/>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695700" y="67675125"/>
-          <a:ext cx="161925" cy="161925"/>
+          <a:off x="2813050" y="48621950"/>
+          <a:ext cx="3105150" cy="1219200"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -4205,78 +4528,6 @@
         </a:solidFill>
         <a:ln>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>X</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="矩形 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3629025" y="67627500"/>
-          <a:ext cx="295275" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4308,37 +4559,232 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365625" y="48621950"/>
+          <a:ext cx="0" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="67503675"/>
-          <a:ext cx="2333625" cy="304800"/>
+          <a:off x="4641850" y="48768000"/>
+          <a:ext cx="1035050" cy="914400"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>当需要注解的位置位于屏幕左侧时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>tips</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>在右侧居中位置出现</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2813050" y="49231550"/>
+          <a:ext cx="3105150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="圆角矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2813050" y="50088800"/>
+          <a:ext cx="3105150" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4362,15 +4808,148 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接连接符 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="0"/>
+          <a:endCxn id="58" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365625" y="50088800"/>
+          <a:ext cx="0" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="圆角矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060700" y="50234850"/>
+          <a:ext cx="1035050" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>点击此处可以清除已输入内容</a:t>
+            <a:t>当需要注解的位置位于屏幕右侧时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>tips</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>在左侧居中位置出现</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4380,37 +4959,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直接箭头连接符 80"/>
+        <xdr:cNvPr id="61" name="直接连接符 60"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="3"/>
-          <a:endCxn id="79" idx="1"/>
+          <a:stCxn id="58" idx="1"/>
+          <a:endCxn id="58" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3924300" y="67656075"/>
-          <a:ext cx="666750" cy="123825"/>
+        <a:xfrm>
+          <a:off x="2813050" y="50698400"/>
+          <a:ext cx="3105150" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4438,27 +5016,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总则"/>
-      <sheetName val="上线必过标准"/>
-      <sheetName val="QA质量标准"/>
-      <sheetName val="UE质量标准"/>
-      <sheetName val="MTL质量标准"/>
-      <sheetName val="App Store公司内审标准"/>
-      <sheetName val="QA推荐标准（非强制）"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>手游</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4751,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4951,21 +5511,21 @@
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C11" s="14">
         <v>42111</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4981,7 +5541,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4990,13 +5550,23 @@
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42117</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>293</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -5010,7 +5580,9 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -5024,33 +5596,25 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -5058,28 +5622,90 @@
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H13" location="tips位置规则以及文本标准" display="补充tips出现位置规范以及文本显示规范"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5087,196 +5713,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="8.875" style="19"/>
+    <col min="2" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="17" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="17" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="L305" sqref="L305"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -5309,509 +5938,1122 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="30"/>
+      <c r="D18" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="30"/>
+      <c r="D19" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="1" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="1" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C55" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C62" s="29"/>
+      <c r="D62" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H68" s="29"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H71" s="29"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D76" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="1" t="s">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1" t="s">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D78" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C79" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D80" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C81" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1" t="s">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C96" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="s">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D97" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C82" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C97" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D98" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D99" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C101" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C102" s="29"/>
+      <c r="D102" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C103" s="29"/>
+      <c r="D103" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C108" s="29"/>
+      <c r="D108" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H114" s="29"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H115" s="29"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H116" s="29"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H117" s="29"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="1" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C120" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D121" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C122" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D123" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C124" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D125" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C126" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D127" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C141" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D142" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D143" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D144" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D145" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C147" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C148" s="29"/>
+      <c r="D148" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C149" s="29"/>
+      <c r="D149" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C153" s="29"/>
+      <c r="D153" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H159" s="29"/>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H160" s="29"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F161" s="29"/>
+      <c r="G161" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H161" s="29"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F162" s="29"/>
+      <c r="G162" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H162" s="29"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C165" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D166" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C167" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D168" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C169" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D170" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C183" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D184" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D185" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C104" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D105" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C106" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D107" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C108" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D109" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C122" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D123" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D124" s="1" t="s">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D186" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D125" s="1" t="s">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C188" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="29"/>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C189" s="29"/>
+      <c r="D189" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E189" s="29"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="29"/>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C190" s="29"/>
+      <c r="D190" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E190" s="29"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="29"/>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G191" s="29"/>
+      <c r="H191" s="29"/>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G192" s="29"/>
+      <c r="H192" s="29"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F193" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G193" s="29"/>
+      <c r="H193" s="29"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C194" s="29"/>
+      <c r="D194" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
+      <c r="H194" s="29"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F195" s="29"/>
+      <c r="G195" s="29"/>
+      <c r="H195" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F196" s="29"/>
+      <c r="G196" s="29"/>
+      <c r="H196" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F197" s="29"/>
+      <c r="G197" s="29"/>
+      <c r="H197" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F198" s="29"/>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F200" s="29"/>
+      <c r="G200" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H200" s="29"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F201" s="29"/>
+      <c r="G201" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H201" s="29"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F202" s="29"/>
+      <c r="G202" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H202" s="29"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F203" s="29"/>
+      <c r="G203" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H203" s="29"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B205" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C128" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D129" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C130" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D131" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C132" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D133" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C146" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D147" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D148" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D149" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D150" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C153" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D154" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C155" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D156" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C157" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D158" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C159" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D160" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C174" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D175" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D176" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D177" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C180" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D181" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C182" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D183" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C184" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D185" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C186" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D187" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C201" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D202" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D203" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C206" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D207" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C208" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="209" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D209" s="1" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210" spans="3:4" x14ac:dyDescent="0.35">
@@ -5821,402 +7063,1590 @@
     </row>
     <row r="211" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D211" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C224" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D225" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D226" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D227" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D228" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C230" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29"/>
+      <c r="G230" s="29"/>
+      <c r="H230" s="29"/>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C231" s="29"/>
+      <c r="D231" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E231" s="29"/>
+      <c r="F231" s="29"/>
+      <c r="G231" s="29"/>
+      <c r="H231" s="29"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C232" s="29"/>
+      <c r="D232" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="29"/>
+      <c r="H232" s="29"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F233" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G233" s="29"/>
+      <c r="H233" s="29"/>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F234" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G234" s="29"/>
+      <c r="H234" s="29"/>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F235" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G235" s="29"/>
+      <c r="H235" s="29"/>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C236" s="29"/>
+      <c r="D236" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E236" s="29"/>
+      <c r="F236" s="29"/>
+      <c r="G236" s="29"/>
+      <c r="H236" s="29"/>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F237" s="29"/>
+      <c r="G237" s="29"/>
+      <c r="H237" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C238" s="29"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F238" s="29"/>
+      <c r="G238" s="29"/>
+      <c r="H238" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C239" s="29"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F239" s="29"/>
+      <c r="G239" s="29"/>
+      <c r="H239" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F240" s="29"/>
+      <c r="G240" s="29"/>
+      <c r="H240" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F241" s="29"/>
+      <c r="G241" s="29"/>
+      <c r="H241" s="29"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F242" s="29"/>
+      <c r="G242" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H242" s="29"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F243" s="29"/>
+      <c r="G243" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H243" s="29"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F244" s="29"/>
+      <c r="G244" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H244" s="29"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F245" s="29"/>
+      <c r="G245" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H245" s="29"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C248" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C212" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D213" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D214" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C216" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D217" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D218" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C220" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D221" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D222" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D223" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A226" s="15" t="s">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D249" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C250" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D251" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C252" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D253" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C254" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D255" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C269" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D270" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D271" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D272" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C274" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D274" s="28"/>
+    </row>
+    <row r="275" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C275" s="28"/>
+      <c r="D275" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C276" s="28"/>
+      <c r="D276" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C277" s="28"/>
+      <c r="D277" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C279" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D279" s="29"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="29"/>
+      <c r="G279" s="29"/>
+      <c r="H279" s="29"/>
+    </row>
+    <row r="280" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C280" s="29"/>
+      <c r="D280" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E280" s="29"/>
+      <c r="F280" s="29"/>
+      <c r="G280" s="29"/>
+      <c r="H280" s="29"/>
+    </row>
+    <row r="281" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C281" s="29"/>
+      <c r="D281" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E281" s="29"/>
+      <c r="F281" s="29"/>
+      <c r="G281" s="29"/>
+      <c r="H281" s="29"/>
+    </row>
+    <row r="282" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C282" s="29"/>
+      <c r="D282" s="29"/>
+      <c r="E282" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F282" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G282" s="29"/>
+      <c r="H282" s="29"/>
+    </row>
+    <row r="283" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C283" s="29"/>
+      <c r="D283" s="29"/>
+      <c r="E283" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G283" s="29"/>
+      <c r="H283" s="29"/>
+    </row>
+    <row r="284" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C284" s="29"/>
+      <c r="D284" s="29"/>
+      <c r="E284" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F284" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G284" s="29"/>
+      <c r="H284" s="29"/>
+    </row>
+    <row r="285" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C285" s="29"/>
+      <c r="D285" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E285" s="29"/>
+      <c r="F285" s="29"/>
+      <c r="G285" s="29"/>
+      <c r="H285" s="29"/>
+    </row>
+    <row r="286" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C286" s="29"/>
+      <c r="D286" s="29"/>
+      <c r="E286" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F286" s="29"/>
+      <c r="G286" s="29"/>
+      <c r="H286" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C287" s="29"/>
+      <c r="D287" s="29"/>
+      <c r="E287" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F287" s="29"/>
+      <c r="G287" s="29"/>
+      <c r="H287" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C288" s="29"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F288" s="29"/>
+      <c r="G288" s="29"/>
+      <c r="H288" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C289" s="29"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F289" s="29"/>
+      <c r="G289" s="29"/>
+      <c r="H289" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C290" s="29"/>
+      <c r="D290" s="29"/>
+      <c r="E290" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F290" s="29"/>
+      <c r="G290" s="29"/>
+      <c r="H290" s="29"/>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C291" s="29"/>
+      <c r="D291" s="29"/>
+      <c r="E291" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F291" s="29"/>
+      <c r="G291" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H291" s="29"/>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C292" s="29"/>
+      <c r="D292" s="29"/>
+      <c r="E292" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F292" s="29"/>
+      <c r="G292" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H292" s="29"/>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C293" s="29"/>
+      <c r="D293" s="29"/>
+      <c r="E293" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F293" s="29"/>
+      <c r="G293" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H293" s="29"/>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C294" s="29"/>
+      <c r="D294" s="29"/>
+      <c r="E294" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F294" s="29"/>
+      <c r="G294" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H294" s="29"/>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B296" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C297" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D298" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C299" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D300" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C301" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D302" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C303" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D304" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C318" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D319" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D320" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="322" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C322" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D322" s="28"/>
+    </row>
+    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C323" s="28"/>
+      <c r="D323" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C324" s="28"/>
+      <c r="D324" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C325" s="28"/>
+      <c r="D325" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C327" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D327" s="28"/>
+    </row>
+    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C328" s="28"/>
+      <c r="D328" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C329" s="28"/>
+      <c r="D329" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C330" s="28"/>
+      <c r="D330" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="332" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C332" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D332" s="29"/>
+      <c r="E332" s="29"/>
+      <c r="F332" s="29"/>
+      <c r="G332" s="29"/>
+      <c r="H332" s="29"/>
+    </row>
+    <row r="333" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C333" s="29"/>
+      <c r="D333" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E333" s="29"/>
+      <c r="F333" s="29"/>
+      <c r="G333" s="29"/>
+      <c r="H333" s="29"/>
+    </row>
+    <row r="334" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C334" s="29"/>
+      <c r="D334" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E334" s="29"/>
+      <c r="F334" s="29"/>
+      <c r="G334" s="29"/>
+      <c r="H334" s="29"/>
+    </row>
+    <row r="335" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C335" s="29"/>
+      <c r="D335" s="29"/>
+      <c r="E335" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F335" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G335" s="29"/>
+      <c r="H335" s="29"/>
+    </row>
+    <row r="336" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C336" s="29"/>
+      <c r="D336" s="29"/>
+      <c r="E336" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F336" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G336" s="29"/>
+      <c r="H336" s="29"/>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C337" s="29"/>
+      <c r="D337" s="29"/>
+      <c r="E337" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F337" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G337" s="29"/>
+      <c r="H337" s="29"/>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C338" s="29"/>
+      <c r="D338" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E338" s="29"/>
+      <c r="F338" s="29"/>
+      <c r="G338" s="29"/>
+      <c r="H338" s="29"/>
+    </row>
+    <row r="339" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C339" s="29"/>
+      <c r="D339" s="29"/>
+      <c r="E339" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F339" s="29"/>
+      <c r="G339" s="29"/>
+      <c r="H339" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C340" s="29"/>
+      <c r="D340" s="29"/>
+      <c r="E340" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F340" s="29"/>
+      <c r="G340" s="29"/>
+      <c r="H340" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C341" s="29"/>
+      <c r="D341" s="29"/>
+      <c r="E341" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F341" s="29"/>
+      <c r="G341" s="29"/>
+      <c r="H341" s="29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C342" s="29"/>
+      <c r="D342" s="29"/>
+      <c r="E342" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F342" s="29"/>
+      <c r="G342" s="29"/>
+      <c r="H342" s="29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C343" s="29"/>
+      <c r="D343" s="29"/>
+      <c r="E343" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F343" s="29"/>
+      <c r="G343" s="29"/>
+      <c r="H343" s="29"/>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C344" s="29"/>
+      <c r="D344" s="29"/>
+      <c r="E344" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F344" s="29"/>
+      <c r="G344" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H344" s="29"/>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C345" s="29"/>
+      <c r="D345" s="29"/>
+      <c r="E345" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F345" s="29"/>
+      <c r="G345" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H345" s="29"/>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C346" s="29"/>
+      <c r="D346" s="29"/>
+      <c r="E346" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F346" s="29"/>
+      <c r="G346" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H346" s="29"/>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C347" s="29"/>
+      <c r="D347" s="29"/>
+      <c r="E347" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F347" s="29"/>
+      <c r="G347" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="H347" s="29"/>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C348" s="29"/>
+      <c r="D348" s="29"/>
+      <c r="E348" s="29"/>
+      <c r="F348" s="29"/>
+      <c r="G348" s="29"/>
+      <c r="H348" s="29"/>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B349" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C350" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D351" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C352" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D353" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C354" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D355" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C356" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D357" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D358" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C360" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D361" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D362" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C364" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D365" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D366" s="28"/>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D367" s="28"/>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D368" s="28"/>
+    </row>
+    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D369" s="28"/>
+    </row>
+    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D370" s="28"/>
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D371" s="28"/>
+    </row>
+    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D372" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C380" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D380" s="28"/>
+    </row>
+    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C381" s="28"/>
+      <c r="D381" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D382" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E382" s="28"/>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D383" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E383" s="28"/>
+    </row>
+    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D384" s="28"/>
+      <c r="E384" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D385" s="28"/>
+      <c r="E385" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D386" s="28"/>
+      <c r="E386" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D387" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E387" s="28"/>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B391" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C392" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B227" s="1" t="s">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C393" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C394" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B396" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C228" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C229" s="1" t="s">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C397" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B399" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B231" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C232" s="1" t="s">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C400" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B402" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C403" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B234" s="1" t="s">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C404" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C235" s="1" t="s">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C405" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B237" s="1" t="s">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C406" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D406" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C407" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D407" s="29"/>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C408" s="29"/>
+      <c r="D408" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C409" s="29"/>
+      <c r="D409" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C410" s="29"/>
+      <c r="D410" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D411" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D412" s="29"/>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B413" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C414" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C415" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C238" s="1" t="s">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B419" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C239" s="1" t="s">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C420" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C240" s="1" t="s">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D421" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D422" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C423" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B242" s="1" t="s">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B425" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C243" s="1" t="s">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C426" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C427" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="15" t="s">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C428" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B247" s="1" t="s">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C429" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B431" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C432" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C433" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C434" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C435" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C436" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D436" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C437" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D437" s="29"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C438" s="29"/>
+      <c r="D438" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C439" s="29"/>
+      <c r="D439" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C440" s="29"/>
+      <c r="D440" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D441" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A443" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B444" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C445" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D446" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C248" s="1" t="s">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D447" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D249" s="1" t="s">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C448" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B450" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C451" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D250" s="1" t="s">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C452" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C251" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B253" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C254" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C255" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C256" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B258" s="1" t="s">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B454" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C455" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C456" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D457" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D458" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C459" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B461" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C462" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C463" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B465" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C466" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C467" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C468" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C469" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C470" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D470" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C471" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D471" s="29"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C472" s="29"/>
+      <c r="D472" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C473" s="29"/>
+      <c r="D473" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C474" s="29"/>
+      <c r="D474" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D475" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A477" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B478" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C479" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C483" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C484" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C489" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B491" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C492" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C493" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B495" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C496" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C497" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C259" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C260" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C261" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B265" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C266" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D267" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D268" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C269" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B271" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C272" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C273" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B275" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C276" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C277" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D278" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D279" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B280" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C281" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C282" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B284" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C285" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C286" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C287" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A290" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B291" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C292" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C296" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C297" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B303" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C304" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C305" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B307" s="1" t="s">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B499" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C499" s="29"/>
+      <c r="D499" s="29"/>
+      <c r="E499" s="29"/>
+      <c r="F499" s="29"/>
+      <c r="G499" s="29"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B500" s="29"/>
+      <c r="C500" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D500" s="29"/>
+      <c r="E500" s="29"/>
+      <c r="F500" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="G500" s="29"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B501" s="29"/>
+      <c r="C501" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D501" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E501" s="29"/>
+      <c r="F501" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="G501" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B502" s="29"/>
+      <c r="C502" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D502" s="29"/>
+      <c r="E502" s="29"/>
+      <c r="F502" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="G502" s="29"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B503" s="29"/>
+      <c r="C503" s="29"/>
+      <c r="D503" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E503" s="29"/>
+      <c r="F503" s="29"/>
+      <c r="G503" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B504" s="29"/>
+      <c r="C504" s="29"/>
+      <c r="D504" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E504" s="29"/>
+      <c r="F504" s="29"/>
+      <c r="G504" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B505" s="29"/>
+      <c r="C505" s="29"/>
+      <c r="D505" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E505" s="29"/>
+      <c r="F505" s="29"/>
+      <c r="G505" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B506" s="29"/>
+      <c r="C506" s="29"/>
+      <c r="D506" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E506" s="29"/>
+      <c r="F506" s="29"/>
+      <c r="G506" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A507" s="16"/>
+      <c r="D507" s="29"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A508" s="16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C308" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C309" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B313" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B315" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B317" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B319" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B321" s="1" t="s">
-        <v>161</v>
+      <c r="D508" s="29"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B509" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B511" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="513" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B513" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="515" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B515" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="519" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B519" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="520" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B520" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="521" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B521" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C521" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="522" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B522" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C522" s="29"/>
+    </row>
+    <row r="523" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B523" s="29"/>
+      <c r="C523" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="F523" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="524" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B524" s="29"/>
+      <c r="C524" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="F524" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="525" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B525" s="29"/>
+      <c r="C525" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="F525" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="526" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B526" s="29"/>
+      <c r="C526" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F526" s="29" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T125"/>
+  <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6231,59 +8661,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C7" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="22"/>
@@ -6297,342 +8727,342 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="21" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" s="21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" s="21"/>
       <c r="D20" s="20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C21" s="21" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="21"/>
       <c r="D22" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" s="21"/>
       <c r="D24" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="21" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="21" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" s="21" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" s="21"/>
       <c r="D32" s="20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C33" s="21"/>
       <c r="D33" s="20" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C34" s="21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D35" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D36" s="20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C39" s="21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C40" s="21"/>
       <c r="D40" s="20" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C41" s="21" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C42" s="21"/>
       <c r="D42" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C43" s="21" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C44" s="21"/>
       <c r="D44" s="20" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C45" s="21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C46" s="21"/>
       <c r="D46" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C47" s="21" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C48" s="21"/>
       <c r="D48" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C49" s="21"/>
       <c r="D49" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C50" s="21" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C51" s="21"/>
       <c r="D51" s="20" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C52" s="21" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" s="21"/>
       <c r="D53" s="20" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C54" s="21"/>
       <c r="D54" s="20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C55" s="21"/>
       <c r="D55" s="20" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" s="21"/>
       <c r="D56" s="20" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C57" s="21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D58" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D59" s="20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="21" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C62" s="21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C63" s="21"/>
       <c r="D63" s="20" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C64" s="21" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C65" s="21"/>
       <c r="D65" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C66" s="21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C67" s="21"/>
       <c r="D67" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C68" s="21" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C69" s="21"/>
       <c r="D69" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
@@ -6649,7 +9079,7 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C70" s="21"/>
       <c r="D70" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -6665,7 +9095,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C71" s="21" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -6682,7 +9112,7 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C72" s="21"/>
       <c r="D72" s="20" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -6699,7 +9129,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C73" s="21" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
@@ -6717,10 +9147,10 @@
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C74" s="21"/>
       <c r="D74" s="20" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
@@ -6738,10 +9168,10 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C75" s="21"/>
       <c r="D75" s="20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
@@ -6759,10 +9189,10 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C76" s="21"/>
       <c r="D76" s="20" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
@@ -6780,10 +9210,10 @@
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C77" s="21"/>
       <c r="D77" s="25" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
@@ -6801,7 +9231,7 @@
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="24"/>
       <c r="C78" s="21" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
@@ -6819,10 +9249,10 @@
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="24"/>
       <c r="D79" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>232</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -6840,10 +9270,10 @@
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="24"/>
       <c r="D80" s="20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
@@ -6880,7 +9310,7 @@
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="21" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
@@ -6896,7 +9326,7 @@
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C83" s="21" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -6913,7 +9343,7 @@
     <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C84" s="21"/>
       <c r="D84" s="20" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
@@ -6929,7 +9359,7 @@
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C85" s="21" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -6946,7 +9376,7 @@
     <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C86" s="21"/>
       <c r="D86" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
@@ -6962,7 +9392,7 @@
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C87" s="21" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
@@ -6972,7 +9402,7 @@
     <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C88" s="21"/>
       <c r="D88" s="20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
@@ -6981,7 +9411,7 @@
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C89" s="21" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
@@ -6991,7 +9421,7 @@
     <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C90" s="21"/>
       <c r="D90" s="20" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
@@ -7002,7 +9432,7 @@
     <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C91" s="21"/>
       <c r="D91" s="20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
@@ -7012,7 +9442,7 @@
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C92" s="21" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
@@ -7023,7 +9453,7 @@
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C93" s="21"/>
       <c r="D93" s="20" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
@@ -7033,7 +9463,7 @@
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C94" s="21" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
@@ -7044,7 +9474,7 @@
     <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C95" s="21"/>
       <c r="D95" s="20" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -7054,7 +9484,7 @@
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C96" s="21" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -7065,10 +9495,10 @@
     <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C97" s="21"/>
       <c r="D97" s="20" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -7079,10 +9509,10 @@
     <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C98" s="21"/>
       <c r="D98" s="20" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
@@ -7093,10 +9523,10 @@
     <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C99" s="21"/>
       <c r="D99" s="20" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
@@ -7105,11 +9535,10 @@
       <c r="M99" s="21"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C100" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="32" t="s">
+        <v>373</v>
+      </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
       <c r="K100" s="21"/>
@@ -7117,13 +9546,11 @@
       <c r="M100" s="21"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C101" s="25"/>
-      <c r="D101" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="C101" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="21"/>
@@ -7133,10 +9560,10 @@
     <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C102" s="25"/>
       <c r="D102" s="25" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -7145,12 +9572,13 @@
       <c r="M102" s="21"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>297</v>
+      </c>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="21"/>
@@ -7158,17 +9586,21 @@
       <c r="M103" s="21"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
       <c r="J104" s="21"/>
       <c r="K104" s="21"/>
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C105" s="21" t="s">
-        <v>221</v>
+      <c r="B105" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="J105" s="21"/>
       <c r="K105" s="21"/>
@@ -7176,9 +9608,8 @@
       <c r="M105" s="21"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C106" s="21"/>
-      <c r="D106" s="20" t="s">
-        <v>265</v>
+      <c r="C106" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="J106" s="21"/>
       <c r="K106" s="21"/>
@@ -7186,19 +9617,18 @@
       <c r="M106" s="21"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C107" s="21" t="s">
-        <v>223</v>
+      <c r="C107" s="21"/>
+      <c r="D107" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="J107" s="21"/>
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C108" s="21"/>
-      <c r="D108" s="20" t="s">
-        <v>224</v>
+      <c r="C108" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="21"/>
@@ -7207,8 +9637,9 @@
       <c r="N108" s="21"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C109" s="21" t="s">
-        <v>225</v>
+      <c r="C109" s="21"/>
+      <c r="D109" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
@@ -7217,9 +9648,8 @@
       <c r="N109" s="21"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C110" s="21"/>
-      <c r="D110" s="20" t="s">
-        <v>226</v>
+      <c r="C110" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
@@ -7228,8 +9658,9 @@
       <c r="N110" s="21"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C111" s="21" t="s">
-        <v>266</v>
+      <c r="C111" s="21"/>
+      <c r="D111" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
@@ -7238,9 +9669,8 @@
       <c r="N111" s="21"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C112" s="21"/>
-      <c r="D112" s="20" t="s">
-        <v>208</v>
+      <c r="C112" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
@@ -7251,7 +9681,7 @@
     <row r="113" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C113" s="21"/>
       <c r="D113" s="20" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
@@ -7260,8 +9690,9 @@
       <c r="N113" s="21"/>
     </row>
     <row r="114" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C114" s="21" t="s">
-        <v>267</v>
+      <c r="C114" s="21"/>
+      <c r="D114" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
@@ -7270,9 +9701,8 @@
       <c r="N114" s="21"/>
     </row>
     <row r="115" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C115" s="21"/>
-      <c r="D115" s="20" t="s">
-        <v>268</v>
+      <c r="C115" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
@@ -7281,28 +9711,19 @@
       <c r="N115" s="21"/>
     </row>
     <row r="116" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C116" s="21" t="s">
-        <v>269</v>
+      <c r="C116" s="21"/>
+      <c r="D116" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
     </row>
     <row r="117" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C117" s="21"/>
-      <c r="D117" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>273</v>
+      <c r="C117" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="J117" s="21"/>
       <c r="K117" s="21"/>
@@ -7319,10 +9740,10 @@
     <row r="118" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C118" s="21"/>
       <c r="D118" s="20" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
@@ -7338,11 +9759,11 @@
     </row>
     <row r="119" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C119" s="21"/>
-      <c r="D119" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>274</v>
+      <c r="D119" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
@@ -7357,12 +9778,8 @@
       <c r="T119" s="21"/>
     </row>
     <row r="120" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C120" s="21"/>
-      <c r="D120" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>238</v>
+      <c r="C120" s="21" t="s">
+        <v>213</v>
       </c>
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
@@ -7377,8 +9794,11 @@
       <c r="T120" s="21"/>
     </row>
     <row r="121" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C121" s="21" t="s">
-        <v>231</v>
+      <c r="D121" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
@@ -7394,10 +9814,10 @@
     </row>
     <row r="122" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D122" s="20" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
@@ -7412,12 +9832,13 @@
       <c r="T122" s="21"/>
     </row>
     <row r="123" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D123" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
       <c r="J123" s="21"/>
       <c r="K123" s="21"/>
       <c r="L123" s="21"/>
@@ -7431,44 +9852,29 @@
       <c r="T123" s="21"/>
     </row>
     <row r="124" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-    </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="23"/>
-      <c r="O125" s="23"/>
-      <c r="P125" s="23"/>
-      <c r="Q125" s="23"/>
-      <c r="R125" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="23"/>
+      <c r="P124" s="23"/>
+      <c r="Q124" s="23"/>
+      <c r="R124" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7480,9 +9886,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -7492,11 +9898,165 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -14,15 +14,17 @@
     <sheet name="动画与音效规则" sheetId="3" r:id="rId5"/>
     <sheet name="音乐音效" sheetId="7" r:id="rId6"/>
     <sheet name="设计备忘" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="tips位置规则以及文本标准">控件规则!$C$364:$I$387</definedName>
+    <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="378">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1475,18 +1477,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>unity通常使用.map与.ogg作为音效格式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目前产品（coms）使用wav作为统一音效格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目前产品（coms）使用ogg作为统一音效格式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>应包含：确定按钮、取消按钮、主体界面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1520,6 +1514,28 @@
   </si>
   <si>
     <t>样式需标明需求颜色（或者色系）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.刀塔传奇字体</t>
+  </si>
+  <si>
+    <t>英文字体：Helvetica Condensed (bold)</t>
+  </si>
+  <si>
+    <t>中文字体：华康圆体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unity通常使用.map与.ogg作为音乐格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前产品（coms）使用ogg作为统一音乐格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改ogg为音乐格式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1527,7 +1543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,6 +1706,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1715,7 +1746,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1784,6 +1815,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5314,7 +5355,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5613,7 +5654,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5628,7 +5669,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -7315,7 +7358,7 @@
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D255" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.35">
@@ -8034,7 +8077,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C400" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.35">
@@ -8149,7 +8192,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C426" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -8281,7 +8324,7 @@
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C455" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.35">
@@ -8605,7 +8648,7 @@
     <row r="524" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B524" s="29"/>
       <c r="C524" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F524" s="29" t="s">
         <v>349</v>
@@ -8614,7 +8657,7 @@
     <row r="525" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B525" s="29"/>
       <c r="C525" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F525" s="29" t="s">
         <v>350</v>
@@ -8623,7 +8666,7 @@
     <row r="526" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B526" s="29"/>
       <c r="C526" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F526" s="29" t="s">
         <v>351</v>
@@ -9537,7 +9580,7 @@
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -9917,7 +9960,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9937,17 +9980,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -9959,10 +10002,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10050,13 +10093,42 @@
         <v>279</v>
       </c>
     </row>
+    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B26" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="tips位置规则以及文本标准">控件规则!$C$364:$I$387</definedName>
+    <definedName name="tips位置规则以及文本标准">控件规则!$C$408:$I$431</definedName>
     <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="384">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一级窗口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>直接由主界面的功能图标或者按钮打开的窗口为一级窗口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1536,6 +1532,34 @@
   </si>
   <si>
     <t>修改ogg为音乐格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级窗口A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级窗口B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该窗口为模态样式，打开整体遮罩主界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为960*640像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc、策划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与帆爷商讨后补充一种一级窗口样式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2635,13 +2659,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2651,8 +2675,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="17161669"/>
-          <a:ext cx="4652962" cy="2519362"/>
+          <a:off x="2074069" y="26329481"/>
+          <a:ext cx="4652962" cy="2519363"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -2819,13 +2843,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2876,13 +2900,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2892,8 +2916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="26537841"/>
-          <a:ext cx="4652962" cy="2519362"/>
+          <a:off x="2074069" y="35705653"/>
+          <a:ext cx="4652962" cy="2519363"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -2999,13 +3023,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3056,13 +3080,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3072,7 +3096,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2055019" y="35516344"/>
+          <a:off x="2055019" y="44684156"/>
           <a:ext cx="4519612" cy="2330053"/>
           <a:chOff x="2076450" y="25869900"/>
           <a:chExt cx="4562475" cy="2343150"/>
@@ -3220,13 +3244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3289,7 +3313,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="334451"/>
@@ -3344,13 +3368,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3410,13 +3434,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3486,13 +3510,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3562,13 +3586,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3628,13 +3652,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>357</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3724,13 +3748,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>479</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>481</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3740,8 +3764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1395413" y="100004164"/>
-          <a:ext cx="3774281" cy="264320"/>
+          <a:off x="1395413" y="109171976"/>
+          <a:ext cx="3774281" cy="264321"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
         </a:xfrm>
@@ -3973,13 +3997,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3989,7 +4013,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335882" y="100941186"/>
+          <a:off x="1335882" y="110108998"/>
           <a:ext cx="3833812" cy="265511"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
@@ -4222,13 +4246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>487</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4238,8 +4262,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335881" y="101319804"/>
-          <a:ext cx="3843338" cy="265512"/>
+          <a:off x="1335881" y="110487617"/>
+          <a:ext cx="3843338" cy="265511"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
         </a:xfrm>
@@ -4471,13 +4495,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>515</xdr:row>
+      <xdr:row>559</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>517</xdr:row>
+      <xdr:row>561</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4539,13 +4563,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4602,13 +4626,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4654,13 +4678,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4744,13 +4768,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4796,13 +4820,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4859,13 +4883,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4911,13 +4935,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5001,13 +5025,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>418</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5047,6 +5071,190 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="组合 61"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2074069" y="17085469"/>
+          <a:ext cx="4652962" cy="2519362"/>
+          <a:chOff x="5724525" y="6457950"/>
+          <a:chExt cx="4695825" cy="2533650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="矩形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5724525" y="6648450"/>
+            <a:ext cx="4562475" cy="2343150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="3200">
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>主体界面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="圆角矩形 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7200900" y="6467475"/>
+            <a:ext cx="1638300" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>窗口标题</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="圆角矩形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10020300" y="6457950"/>
+            <a:ext cx="400050" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="1"/>
+              <a:t>X</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5352,10 +5560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5552,21 +5760,21 @@
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="14">
         <v>42111</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -5582,7 +5790,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5592,21 +5800,21 @@
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="14">
         <v>42117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="31" t="s">
         <v>292</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>293</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5622,7 +5830,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5638,7 +5846,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5654,7 +5862,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -5670,7 +5878,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -5679,38 +5887,34 @@
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42123</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>382</v>
+      </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5719,21 +5923,89 @@
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5768,163 +6040,163 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C34" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B78" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>168</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5942,9 +6214,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H570"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5983,7 +6257,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -5993,12 +6267,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6008,40 +6282,40 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="D17" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="D18" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -6051,7 +6325,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -6074,67 +6348,67 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>42</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C55" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -6145,7 +6419,7 @@
     <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C56" s="29"/>
       <c r="D56" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
@@ -6155,7 +6429,7 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C57" s="29"/>
       <c r="D57" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -6166,10 +6440,10 @@
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -6178,10 +6452,10 @@
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -6190,10 +6464,10 @@
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -6202,10 +6476,10 @@
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -6213,7 +6487,7 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="29"/>
       <c r="D62" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -6224,55 +6498,55 @@
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -6282,11 +6556,11 @@
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H68" s="29"/>
     </row>
@@ -6294,11 +6568,11 @@
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H69" s="29"/>
     </row>
@@ -6306,11 +6580,11 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H70" s="29"/>
     </row>
@@ -6318,84 +6592,89 @@
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H71" s="29"/>
     </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>51</v>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C76" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D76" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D78" s="1" t="s">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D79" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C80" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D80" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D97" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D98" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D99" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C100" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C101" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
@@ -6404,7 +6683,7 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="29"/>
       <c r="D102" s="29" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -6413,11 +6692,13 @@
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="29"/>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="29"/>
+      <c r="E103" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F103" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
     </row>
@@ -6452,38 +6733,38 @@
         <v>310</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F107" s="29" t="s">
+      <c r="D107" s="29" t="s">
         <v>312</v>
       </c>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C108" s="29"/>
-      <c r="D108" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29" t="s">
+        <v>325</v>
+      </c>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
+      <c r="H108" s="29" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
@@ -6523,9 +6804,7 @@
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
-      <c r="H112" s="29" t="s">
-        <v>330</v>
-      </c>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C113" s="29"/>
@@ -6534,14 +6813,16 @@
         <v>317</v>
       </c>
       <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
+      <c r="G113" s="29" t="s">
+        <v>318</v>
+      </c>
       <c r="H113" s="29"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C114" s="29"/>
       <c r="D114" s="29"/>
       <c r="E114" s="29" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="29" t="s">
@@ -6573,65 +6854,58 @@
       </c>
       <c r="H116" s="29"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="H117" s="29"/>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>60</v>
+      <c r="C119" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C121" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D121" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C123" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D123" s="1" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D124" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C124" s="1" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C125" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D125" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C126" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D127" s="1" t="s">
-        <v>62</v>
+      <c r="D126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C140" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6642,24 +6916,34 @@
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D143" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D144" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D145" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C145" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C146" s="29"/>
+      <c r="D146" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
     </row>
     <row r="147" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C147" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29" t="s">
+        <v>303</v>
+      </c>
       <c r="E147" s="29"/>
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
@@ -6667,21 +6951,25 @@
     </row>
     <row r="148" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C148" s="29"/>
-      <c r="D148" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>304</v>
+      </c>
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
     </row>
     <row r="149" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C149" s="29"/>
-      <c r="D149" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>305</v>
+      </c>
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
     </row>
@@ -6704,38 +6992,38 @@
         <v>310</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
     </row>
     <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F152" s="29" t="s">
+      <c r="D152" s="29" t="s">
         <v>312</v>
       </c>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
       <c r="G152" s="29"/>
       <c r="H152" s="29"/>
     </row>
     <row r="153" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C153" s="29"/>
-      <c r="D153" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29" t="s">
+        <v>325</v>
+      </c>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
+      <c r="H153" s="29" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
@@ -6775,9 +7063,7 @@
       </c>
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
-      <c r="H157" s="29" t="s">
-        <v>330</v>
-      </c>
+      <c r="H157" s="29"/>
     </row>
     <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="29"/>
@@ -6786,14 +7072,16 @@
         <v>317</v>
       </c>
       <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
+      <c r="G158" s="29" t="s">
+        <v>318</v>
+      </c>
       <c r="H158" s="29"/>
     </row>
     <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="29" t="s">
@@ -6825,146 +7113,115 @@
       </c>
       <c r="H161" s="29"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="H162" s="29"/>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>68</v>
+      <c r="C164" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C166" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D167" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C168" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D166" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C167" s="1" t="s">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D169" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C170" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D168" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C169" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D170" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C183" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D184" s="1" t="s">
-        <v>67</v>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D171" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D185" s="1" t="s">
-        <v>69</v>
+      <c r="C185" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D186" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D187" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C188" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
+      <c r="D188" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="189" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C189" s="29"/>
-      <c r="D189" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E189" s="29"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="29"/>
-    </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C190" s="29"/>
-      <c r="D190" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="29"/>
+      <c r="D189" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="191" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C191" s="29"/>
+      <c r="C191" s="29" t="s">
+        <v>294</v>
+      </c>
       <c r="D191" s="29"/>
-      <c r="E191" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F191" s="29" t="s">
-        <v>306</v>
-      </c>
+      <c r="E191" s="29"/>
+      <c r="F191" s="29"/>
       <c r="G191" s="29"/>
       <c r="H191" s="29"/>
     </row>
     <row r="192" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F192" s="29" t="s">
-        <v>307</v>
-      </c>
+      <c r="D192" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192" s="29"/>
+      <c r="F192" s="29"/>
       <c r="G192" s="29"/>
       <c r="H192" s="29"/>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F193" s="29" t="s">
-        <v>312</v>
-      </c>
+      <c r="D193" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E193" s="29"/>
+      <c r="F193" s="29"/>
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C194" s="29"/>
-      <c r="D194" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E194" s="29"/>
-      <c r="F194" s="29"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>305</v>
+      </c>
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
     </row>
@@ -6972,193 +7229,202 @@
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F195" s="29"/>
+        <v>309</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>306</v>
+      </c>
       <c r="G195" s="29"/>
-      <c r="H195" s="29" t="s">
-        <v>327</v>
-      </c>
+      <c r="H195" s="29"/>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C196" s="29"/>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="F196" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="G196" s="29"/>
-      <c r="H196" s="29" t="s">
-        <v>328</v>
-      </c>
+      <c r="H196" s="29"/>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29" t="s">
-        <v>315</v>
-      </c>
+      <c r="D197" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="29"/>
-      <c r="H197" s="29" t="s">
-        <v>329</v>
-      </c>
+      <c r="H197" s="29"/>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
       <c r="E199" s="29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
-      <c r="H199" s="29"/>
+      <c r="H199" s="29" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F200" s="29"/>
-      <c r="G200" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="H200" s="29"/>
+      <c r="G200" s="29"/>
+      <c r="H200" s="29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C201" s="29"/>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F201" s="29"/>
-      <c r="G201" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H201" s="29"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F202" s="29"/>
-      <c r="G202" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="G202" s="29"/>
       <c r="H202" s="29"/>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C203" s="29"/>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F203" s="29"/>
       <c r="G203" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="H203" s="29"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="H203" s="29"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H204" s="29"/>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F205" s="29"/>
+      <c r="G205" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H205" s="29"/>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F206" s="29"/>
+      <c r="G206" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H206" s="29"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B208" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C209" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D210" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C211" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D207" s="1" t="s">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D212" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C213" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D214" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C208" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D209" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C210" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D211" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C224" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D225" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D226" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="227" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D227" s="1" t="s">
-        <v>75</v>
+      <c r="C227" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D228" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D229" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="230" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C230" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="29"/>
-      <c r="H230" s="29"/>
-    </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C231" s="29"/>
-      <c r="D231" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="29"/>
-      <c r="H231" s="29"/>
+      <c r="D230" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="232" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C232" s="29"/>
-      <c r="D232" s="29" t="s">
-        <v>304</v>
-      </c>
+      <c r="C232" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D232" s="29"/>
       <c r="E232" s="29"/>
       <c r="F232" s="29"/>
       <c r="G232" s="29"/>
@@ -7166,25 +7432,21 @@
     </row>
     <row r="233" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F233" s="29" t="s">
-        <v>306</v>
-      </c>
+      <c r="D233" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E233" s="29"/>
+      <c r="F233" s="29"/>
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
     </row>
     <row r="234" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F234" s="29" t="s">
-        <v>307</v>
-      </c>
+      <c r="D234" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E234" s="29"/>
+      <c r="F234" s="29"/>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
     </row>
@@ -7192,21 +7454,23 @@
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F235" s="29" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
     </row>
     <row r="236" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C236" s="29"/>
-      <c r="D236" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F236" s="29" t="s">
+        <v>306</v>
+      </c>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
     </row>
@@ -7214,93 +7478,91 @@
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F237" s="29"/>
+        <v>310</v>
+      </c>
+      <c r="F237" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="G237" s="29"/>
-      <c r="H237" s="29" t="s">
-        <v>327</v>
-      </c>
+      <c r="H237" s="29"/>
     </row>
     <row r="238" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C238" s="29"/>
-      <c r="D238" s="29"/>
-      <c r="E238" s="29" t="s">
-        <v>314</v>
-      </c>
+      <c r="D238" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E238" s="29"/>
       <c r="F238" s="29"/>
       <c r="G238" s="29"/>
-      <c r="H238" s="29" t="s">
-        <v>328</v>
-      </c>
+      <c r="H238" s="29"/>
     </row>
     <row r="239" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F239" s="29"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F240" s="29"/>
       <c r="G240" s="29"/>
       <c r="H240" s="29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F241" s="29"/>
       <c r="G241" s="29"/>
-      <c r="H241" s="29"/>
+      <c r="H241" s="29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F242" s="29"/>
-      <c r="G242" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="H242" s="29"/>
+      <c r="G242" s="29"/>
+      <c r="H242" s="29" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F243" s="29"/>
-      <c r="G243" s="29" t="s">
-        <v>320</v>
-      </c>
+      <c r="G243" s="29"/>
       <c r="H243" s="29"/>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C244" s="29"/>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F244" s="29"/>
       <c r="G244" s="29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H244" s="29"/>
     </row>
@@ -7308,117 +7570,168 @@
       <c r="C245" s="29"/>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F245" s="29"/>
       <c r="G245" s="29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H245" s="29"/>
     </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="F246" s="29"/>
+      <c r="G246" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H246" s="29"/>
+    </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B247" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C248" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H247" s="29"/>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D249" s="1" t="s">
-        <v>78</v>
+      <c r="B249" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C250" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D251" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C252" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D253" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C254" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D255" s="1" t="s">
-        <v>363</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C268" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C269" s="1" t="s">
-        <v>54</v>
+      <c r="D269" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="270" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D270" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D271" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="272" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D272" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="274" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C274" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D274" s="28"/>
+      <c r="C274" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D274" s="29"/>
+      <c r="E274" s="29"/>
+      <c r="F274" s="29"/>
+      <c r="G274" s="29"/>
+      <c r="H274" s="29"/>
     </row>
     <row r="275" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C275" s="28"/>
-      <c r="D275" s="28" t="s">
-        <v>272</v>
-      </c>
+      <c r="C275" s="29"/>
+      <c r="D275" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E275" s="29"/>
+      <c r="F275" s="29"/>
+      <c r="G275" s="29"/>
+      <c r="H275" s="29"/>
     </row>
     <row r="276" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C276" s="28"/>
-      <c r="D276" s="28" t="s">
-        <v>273</v>
-      </c>
+      <c r="C276" s="29"/>
+      <c r="D276" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E276" s="29"/>
+      <c r="F276" s="29"/>
+      <c r="G276" s="29"/>
+      <c r="H276" s="29"/>
     </row>
     <row r="277" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C277" s="28"/>
-      <c r="D277" s="28" t="s">
-        <v>274</v>
-      </c>
+      <c r="C277" s="29"/>
+      <c r="D277" s="29"/>
+      <c r="E277" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F277" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G277" s="29"/>
+      <c r="H277" s="29"/>
+    </row>
+    <row r="278" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C278" s="29"/>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F278" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G278" s="29"/>
+      <c r="H278" s="29"/>
     </row>
     <row r="279" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C279" s="29" t="s">
-        <v>295</v>
-      </c>
+      <c r="C279" s="29"/>
       <c r="D279" s="29"/>
-      <c r="E279" s="29"/>
-      <c r="F279" s="29"/>
+      <c r="E279" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F279" s="29" t="s">
+        <v>311</v>
+      </c>
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
     </row>
     <row r="280" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C280" s="29"/>
       <c r="D280" s="29" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E280" s="29"/>
       <c r="F280" s="29"/>
@@ -7427,56 +7740,58 @@
     </row>
     <row r="281" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C281" s="29"/>
-      <c r="D281" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E281" s="29"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="29" t="s">
+        <v>325</v>
+      </c>
       <c r="F281" s="29"/>
       <c r="G281" s="29"/>
-      <c r="H281" s="29"/>
+      <c r="H281" s="29" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="282" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C282" s="29"/>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F282" s="29" t="s">
-        <v>306</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F282" s="29"/>
       <c r="G282" s="29"/>
-      <c r="H282" s="29"/>
+      <c r="H282" s="29" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="283" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C283" s="29"/>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F283" s="29" t="s">
-        <v>307</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F283" s="29"/>
       <c r="G283" s="29"/>
-      <c r="H283" s="29"/>
+      <c r="H283" s="29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="284" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C284" s="29"/>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F284" s="29" t="s">
-        <v>312</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F284" s="29"/>
       <c r="G284" s="29"/>
-      <c r="H284" s="29"/>
+      <c r="H284" s="29" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="285" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C285" s="29"/>
-      <c r="D285" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E285" s="29"/>
+      <c r="D285" s="29"/>
+      <c r="E285" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="F285" s="29"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
@@ -7485,242 +7800,269 @@
       <c r="C286" s="29"/>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F286" s="29"/>
-      <c r="G286" s="29"/>
-      <c r="H286" s="29" t="s">
-        <v>327</v>
-      </c>
+      <c r="G286" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="H286" s="29"/>
     </row>
     <row r="287" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C287" s="29"/>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F287" s="29"/>
-      <c r="G287" s="29"/>
-      <c r="H287" s="29" t="s">
-        <v>328</v>
-      </c>
+      <c r="G287" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="H287" s="29"/>
     </row>
     <row r="288" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C288" s="29"/>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F288" s="29"/>
-      <c r="G288" s="29"/>
-      <c r="H288" s="29" t="s">
-        <v>329</v>
-      </c>
+      <c r="G288" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="H288" s="29"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C289" s="29"/>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F289" s="29"/>
-      <c r="G289" s="29"/>
-      <c r="H289" s="29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C290" s="29"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="F290" s="29"/>
-      <c r="G290" s="29"/>
-      <c r="H290" s="29"/>
+      <c r="G289" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H289" s="29"/>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C291" s="29"/>
-      <c r="D291" s="29"/>
-      <c r="E291" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="F291" s="29"/>
-      <c r="G291" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="H291" s="29"/>
+      <c r="B291" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C292" s="29"/>
-      <c r="D292" s="29"/>
-      <c r="E292" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="F292" s="29"/>
-      <c r="G292" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="H292" s="29"/>
+      <c r="C292" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C293" s="29"/>
-      <c r="D293" s="29"/>
-      <c r="E293" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="F293" s="29"/>
-      <c r="G293" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="H293" s="29"/>
+      <c r="D293" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C294" s="29"/>
-      <c r="D294" s="29"/>
-      <c r="E294" s="29" t="s">
+      <c r="C294" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D295" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C296" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D297" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C298" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D299" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C313" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D314" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D315" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D316" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C318" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D318" s="28"/>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C319" s="28"/>
+      <c r="D319" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C320" s="28"/>
+      <c r="D320" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C321" s="28"/>
+      <c r="D321" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C323" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D323" s="29"/>
+      <c r="E323" s="29"/>
+      <c r="F323" s="29"/>
+      <c r="G323" s="29"/>
+      <c r="H323" s="29"/>
+    </row>
+    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C324" s="29"/>
+      <c r="D324" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E324" s="29"/>
+      <c r="F324" s="29"/>
+      <c r="G324" s="29"/>
+      <c r="H324" s="29"/>
+    </row>
+    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C325" s="29"/>
+      <c r="D325" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E325" s="29"/>
+      <c r="F325" s="29"/>
+      <c r="G325" s="29"/>
+      <c r="H325" s="29"/>
+    </row>
+    <row r="326" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C326" s="29"/>
+      <c r="D326" s="29"/>
+      <c r="E326" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F326" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G326" s="29"/>
+      <c r="H326" s="29"/>
+    </row>
+    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C327" s="29"/>
+      <c r="D327" s="29"/>
+      <c r="E327" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F327" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G327" s="29"/>
+      <c r="H327" s="29"/>
+    </row>
+    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C328" s="29"/>
+      <c r="D328" s="29"/>
+      <c r="E328" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F328" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G328" s="29"/>
+      <c r="H328" s="29"/>
+    </row>
+    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C329" s="29"/>
+      <c r="D329" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E329" s="29"/>
+      <c r="F329" s="29"/>
+      <c r="G329" s="29"/>
+      <c r="H329" s="29"/>
+    </row>
+    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C330" s="29"/>
+      <c r="D330" s="29"/>
+      <c r="E330" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="F294" s="29"/>
-      <c r="G294" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="H294" s="29"/>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B296" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C297" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D298" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C299" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D300" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C301" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D302" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C303" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D304" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C318" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D319" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D320" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="322" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C322" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D322" s="28"/>
-    </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C323" s="28"/>
-      <c r="D323" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C324" s="28"/>
-      <c r="D324" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C325" s="28"/>
-      <c r="D325" s="28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C327" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D327" s="28"/>
-    </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C328" s="28"/>
-      <c r="D328" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C329" s="28"/>
-      <c r="D329" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C330" s="28"/>
-      <c r="D330" s="28" t="s">
-        <v>274</v>
+      <c r="F330" s="29"/>
+      <c r="G330" s="29"/>
+      <c r="H330" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C331" s="29"/>
+      <c r="D331" s="29"/>
+      <c r="E331" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F331" s="29"/>
+      <c r="G331" s="29"/>
+      <c r="H331" s="29" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C332" s="29" t="s">
-        <v>295</v>
-      </c>
+      <c r="C332" s="29"/>
       <c r="D332" s="29"/>
-      <c r="E332" s="29"/>
+      <c r="E332" s="29" t="s">
+        <v>314</v>
+      </c>
       <c r="F332" s="29"/>
       <c r="G332" s="29"/>
-      <c r="H332" s="29"/>
+      <c r="H332" s="29" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="333" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C333" s="29"/>
-      <c r="D333" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E333" s="29"/>
+      <c r="D333" s="29"/>
+      <c r="E333" s="29" t="s">
+        <v>315</v>
+      </c>
       <c r="F333" s="29"/>
       <c r="G333" s="29"/>
-      <c r="H333" s="29"/>
+      <c r="H333" s="29" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="334" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C334" s="29"/>
-      <c r="D334" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="E334" s="29"/>
+      <c r="D334" s="29"/>
+      <c r="E334" s="29" t="s">
+        <v>316</v>
+      </c>
       <c r="F334" s="29"/>
       <c r="G334" s="29"/>
       <c r="H334" s="29"/>
@@ -7729,947 +8071,1133 @@
       <c r="C335" s="29"/>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F335" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="G335" s="29"/>
+        <v>317</v>
+      </c>
+      <c r="F335" s="29"/>
+      <c r="G335" s="29" t="s">
+        <v>318</v>
+      </c>
       <c r="H335" s="29"/>
     </row>
     <row r="336" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C336" s="29"/>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F336" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="G336" s="29"/>
+        <v>322</v>
+      </c>
+      <c r="F336" s="29"/>
+      <c r="G336" s="29" t="s">
+        <v>319</v>
+      </c>
       <c r="H336" s="29"/>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C337" s="29"/>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="F337" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="G337" s="29"/>
+        <v>323</v>
+      </c>
+      <c r="F337" s="29"/>
+      <c r="G337" s="29" t="s">
+        <v>320</v>
+      </c>
       <c r="H337" s="29"/>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C338" s="29"/>
-      <c r="D338" s="29" t="s">
+      <c r="D338" s="29"/>
+      <c r="E338" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F338" s="29"/>
+      <c r="G338" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="H338" s="29"/>
+    </row>
+    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B340" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C341" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D342" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C343" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D344" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C345" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D346" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C347" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D348" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C362" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D363" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D364" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C366" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D366" s="28"/>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C367" s="28"/>
+      <c r="D367" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C368" s="28"/>
+      <c r="D368" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="369" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C369" s="28"/>
+      <c r="D369" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="371" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C371" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D371" s="28"/>
+    </row>
+    <row r="372" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C372" s="28"/>
+      <c r="D372" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C373" s="28"/>
+      <c r="D373" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="374" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C374" s="28"/>
+      <c r="D374" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="376" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C376" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D376" s="29"/>
+      <c r="E376" s="29"/>
+      <c r="F376" s="29"/>
+      <c r="G376" s="29"/>
+      <c r="H376" s="29"/>
+    </row>
+    <row r="377" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C377" s="29"/>
+      <c r="D377" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E377" s="29"/>
+      <c r="F377" s="29"/>
+      <c r="G377" s="29"/>
+      <c r="H377" s="29"/>
+    </row>
+    <row r="378" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C378" s="29"/>
+      <c r="D378" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E378" s="29"/>
+      <c r="F378" s="29"/>
+      <c r="G378" s="29"/>
+      <c r="H378" s="29"/>
+    </row>
+    <row r="379" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C379" s="29"/>
+      <c r="D379" s="29"/>
+      <c r="E379" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F379" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="G379" s="29"/>
+      <c r="H379" s="29"/>
+    </row>
+    <row r="380" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C380" s="29"/>
+      <c r="D380" s="29"/>
+      <c r="E380" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F380" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="G380" s="29"/>
+      <c r="H380" s="29"/>
+    </row>
+    <row r="381" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C381" s="29"/>
+      <c r="D381" s="29"/>
+      <c r="E381" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F381" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G381" s="29"/>
+      <c r="H381" s="29"/>
+    </row>
+    <row r="382" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C382" s="29"/>
+      <c r="D382" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E382" s="29"/>
+      <c r="F382" s="29"/>
+      <c r="G382" s="29"/>
+      <c r="H382" s="29"/>
+    </row>
+    <row r="383" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C383" s="29"/>
+      <c r="D383" s="29"/>
+      <c r="E383" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F383" s="29"/>
+      <c r="G383" s="29"/>
+      <c r="H383" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="384" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="E338" s="29"/>
-      <c r="F338" s="29"/>
-      <c r="G338" s="29"/>
-      <c r="H338" s="29"/>
-    </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C339" s="29"/>
-      <c r="D339" s="29"/>
-      <c r="E339" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F339" s="29"/>
-      <c r="G339" s="29"/>
-      <c r="H339" s="29" t="s">
+      <c r="F384" s="29"/>
+      <c r="G384" s="29"/>
+      <c r="H384" s="29" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C340" s="29"/>
-      <c r="D340" s="29"/>
-      <c r="E340" s="29" t="s">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C385" s="29"/>
+      <c r="D385" s="29"/>
+      <c r="E385" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F340" s="29"/>
-      <c r="G340" s="29"/>
-      <c r="H340" s="29" t="s">
+      <c r="F385" s="29"/>
+      <c r="G385" s="29"/>
+      <c r="H385" s="29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C341" s="29"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="29" t="s">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C386" s="29"/>
+      <c r="D386" s="29"/>
+      <c r="E386" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="F341" s="29"/>
-      <c r="G341" s="29"/>
-      <c r="H341" s="29" t="s">
+      <c r="F386" s="29"/>
+      <c r="G386" s="29"/>
+      <c r="H386" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C342" s="29"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="29" t="s">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C387" s="29"/>
+      <c r="D387" s="29"/>
+      <c r="E387" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F342" s="29"/>
-      <c r="G342" s="29"/>
-      <c r="H342" s="29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C343" s="29"/>
-      <c r="D343" s="29"/>
-      <c r="E343" s="29" t="s">
+      <c r="F387" s="29"/>
+      <c r="G387" s="29"/>
+      <c r="H387" s="29"/>
+    </row>
+    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C388" s="29"/>
+      <c r="D388" s="29"/>
+      <c r="E388" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="F343" s="29"/>
-      <c r="G343" s="29"/>
-      <c r="H343" s="29"/>
-    </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C344" s="29"/>
-      <c r="D344" s="29"/>
-      <c r="E344" s="29" t="s">
+      <c r="F388" s="29"/>
+      <c r="G388" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="F344" s="29"/>
-      <c r="G344" s="29" t="s">
+      <c r="H388" s="29"/>
+    </row>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C389" s="29"/>
+      <c r="D389" s="29"/>
+      <c r="E389" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F389" s="29"/>
+      <c r="G389" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="H344" s="29"/>
-    </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C345" s="29"/>
-      <c r="D345" s="29"/>
-      <c r="E345" s="29" t="s">
+      <c r="H389" s="29"/>
+    </row>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C390" s="29"/>
+      <c r="D390" s="29"/>
+      <c r="E390" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="F345" s="29"/>
-      <c r="G345" s="29" t="s">
+      <c r="F390" s="29"/>
+      <c r="G390" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="H345" s="29"/>
-    </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C346" s="29"/>
-      <c r="D346" s="29"/>
-      <c r="E346" s="29" t="s">
+      <c r="H390" s="29"/>
+    </row>
+    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+      <c r="E391" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="F346" s="29"/>
-      <c r="G346" s="29" t="s">
+      <c r="F391" s="29"/>
+      <c r="G391" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="H346" s="29"/>
-    </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C347" s="29"/>
-      <c r="D347" s="29"/>
-      <c r="E347" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F347" s="29"/>
-      <c r="G347" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="H347" s="29"/>
-    </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C348" s="29"/>
-      <c r="D348" s="29"/>
-      <c r="E348" s="29"/>
-      <c r="F348" s="29"/>
-      <c r="G348" s="29"/>
-      <c r="H348" s="29"/>
-    </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B349" s="15" t="s">
+      <c r="H391" s="29"/>
+    </row>
+    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C392" s="29"/>
+      <c r="D392" s="29"/>
+      <c r="E392" s="29"/>
+      <c r="F392" s="29"/>
+      <c r="G392" s="29"/>
+      <c r="H392" s="29"/>
+    </row>
+    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B393" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C394" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D395" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C350" s="1" t="s">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C396" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D351" s="1" t="s">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D397" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C352" s="1" t="s">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C398" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D353" s="1" t="s">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D399" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C400" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C354" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D355" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C356" s="1" t="s">
+    <row r="401" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D401" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D357" s="1" t="s">
+    <row r="402" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D402" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D358" s="1" t="s">
+    <row r="404" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C404" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D405" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C360" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D361" s="1" t="s">
+    <row r="406" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D406" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D362" s="1" t="s">
+    <row r="408" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C408" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C364" s="1" t="s">
+    <row r="409" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D409" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D410" s="28"/>
+    </row>
+    <row r="411" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D411" s="28"/>
+    </row>
+    <row r="412" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D412" s="28"/>
+    </row>
+    <row r="413" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D413" s="28"/>
+    </row>
+    <row r="414" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D414" s="28"/>
+    </row>
+    <row r="415" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D415" s="28"/>
+    </row>
+    <row r="416" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D416" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C424" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D424" s="28"/>
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C425" s="28"/>
+      <c r="D425" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D426" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E426" s="28"/>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D427" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E427" s="28"/>
+    </row>
+    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D428" s="28"/>
+      <c r="E428" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D429" s="28"/>
+      <c r="E429" s="28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D430" s="28"/>
+      <c r="E430" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D431" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E431" s="28"/>
+    </row>
+    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D432" s="28"/>
+      <c r="E432" s="28"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A434" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B435" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C436" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C437" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C438" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B440" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C441" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B443" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C444" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B446" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C447" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C448" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C449" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C450" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D450" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C451" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D451" s="29"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C452" s="29"/>
+      <c r="D452" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C453" s="29"/>
+      <c r="D453" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C454" s="29"/>
+      <c r="D454" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D455" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D456" s="29"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B457" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C458" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C459" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A462" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B463" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C464" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D465" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D466" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C467" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B469" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C470" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C471" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C472" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C473" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B475" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C476" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C477" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C478" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C479" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C480" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D480" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C481" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D481" s="29"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C482" s="29"/>
+      <c r="D482" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C483" s="29"/>
+      <c r="D483" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C484" s="29"/>
+      <c r="D484" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D485" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A487" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B488" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C489" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D490" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D491" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C492" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B494" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C495" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C496" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B498" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C499" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C500" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D501" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D502" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C503" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B505" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C506" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C507" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B509" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C510" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C511" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C512" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C513" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C514" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D514" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C515" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D515" s="29"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C516" s="29"/>
+      <c r="D516" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C517" s="29"/>
+      <c r="D517" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C518" s="29"/>
+      <c r="D518" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D519" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A521" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B522" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C523" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C527" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C528" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C533" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B535" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C536" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C537" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B539" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C540" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C541" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B543" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C543" s="29"/>
+      <c r="D543" s="29"/>
+      <c r="E543" s="29"/>
+      <c r="F543" s="29"/>
+      <c r="G543" s="29"/>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B544" s="29"/>
+      <c r="C544" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D544" s="29"/>
+      <c r="E544" s="29"/>
+      <c r="F544" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="G544" s="29"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B545" s="29"/>
+      <c r="C545" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D545" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E545" s="29"/>
+      <c r="F545" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G545" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B546" s="29"/>
+      <c r="C546" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D546" s="29"/>
+      <c r="E546" s="29"/>
+      <c r="F546" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G546" s="29"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B547" s="29"/>
+      <c r="C547" s="29"/>
+      <c r="D547" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E547" s="29"/>
+      <c r="F547" s="29"/>
+      <c r="G547" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B548" s="29"/>
+      <c r="C548" s="29"/>
+      <c r="D548" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E548" s="29"/>
+      <c r="F548" s="29"/>
+      <c r="G548" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B549" s="29"/>
+      <c r="C549" s="29"/>
+      <c r="D549" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E549" s="29"/>
+      <c r="F549" s="29"/>
+      <c r="G549" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B550" s="29"/>
+      <c r="C550" s="29"/>
+      <c r="D550" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E550" s="29"/>
+      <c r="F550" s="29"/>
+      <c r="G550" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A551" s="16"/>
+      <c r="D551" s="29"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A552" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D365" s="28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D366" s="28"/>
-    </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D367" s="28"/>
-    </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D368" s="28"/>
-    </row>
-    <row r="369" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D369" s="28"/>
-    </row>
-    <row r="370" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D370" s="28"/>
-    </row>
-    <row r="371" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D371" s="28"/>
-    </row>
-    <row r="372" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D372" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="380" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C380" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="D380" s="28"/>
-    </row>
-    <row r="381" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C381" s="28"/>
-      <c r="D381" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="382" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D382" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E382" s="28"/>
-    </row>
-    <row r="383" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D383" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E383" s="28"/>
-    </row>
-    <row r="384" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D384" s="28"/>
-      <c r="E384" s="28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D385" s="28"/>
-      <c r="E385" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D386" s="28"/>
-      <c r="E386" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D387" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E387" s="28"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D388" s="28"/>
-      <c r="E388" s="28"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A390" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B391" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C392" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C393" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C394" s="29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B396" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C397" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B399" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C400" s="29" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B402" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C403" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C404" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C405" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C406" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D406" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C407" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="D407" s="29"/>
-    </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C408" s="29"/>
-      <c r="D408" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C409" s="29"/>
-      <c r="D409" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C410" s="29"/>
-      <c r="D410" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D411" s="29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D412" s="29"/>
-    </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B413" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C414" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C415" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B419" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C420" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D421" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D422" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C423" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B425" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C426" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C427" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C428" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C429" s="29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B431" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C432" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C433" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C434" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C435" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C436" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D436" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C437" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="D437" s="29"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C438" s="29"/>
-      <c r="D438" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C439" s="29"/>
-      <c r="D439" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C440" s="29"/>
-      <c r="D440" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D441" s="29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B444" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C445" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D446" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D447" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C448" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B450" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C451" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C452" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B454" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C455" s="29" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C456" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D457" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D458" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C459" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B461" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C462" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C463" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B465" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C466" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C467" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C468" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C469" s="28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C470" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D470" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C471" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="D471" s="29"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C472" s="29"/>
-      <c r="D472" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C473" s="29"/>
-      <c r="D473" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C474" s="29"/>
-      <c r="D474" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D475" s="29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A477" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B478" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C479" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C483" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C484" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C489" s="29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B491" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C492" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C493" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B495" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C496" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C497" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B499" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C499" s="29"/>
-      <c r="D499" s="29"/>
-      <c r="E499" s="29"/>
-      <c r="F499" s="29"/>
-      <c r="G499" s="29"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B500" s="29"/>
-      <c r="C500" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="D500" s="29"/>
-      <c r="E500" s="29"/>
-      <c r="F500" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="G500" s="29"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B501" s="29"/>
-      <c r="C501" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="D501" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="E501" s="29"/>
-      <c r="F501" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="G501" s="29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B502" s="29"/>
-      <c r="C502" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="D502" s="29"/>
-      <c r="E502" s="29"/>
-      <c r="F502" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="G502" s="29"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B503" s="29"/>
-      <c r="C503" s="29"/>
-      <c r="D503" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E503" s="29"/>
-      <c r="F503" s="29"/>
-      <c r="G503" s="29" t="s">
+      <c r="D552" s="29"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B553" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B555" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B557" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B559" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="563" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B563" s="29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B504" s="29"/>
-      <c r="C504" s="29"/>
-      <c r="D504" s="29" t="s">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B564" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="565" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B565" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C565" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="566" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B566" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C566" s="29"/>
+    </row>
+    <row r="567" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B567" s="29"/>
+      <c r="C567" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="F567" s="29" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="568" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B568" s="29"/>
+      <c r="C568" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F568" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="E504" s="29"/>
-      <c r="F504" s="29"/>
-      <c r="G504" s="29" t="s">
+    </row>
+    <row r="569" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B569" s="29"/>
+      <c r="C569" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="F569" s="29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B505" s="29"/>
-      <c r="C505" s="29"/>
-      <c r="D505" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="E505" s="29"/>
-      <c r="F505" s="29"/>
-      <c r="G505" s="29" t="s">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B570" s="29"/>
+      <c r="C570" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="F570" s="29" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B506" s="29"/>
-      <c r="C506" s="29"/>
-      <c r="D506" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="E506" s="29"/>
-      <c r="F506" s="29"/>
-      <c r="G506" s="29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A507" s="16"/>
-      <c r="D507" s="29"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A508" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D508" s="29"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B509" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B511" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B513" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B515" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B519" s="29" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B520" s="29" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B521" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C521" s="29" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B522" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="C522" s="29"/>
-    </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B523" s="29"/>
-      <c r="C523" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="F523" s="29" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B524" s="29"/>
-      <c r="C524" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="F524" s="29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B525" s="29"/>
-      <c r="C525" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="F525" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B526" s="29"/>
-      <c r="C526" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="F526" s="29" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -8704,59 +9232,59 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C7" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="22"/>
@@ -8770,342 +9298,342 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" s="21"/>
       <c r="D20" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C21" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="21"/>
       <c r="D22" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" s="21"/>
       <c r="D24" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" s="21"/>
       <c r="D32" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C33" s="21"/>
       <c r="D33" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C34" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D35" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D36" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C39" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C40" s="21"/>
       <c r="D40" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C41" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C42" s="21"/>
       <c r="D42" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C43" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C44" s="21"/>
       <c r="D44" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C45" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C46" s="21"/>
       <c r="D46" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C47" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C48" s="21"/>
       <c r="D48" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C49" s="21"/>
       <c r="D49" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C50" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C51" s="21"/>
       <c r="D51" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C52" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" s="21"/>
       <c r="D53" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C54" s="21"/>
       <c r="D54" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C55" s="21"/>
       <c r="D55" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" s="21"/>
       <c r="D56" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C57" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D58" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D59" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C62" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C63" s="21"/>
       <c r="D63" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C64" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C65" s="21"/>
       <c r="D65" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C66" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C67" s="21"/>
       <c r="D67" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C68" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C69" s="21"/>
       <c r="D69" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
@@ -9122,7 +9650,7 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C70" s="21"/>
       <c r="D70" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -9138,7 +9666,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C71" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
@@ -9155,7 +9683,7 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C72" s="21"/>
       <c r="D72" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
@@ -9172,7 +9700,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C73" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
@@ -9190,10 +9718,10 @@
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C74" s="21"/>
       <c r="D74" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
@@ -9211,10 +9739,10 @@
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C75" s="21"/>
       <c r="D75" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>219</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
@@ -9232,10 +9760,10 @@
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C76" s="21"/>
       <c r="D76" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
@@ -9253,10 +9781,10 @@
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C77" s="21"/>
       <c r="D77" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
@@ -9274,7 +9802,7 @@
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="24"/>
       <c r="C78" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
@@ -9292,10 +9820,10 @@
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="24"/>
       <c r="D79" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -9313,10 +9841,10 @@
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="24"/>
       <c r="D80" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
@@ -9353,7 +9881,7 @@
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
@@ -9369,7 +9897,7 @@
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C83" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
@@ -9386,7 +9914,7 @@
     <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C84" s="21"/>
       <c r="D84" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
@@ -9402,7 +9930,7 @@
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C85" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
@@ -9419,7 +9947,7 @@
     <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C86" s="21"/>
       <c r="D86" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
@@ -9435,7 +9963,7 @@
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C87" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
@@ -9445,7 +9973,7 @@
     <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C88" s="21"/>
       <c r="D88" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
@@ -9454,7 +9982,7 @@
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C89" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
@@ -9464,7 +9992,7 @@
     <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C90" s="21"/>
       <c r="D90" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
@@ -9475,7 +10003,7 @@
     <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C91" s="21"/>
       <c r="D91" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
@@ -9485,7 +10013,7 @@
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C92" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
@@ -9496,7 +10024,7 @@
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C93" s="21"/>
       <c r="D93" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
@@ -9506,7 +10034,7 @@
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C94" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
@@ -9517,7 +10045,7 @@
     <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C95" s="21"/>
       <c r="D95" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -9527,7 +10055,7 @@
     </row>
     <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C96" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
@@ -9538,10 +10066,10 @@
     <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C97" s="21"/>
       <c r="D97" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
@@ -9552,10 +10080,10 @@
     <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C98" s="21"/>
       <c r="D98" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
@@ -9566,10 +10094,10 @@
     <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C99" s="21"/>
       <c r="D99" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
@@ -9580,7 +10108,7 @@
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -9590,7 +10118,7 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C101" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -9603,10 +10131,10 @@
     <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C102" s="25"/>
       <c r="D102" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -9617,10 +10145,10 @@
     <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C103" s="25"/>
       <c r="D103" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
@@ -9643,7 +10171,7 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J105" s="21"/>
       <c r="K105" s="21"/>
@@ -9652,7 +10180,7 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C106" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J106" s="21"/>
       <c r="K106" s="21"/>
@@ -9662,7 +10190,7 @@
     <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C107" s="21"/>
       <c r="D107" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J107" s="21"/>
       <c r="K107" s="21"/>
@@ -9671,7 +10199,7 @@
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C108" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="21"/>
@@ -9682,7 +10210,7 @@
     <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C109" s="21"/>
       <c r="D109" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
@@ -9692,7 +10220,7 @@
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C110" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
@@ -9703,7 +10231,7 @@
     <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C111" s="21"/>
       <c r="D111" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
@@ -9713,7 +10241,7 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C112" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
@@ -9724,7 +10252,7 @@
     <row r="113" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C113" s="21"/>
       <c r="D113" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
@@ -9735,7 +10263,7 @@
     <row r="114" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C114" s="21"/>
       <c r="D114" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
@@ -9745,7 +10273,7 @@
     </row>
     <row r="115" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C115" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
@@ -9756,7 +10284,7 @@
     <row r="116" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C116" s="21"/>
       <c r="D116" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
@@ -9766,7 +10294,7 @@
     </row>
     <row r="117" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C117" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J117" s="21"/>
       <c r="K117" s="21"/>
@@ -9783,10 +10311,10 @@
     <row r="118" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C118" s="21"/>
       <c r="D118" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
@@ -9803,10 +10331,10 @@
     <row r="119" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C119" s="21"/>
       <c r="D119" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
@@ -9822,7 +10350,7 @@
     </row>
     <row r="120" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C120" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
@@ -9838,10 +10366,10 @@
     </row>
     <row r="121" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D121" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
@@ -9857,10 +10385,10 @@
     </row>
     <row r="122" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D122" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
@@ -9941,7 +10469,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9970,27 +10498,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -10015,97 +10543,97 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="27"/>
       <c r="C7" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="27"/>
       <c r="C9" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
       <c r="C11" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -13,8 +13,8 @@
     <sheet name="设计格式规范" sheetId="5" r:id="rId4"/>
     <sheet name="动画与音效规则" sheetId="3" r:id="rId5"/>
     <sheet name="音乐音效" sheetId="7" r:id="rId6"/>
-    <sheet name="设计备忘" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="命名规范" sheetId="8" r:id="rId7"/>
+    <sheet name="设计备忘" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="498">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1560,6 +1560,744 @@
   </si>
   <si>
     <t>与帆爷商讨后补充一种一级窗口样式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slider</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrollbar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构层命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如loading界面的结构层名称则为 loadingUI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中结构层的英文为小写，UI为大写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件名称命名规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当可能出现多个相同名称的结构层，需要在结构层名称后增加数字用以区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前有3个loading的结构层，则分别命名为 loadingUI、loading1UI、loading2UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 确定按钮 名称则为okbutton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中字母均为小写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若同一个结构层下可能出现多个相同的控件名称，需要在功能或者内容后增加数字用以区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 当有3个确定按钮在同一个结构层，则名称分别命名为 okbutton、ok1button、ok2button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件基础命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>均使用拼音进行命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括游戏内 装备名称、怪物名称、具体系统名称等内容的命名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 白泽 则命名为 baize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当遇相同命名，则需要在名称增加数字用以区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如当前有3个白泽，则命名分别为baize、baize1、baize2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">同一个结构层下的控件命名由 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">功能命名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或者 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">内容命名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">控件基础命名 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">结构层命名采用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构层英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形式</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI资源命名规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 loading界面的上半部分背景图片，则命名为 bg_loading_up</t>
+  </si>
+  <si>
+    <t>普通图片类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>若可能出现相同的命名，则需要在命名后增加数字用以区分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 loading界面的上半部分背景图片有2张，则分别命名为 bg_loading_up、bg_loading_up1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 白泽的头像图标，则命名为 icon_baize_head</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 白泽的头像图标有2个，则分别命名为 icon_baize_head、icon_baize_head1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如无 “适用位置” 则可不带此部分名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 背包的按钮普通状态，则命名为 btn_beibao_n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如 背包的按钮普通状态有2种，则分别命名为 btn_beibao_n、btn_beibao1_n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊图片类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况需要特殊进行命名的图片需要单独规定名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">由 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适用位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 组成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道以及运营商所属的图标不遵循上述规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适应状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高亮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>below</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">由 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适应状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 组成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括游戏内系统功能的名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beibao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>haoyou</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuben</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">由 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">内容_适用位置 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待补充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划、程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增命名规范分页内容</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1567,7 +2305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,6 +2483,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1754,12 +2500,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1770,7 +2596,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1850,6 +2676,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5563,7 +6399,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5909,13 +6745,23 @@
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42124</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -10530,6 +11376,853 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="40"/>
+      <c r="C21" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="40"/>
+      <c r="C24" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="40"/>
+      <c r="C25" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+    </row>
+    <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C51" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C52" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C53" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C55" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B58" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B62" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="39"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B63" s="40"/>
+      <c r="C63" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="L63" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="42"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B64" s="40"/>
+      <c r="C64" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="L64" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="42"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B65" s="40"/>
+      <c r="C65" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="L65" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="42"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B66" s="40"/>
+      <c r="C66" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="P66" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="42"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B67" s="40"/>
+      <c r="C67" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="P67" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="42"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B68" s="40"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="P68" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="42"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B69" s="40"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="P69" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="42"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="42"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B71" s="40"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="41"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="42"/>
+    </row>
+    <row r="72" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="43"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="45"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -10646,17 +12339,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -13,7 +13,7 @@
     <sheet name="设计格式规范" sheetId="5" r:id="rId4"/>
     <sheet name="动画与音效规则" sheetId="3" r:id="rId5"/>
     <sheet name="音乐音效" sheetId="7" r:id="rId6"/>
-    <sheet name="命名规范" sheetId="8" r:id="rId7"/>
+    <sheet name="UI命名规范及制作流程" sheetId="8" r:id="rId7"/>
     <sheet name="设计备忘" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -21,8 +21,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="tips位置规则以及文本标准">控件规则!$C$408:$I$431</definedName>
+    <definedName name="UI制作流程">UI命名规范及制作流程!$A$80</definedName>
     <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
+    <definedName name="六、按钮尺寸规范">控件规则!$B$461:$G$466</definedName>
+    <definedName name="六、列表项尺寸规范">控件规则!$B$535:$F$539</definedName>
+    <definedName name="输入框尺寸规范">控件规则!$B$598</definedName>
+    <definedName name="四、标签按钮尺寸规范">控件规则!$B$495:$D$499</definedName>
+    <definedName name="五、进度条尺寸规范">控件规则!$B$572:$F$576</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="544">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2298,6 +2304,190 @@
   </si>
   <si>
     <t>新增命名规范分页内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI制作流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置阶段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充UI制作流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六、按钮尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮按照类型分为下述几类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度88px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度70px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度60px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度44px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度44px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度根据需求而定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充按钮尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、标签按钮尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度根据需求而定，最大不超过256px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度根据需求而定，最大不超过256px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度70px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度60px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度根据需求而定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充标签页尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六、列表项尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大列表项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小列表项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充列表项尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五、进度条尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大进度条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小进度条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度52px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度46px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度40px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充输入框尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充进度条尺寸规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2492,12 +2682,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -2596,7 +2804,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2686,6 +2894,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4584,13 +4796,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>543</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>545</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4600,8 +4812,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1395413" y="109171976"/>
-          <a:ext cx="3774281" cy="264321"/>
+          <a:off x="1395413" y="113339164"/>
+          <a:ext cx="3774281" cy="264320"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
         </a:xfrm>
@@ -4833,13 +5045,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>548</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>549</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4849,7 +5061,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335882" y="110108998"/>
+          <a:off x="1335882" y="114276186"/>
           <a:ext cx="3833812" cy="265511"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
@@ -5082,13 +5294,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>550</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5098,8 +5310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335881" y="110487617"/>
-          <a:ext cx="3843338" cy="265511"/>
+          <a:off x="1335881" y="114654804"/>
+          <a:ext cx="3843338" cy="265512"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
         </a:xfrm>
@@ -5331,13 +5543,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>559</xdr:row>
+      <xdr:row>585</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>587</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6096,6 +6308,1274 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="16992600"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>策划同学制作需求文档</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>，需要在策划文档中画出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>大致原型并辅以说明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="16830675"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>提出需求</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="18149887"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>细节沟通</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="19992974"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>美术制作</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="21874161"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>程序配置接口</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="23202900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>策划最终配置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="18240375"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>策划同学主动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>与美术同学沟通</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，说明样式与功能并确定美术同学理解</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="19735800"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>美术同学制作初版</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，并由策划同学确认需求后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修改资源名称并</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上传</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SVN</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="22012275"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>策划同学跟进对应</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>程序进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，同时如有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需求变更及时与美术同学沟通</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="23288625"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>程序同学配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>结束</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后交由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>策划同学</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>根据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位置调整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，适配等详细配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="17745075"/>
+          <a:ext cx="0" cy="404812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="19064287"/>
+          <a:ext cx="0" cy="928687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="20907374"/>
+          <a:ext cx="0" cy="966787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="22788561"/>
+          <a:ext cx="0" cy="414339"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="20640675"/>
+          <a:ext cx="3133725" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>美术同学出具</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>示例图</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>，并标明控件规格以及相对父控件位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6396,10 +7876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6769,13 +8249,23 @@
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="14">
+        <v>42125</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>502</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -6789,7 +8279,9 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="31" t="s">
+        <v>515</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -6803,33 +8295,25 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="31" t="s">
+        <v>526</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="31" t="s">
+        <v>530</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -6837,21 +8321,93 @@
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6859,9 +8415,15 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" location="tips位置规则以及文本标准" display="补充tips出现位置规范以及文本显示规范"/>
+    <hyperlink ref="H21" location="六、按钮尺寸规范" display="补充按钮尺寸规范"/>
+    <hyperlink ref="H20" location="UI制作流程" display="补充UI制作流程"/>
+    <hyperlink ref="H22" location="四、标签按钮尺寸规范" display="补充标签页尺寸规范"/>
+    <hyperlink ref="H23" location="六、列表项尺寸规范" display="补充列表项尺寸规范"/>
+    <hyperlink ref="H24" location="输入框尺寸规范" display="补充输入框尺寸规范"/>
+    <hyperlink ref="H25" location="五、进度条尺寸规范" display="补充进度条尺寸规范"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6875,7 +8437,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7060,10 +8622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H570"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A526" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9469,12 +11031,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C449" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C450" s="29" t="s">
         <v>303</v>
       </c>
@@ -9482,568 +11044,793 @@
         <v>337</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C451" s="29" t="s">
         <v>312</v>
       </c>
       <c r="D451" s="29"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C452" s="29"/>
       <c r="D452" s="29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C453" s="29"/>
       <c r="D453" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C454" s="29"/>
       <c r="D454" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D455" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D456" s="29"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B457" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C458" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C459" s="28" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A462" s="15" t="s">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B461" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C462" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D463" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D464" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D465" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D466" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D467" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E468" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A470" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B463" s="1" t="s">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B471" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C464" s="1" t="s">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C472" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D465" s="1" t="s">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D473" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D466" s="1" t="s">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D474" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C467" s="1" t="s">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C475" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B469" s="1" t="s">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B477" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C470" s="29" t="s">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C478" s="29" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C471" s="1" t="s">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C479" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C472" s="1" t="s">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C480" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C473" s="29" t="s">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C481" s="29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B475" s="1" t="s">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B483" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C476" s="1" t="s">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C484" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C477" s="1" t="s">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C485" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C478" s="1" t="s">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C486" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C479" s="28" t="s">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C487" s="28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C480" s="29" t="s">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C488" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="D480" s="29" t="s">
+      <c r="D488" s="29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C481" s="29" t="s">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C489" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D481" s="29"/>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C482" s="29"/>
-      <c r="D482" s="29" t="s">
+      <c r="D489" s="29"/>
+    </row>
+    <row r="490" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C490" s="29"/>
+      <c r="D490" s="29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C483" s="29"/>
-      <c r="D483" s="29" t="s">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C491" s="29"/>
+      <c r="D491" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C484" s="29"/>
-      <c r="D484" s="29" t="s">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C492" s="29"/>
+      <c r="D492" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D485" s="29" t="s">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D493" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A487" s="15" t="s">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B495" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C496" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C497" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C498" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D499" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A501" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B488" s="1" t="s">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B502" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C489" s="1" t="s">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C503" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D490" s="1" t="s">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D504" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D491" s="1" t="s">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D505" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C492" s="1" t="s">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C506" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B494" s="1" t="s">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B508" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C495" s="1" t="s">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C509" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C496" s="1" t="s">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C510" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B498" s="1" t="s">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B512" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C499" s="29" t="s">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C513" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C500" s="1" t="s">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C514" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D501" s="1" t="s">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D515" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D502" s="1" t="s">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D516" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C503" s="29" t="s">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C517" s="29" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B505" s="1" t="s">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B519" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C506" s="1" t="s">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C520" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C507" s="1" t="s">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C521" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B509" s="1" t="s">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B523" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C510" s="1" t="s">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C524" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C511" s="1" t="s">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C525" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C512" s="1" t="s">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C526" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C513" s="28" t="s">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C527" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C514" s="29" t="s">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C528" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="D514" s="29" t="s">
+      <c r="D528" s="29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C515" s="29" t="s">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C529" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D515" s="29"/>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C516" s="29"/>
-      <c r="D516" s="29" t="s">
+      <c r="D529" s="29"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C530" s="29"/>
+      <c r="D530" s="29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C517" s="29"/>
-      <c r="D517" s="29" t="s">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C531" s="29"/>
+      <c r="D531" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C518" s="29"/>
-      <c r="D518" s="29" t="s">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C532" s="29"/>
+      <c r="D532" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D519" s="29" t="s">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D533" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A521" s="15" t="s">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B535" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C536" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C537" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C538" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D539" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A541" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B522" s="1" t="s">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B542" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C523" s="1" t="s">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C543" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C527" s="1" t="s">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C547" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C528" s="1" t="s">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C548" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C533" s="29" t="s">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C553" s="29" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="535" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B535" s="1" t="s">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B555" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C536" s="1" t="s">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C556" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="537" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C537" s="1" t="s">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C557" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B539" s="1" t="s">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B559" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C540" s="1" t="s">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C560" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="541" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C541" s="1" t="s">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C561" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="543" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B543" s="29" t="s">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B563" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C543" s="29"/>
-      <c r="D543" s="29"/>
-      <c r="E543" s="29"/>
-      <c r="F543" s="29"/>
-      <c r="G543" s="29"/>
-    </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B544" s="29"/>
-      <c r="C544" s="29" t="s">
+      <c r="C563" s="29"/>
+      <c r="D563" s="29"/>
+      <c r="E563" s="29"/>
+      <c r="F563" s="29"/>
+      <c r="G563" s="29"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B564" s="29"/>
+      <c r="C564" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="D544" s="29"/>
-      <c r="E544" s="29"/>
-      <c r="F544" s="29" t="s">
+      <c r="D564" s="29"/>
+      <c r="E564" s="29"/>
+      <c r="F564" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="G544" s="29"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B545" s="29"/>
-      <c r="C545" s="29" t="s">
+      <c r="G564" s="29"/>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B565" s="29"/>
+      <c r="C565" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="D545" s="29" t="s">
+      <c r="D565" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E545" s="29"/>
-      <c r="F545" s="29" t="s">
+      <c r="E565" s="29"/>
+      <c r="F565" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G545" s="29" t="s">
+      <c r="G565" s="29" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B546" s="29"/>
-      <c r="C546" s="29" t="s">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B566" s="29"/>
+      <c r="C566" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D546" s="29"/>
-      <c r="E546" s="29"/>
-      <c r="F546" s="29" t="s">
+      <c r="D566" s="29"/>
+      <c r="E566" s="29"/>
+      <c r="F566" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G546" s="29"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B547" s="29"/>
-      <c r="C547" s="29"/>
-      <c r="D547" s="29" t="s">
+      <c r="G566" s="29"/>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B567" s="29"/>
+      <c r="C567" s="29"/>
+      <c r="D567" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E547" s="29"/>
-      <c r="F547" s="29"/>
-      <c r="G547" s="29" t="s">
+      <c r="E567" s="29"/>
+      <c r="F567" s="29"/>
+      <c r="G567" s="29" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B548" s="29"/>
-      <c r="C548" s="29"/>
-      <c r="D548" s="29" t="s">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B568" s="29"/>
+      <c r="C568" s="29"/>
+      <c r="D568" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E548" s="29"/>
-      <c r="F548" s="29"/>
-      <c r="G548" s="29" t="s">
+      <c r="E568" s="29"/>
+      <c r="F568" s="29"/>
+      <c r="G568" s="29" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B549" s="29"/>
-      <c r="C549" s="29"/>
-      <c r="D549" s="29" t="s">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B569" s="29"/>
+      <c r="C569" s="29"/>
+      <c r="D569" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="E549" s="29"/>
-      <c r="F549" s="29"/>
-      <c r="G549" s="29" t="s">
+      <c r="E569" s="29"/>
+      <c r="F569" s="29"/>
+      <c r="G569" s="29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B550" s="29"/>
-      <c r="C550" s="29"/>
-      <c r="D550" s="29" t="s">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B570" s="29"/>
+      <c r="C570" s="29"/>
+      <c r="D570" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E550" s="29"/>
-      <c r="F550" s="29"/>
-      <c r="G550" s="29" t="s">
+      <c r="E570" s="29"/>
+      <c r="F570" s="29"/>
+      <c r="G570" s="29" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A551" s="16"/>
-      <c r="D551" s="29"/>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A552" s="16" t="s">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A571" s="16"/>
+      <c r="D571" s="29"/>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A572" s="16"/>
+      <c r="B572" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D572" s="29"/>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A573" s="16"/>
+      <c r="C573" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D573" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A574" s="16"/>
+      <c r="C574" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D574" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A575" s="16"/>
+      <c r="C575" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A576" s="16"/>
+      <c r="D576" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A577" s="16"/>
+      <c r="D577" s="29"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A578" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D552" s="29"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B553" s="1" t="s">
+      <c r="D578" s="29"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B579" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B555" s="1" t="s">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B581" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B557" s="1" t="s">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B583" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B559" s="1" t="s">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B585" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B563" s="29" t="s">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B589" s="29" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B564" s="29" t="s">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B590" s="29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B565" s="29" t="s">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B591" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C565" s="29" t="s">
+      <c r="C591" s="29" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B566" s="29" t="s">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B592" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C566" s="29"/>
-    </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B567" s="29"/>
-      <c r="C567" s="29" t="s">
+      <c r="C592" s="29"/>
+    </row>
+    <row r="593" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B593" s="29"/>
+      <c r="C593" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="F567" s="29" t="s">
+      <c r="F593" s="29" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B568" s="29"/>
-      <c r="C568" s="29" t="s">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B594" s="29"/>
+      <c r="C594" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="F568" s="29" t="s">
+      <c r="F594" s="29" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B569" s="29"/>
-      <c r="C569" s="29" t="s">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B595" s="29"/>
+      <c r="C595" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F569" s="29" t="s">
+      <c r="F595" s="29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B570" s="29"/>
-      <c r="C570" s="29" t="s">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B596" s="29"/>
+      <c r="C596" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F570" s="29" t="s">
+      <c r="F596" s="29" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="598" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B598" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D598" s="29"/>
+    </row>
+    <row r="599" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C599" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D599" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="600" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C600" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D600" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -11376,10 +13163,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12214,10 +14001,430 @@
         <v>449</v>
       </c>
     </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="47"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="49"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
+      <c r="K110" s="49"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
+      <c r="K111" s="49"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49"/>
+      <c r="K112" s="49"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="49"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12225,8 +14432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="545">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1224,10 +1224,6 @@
   </si>
   <si>
     <t>同一个界面中字体种类不可超过4种</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态文字默认使用冬青黑体</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2488,6 +2484,14 @@
   </si>
   <si>
     <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态文字默认使用华康圆体w7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改默认字体为华康圆体w7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7876,10 +7880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8146,7 +8150,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -8162,7 +8166,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -8178,7 +8182,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -8194,7 +8198,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -8204,19 +8208,19 @@
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="14">
         <v>42123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -8226,21 +8230,21 @@
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C19" s="14">
         <v>42124</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -8250,21 +8254,21 @@
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C20" s="14">
         <v>42125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -8280,7 +8284,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -8296,7 +8300,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -8312,7 +8316,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -8328,7 +8332,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -8344,7 +8348,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -8359,33 +8363,23 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -8393,21 +8387,89 @@
     </row>
     <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8437,7 +8499,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8624,8 +8686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView topLeftCell="A526" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+    <sheetView topLeftCell="A118" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8665,7 +8727,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -8675,7 +8737,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
-        <v>298</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -8690,40 +8752,40 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="D17" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="D18" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -8733,7 +8795,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -8756,7 +8818,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -8837,7 +8899,7 @@
     <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C57" s="29"/>
       <c r="D57" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
@@ -8848,10 +8910,10 @@
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
@@ -8860,10 +8922,10 @@
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
@@ -8872,10 +8934,10 @@
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
@@ -8884,10 +8946,10 @@
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
@@ -8895,7 +8957,7 @@
     <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="29"/>
       <c r="D62" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
@@ -8906,55 +8968,55 @@
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -8964,11 +9026,11 @@
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H68" s="29"/>
     </row>
@@ -8976,11 +9038,11 @@
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H69" s="29"/>
     </row>
@@ -8988,11 +9050,11 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H70" s="29"/>
     </row>
@@ -9000,17 +9062,17 @@
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H71" s="29"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
@@ -9030,7 +9092,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D77" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
@@ -9081,7 +9143,7 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -9091,7 +9153,7 @@
     <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="29"/>
       <c r="D102" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="29"/>
@@ -9102,10 +9164,10 @@
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
@@ -9114,10 +9176,10 @@
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
@@ -9126,10 +9188,10 @@
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
@@ -9138,10 +9200,10 @@
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F106" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
@@ -9149,7 +9211,7 @@
     <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="29"/>
       <c r="D107" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
@@ -9160,55 +9222,55 @@
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
       <c r="H108" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
       <c r="E110" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
       <c r="H110" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C111" s="29"/>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
       <c r="H111" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
       <c r="E112" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
@@ -9218,11 +9280,11 @@
       <c r="C113" s="29"/>
       <c r="D113" s="29"/>
       <c r="E113" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H113" s="29"/>
     </row>
@@ -9230,11 +9292,11 @@
       <c r="C114" s="29"/>
       <c r="D114" s="29"/>
       <c r="E114" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H114" s="29"/>
     </row>
@@ -9242,11 +9304,11 @@
       <c r="C115" s="29"/>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H115" s="29"/>
     </row>
@@ -9254,11 +9316,11 @@
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H116" s="29"/>
     </row>
@@ -9350,7 +9412,7 @@
     <row r="147" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C147" s="29"/>
       <c r="D147" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E147" s="29"/>
       <c r="F147" s="29"/>
@@ -9361,10 +9423,10 @@
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F148" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
@@ -9373,10 +9435,10 @@
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
@@ -9385,10 +9447,10 @@
       <c r="C150" s="29"/>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
@@ -9397,10 +9459,10 @@
       <c r="C151" s="29"/>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F151" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
@@ -9408,7 +9470,7 @@
     <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="29"/>
       <c r="D152" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E152" s="29"/>
       <c r="F152" s="29"/>
@@ -9419,55 +9481,55 @@
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
       <c r="H153" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
       <c r="H154" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="29"/>
       <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F155" s="29"/>
       <c r="G155" s="29"/>
       <c r="H155" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F156" s="29"/>
       <c r="G156" s="29"/>
       <c r="H156" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F157" s="29"/>
       <c r="G157" s="29"/>
@@ -9477,11 +9539,11 @@
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H158" s="29"/>
     </row>
@@ -9489,11 +9551,11 @@
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H159" s="29"/>
     </row>
@@ -9501,11 +9563,11 @@
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H160" s="29"/>
     </row>
@@ -9513,11 +9575,11 @@
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H161" s="29"/>
     </row>
@@ -9614,7 +9676,7 @@
     <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C193" s="29"/>
       <c r="D193" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="29"/>
@@ -9625,10 +9687,10 @@
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
@@ -9637,10 +9699,10 @@
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
@@ -9649,10 +9711,10 @@
       <c r="C196" s="29"/>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F196" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F196" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
@@ -9660,7 +9722,7 @@
     <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C197" s="29"/>
       <c r="D197" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
@@ -9671,55 +9733,55 @@
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
       <c r="E199" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C201" s="29"/>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F201" s="29"/>
       <c r="G201" s="29"/>
       <c r="H201" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F202" s="29"/>
       <c r="G202" s="29"/>
@@ -9729,11 +9791,11 @@
       <c r="C203" s="29"/>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F203" s="29"/>
       <c r="G203" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H203" s="29"/>
     </row>
@@ -9741,11 +9803,11 @@
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F204" s="29"/>
       <c r="G204" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H204" s="29"/>
     </row>
@@ -9753,11 +9815,11 @@
       <c r="C205" s="29"/>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F205" s="29"/>
       <c r="G205" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H205" s="29"/>
     </row>
@@ -9765,11 +9827,11 @@
       <c r="C206" s="29"/>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F206" s="29"/>
       <c r="G206" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H206" s="29"/>
     </row>
@@ -9841,7 +9903,7 @@
     <row r="233" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C233" s="29"/>
       <c r="D233" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E233" s="29"/>
       <c r="F233" s="29"/>
@@ -9851,7 +9913,7 @@
     <row r="234" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C234" s="29"/>
       <c r="D234" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E234" s="29"/>
       <c r="F234" s="29"/>
@@ -9862,10 +9924,10 @@
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F235" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
@@ -9874,10 +9936,10 @@
       <c r="C236" s="29"/>
       <c r="D236" s="29"/>
       <c r="E236" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F236" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
@@ -9886,10 +9948,10 @@
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F237" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F237" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
@@ -9897,7 +9959,7 @@
     <row r="238" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C238" s="29"/>
       <c r="D238" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E238" s="29"/>
       <c r="F238" s="29"/>
@@ -9908,55 +9970,55 @@
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F239" s="29"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F240" s="29"/>
       <c r="G240" s="29"/>
       <c r="H240" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F241" s="29"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F242" s="29"/>
       <c r="G242" s="29"/>
       <c r="H242" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F243" s="29"/>
       <c r="G243" s="29"/>
@@ -9966,11 +10028,11 @@
       <c r="C244" s="29"/>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F244" s="29"/>
       <c r="G244" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H244" s="29"/>
     </row>
@@ -9978,11 +10040,11 @@
       <c r="C245" s="29"/>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F245" s="29"/>
       <c r="G245" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H245" s="29"/>
     </row>
@@ -9990,11 +10052,11 @@
       <c r="C246" s="29"/>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F246" s="29"/>
       <c r="G246" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H246" s="29"/>
     </row>
@@ -10002,11 +10064,11 @@
       <c r="C247" s="29"/>
       <c r="D247" s="29"/>
       <c r="E247" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F247" s="29"/>
       <c r="G247" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H247" s="29"/>
     </row>
@@ -10083,7 +10145,7 @@
     <row r="275" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C275" s="29"/>
       <c r="D275" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E275" s="29"/>
       <c r="F275" s="29"/>
@@ -10093,7 +10155,7 @@
     <row r="276" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C276" s="29"/>
       <c r="D276" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E276" s="29"/>
       <c r="F276" s="29"/>
@@ -10104,10 +10166,10 @@
       <c r="C277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F277" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
@@ -10116,10 +10178,10 @@
       <c r="C278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F278" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
@@ -10128,10 +10190,10 @@
       <c r="C279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F279" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F279" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
@@ -10139,7 +10201,7 @@
     <row r="280" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C280" s="29"/>
       <c r="D280" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E280" s="29"/>
       <c r="F280" s="29"/>
@@ -10150,55 +10212,55 @@
       <c r="C281" s="29"/>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F281" s="29"/>
       <c r="G281" s="29"/>
       <c r="H281" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C282" s="29"/>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F282" s="29"/>
       <c r="G282" s="29"/>
       <c r="H282" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C283" s="29"/>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F283" s="29"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C284" s="29"/>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F284" s="29"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C285" s="29"/>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F285" s="29"/>
       <c r="G285" s="29"/>
@@ -10208,11 +10270,11 @@
       <c r="C286" s="29"/>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F286" s="29"/>
       <c r="G286" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H286" s="29"/>
     </row>
@@ -10220,11 +10282,11 @@
       <c r="C287" s="29"/>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F287" s="29"/>
       <c r="G287" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H287" s="29"/>
     </row>
@@ -10232,11 +10294,11 @@
       <c r="C288" s="29"/>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F288" s="29"/>
       <c r="G288" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H288" s="29"/>
     </row>
@@ -10244,11 +10306,11 @@
       <c r="C289" s="29"/>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F289" s="29"/>
       <c r="G289" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H289" s="29"/>
     </row>
@@ -10294,7 +10356,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D299" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="313" spans="3:4" x14ac:dyDescent="0.35">
@@ -10364,7 +10426,7 @@
     <row r="325" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C325" s="29"/>
       <c r="D325" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E325" s="29"/>
       <c r="F325" s="29"/>
@@ -10375,10 +10437,10 @@
       <c r="C326" s="29"/>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F326" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G326" s="29"/>
       <c r="H326" s="29"/>
@@ -10387,10 +10449,10 @@
       <c r="C327" s="29"/>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F327" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G327" s="29"/>
       <c r="H327" s="29"/>
@@ -10399,10 +10461,10 @@
       <c r="C328" s="29"/>
       <c r="D328" s="29"/>
       <c r="E328" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F328" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F328" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G328" s="29"/>
       <c r="H328" s="29"/>
@@ -10410,7 +10472,7 @@
     <row r="329" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C329" s="29"/>
       <c r="D329" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E329" s="29"/>
       <c r="F329" s="29"/>
@@ -10421,55 +10483,55 @@
       <c r="C330" s="29"/>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F330" s="29"/>
       <c r="G330" s="29"/>
       <c r="H330" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C331" s="29"/>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F331" s="29"/>
       <c r="G331" s="29"/>
       <c r="H331" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C332" s="29"/>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F332" s="29"/>
       <c r="G332" s="29"/>
       <c r="H332" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C333" s="29"/>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F333" s="29"/>
       <c r="G333" s="29"/>
       <c r="H333" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="334" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C334" s="29"/>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F334" s="29"/>
       <c r="G334" s="29"/>
@@ -10479,11 +10541,11 @@
       <c r="C335" s="29"/>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F335" s="29"/>
       <c r="G335" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H335" s="29"/>
     </row>
@@ -10491,11 +10553,11 @@
       <c r="C336" s="29"/>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F336" s="29"/>
       <c r="G336" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H336" s="29"/>
     </row>
@@ -10503,11 +10565,11 @@
       <c r="C337" s="29"/>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F337" s="29"/>
       <c r="G337" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H337" s="29"/>
     </row>
@@ -10515,11 +10577,11 @@
       <c r="C338" s="29"/>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F338" s="29"/>
       <c r="G338" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H338" s="29"/>
     </row>
@@ -10654,7 +10716,7 @@
     <row r="378" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C378" s="29"/>
       <c r="D378" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E378" s="29"/>
       <c r="F378" s="29"/>
@@ -10665,10 +10727,10 @@
       <c r="C379" s="29"/>
       <c r="D379" s="29"/>
       <c r="E379" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F379" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G379" s="29"/>
       <c r="H379" s="29"/>
@@ -10677,10 +10739,10 @@
       <c r="C380" s="29"/>
       <c r="D380" s="29"/>
       <c r="E380" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F380" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G380" s="29"/>
       <c r="H380" s="29"/>
@@ -10689,10 +10751,10 @@
       <c r="C381" s="29"/>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F381" s="29" t="s">
         <v>310</v>
-      </c>
-      <c r="F381" s="29" t="s">
-        <v>311</v>
       </c>
       <c r="G381" s="29"/>
       <c r="H381" s="29"/>
@@ -10700,7 +10762,7 @@
     <row r="382" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C382" s="29"/>
       <c r="D382" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E382" s="29"/>
       <c r="F382" s="29"/>
@@ -10711,55 +10773,55 @@
       <c r="C383" s="29"/>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F383" s="29"/>
       <c r="G383" s="29"/>
       <c r="H383" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="384" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C384" s="29"/>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F384" s="29"/>
       <c r="G384" s="29"/>
       <c r="H384" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C385" s="29"/>
       <c r="D385" s="29"/>
       <c r="E385" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F385" s="29"/>
       <c r="G385" s="29"/>
       <c r="H385" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C386" s="29"/>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F386" s="29"/>
       <c r="G386" s="29"/>
       <c r="H386" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C387" s="29"/>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F387" s="29"/>
       <c r="G387" s="29"/>
@@ -10769,11 +10831,11 @@
       <c r="C388" s="29"/>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F388" s="29"/>
       <c r="G388" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H388" s="29"/>
     </row>
@@ -10781,11 +10843,11 @@
       <c r="C389" s="29"/>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F389" s="29"/>
       <c r="G389" s="29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H389" s="29"/>
     </row>
@@ -10793,11 +10855,11 @@
       <c r="C390" s="29"/>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F390" s="29"/>
       <c r="G390" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H390" s="29"/>
     </row>
@@ -10805,11 +10867,11 @@
       <c r="C391" s="29"/>
       <c r="D391" s="29"/>
       <c r="E391" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F391" s="29"/>
       <c r="G391" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H391" s="29"/>
     </row>
@@ -10993,7 +11055,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C438" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -11013,12 +11075,12 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C444" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B446" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -11038,39 +11100,39 @@
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C450" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D450" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="451" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C451" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D451" s="29"/>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C452" s="29"/>
       <c r="D452" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C453" s="29"/>
       <c r="D453" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C454" s="29"/>
       <c r="D454" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D455" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.35">
@@ -11093,69 +11155,69 @@
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C462" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D463" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E463" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="F463" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D464" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E464" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E464" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="F464" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D465" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E465" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E465" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="F465" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D466" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E466" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E466" s="1" t="s">
+      <c r="F466" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D467" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E467" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E468" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -11195,7 +11257,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C478" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
@@ -11210,7 +11272,7 @@
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C481" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.35">
@@ -11240,79 +11302,79 @@
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C488" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D488" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C489" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D489" s="29"/>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C490" s="29"/>
       <c r="D490" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C491" s="29"/>
       <c r="D491" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C492" s="29"/>
       <c r="D492" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D493" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C496" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C497" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D497" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E497" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C498" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D499" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.35">
@@ -11367,7 +11429,7 @@
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C513" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.35">
@@ -11387,7 +11449,7 @@
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C517" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.35">
@@ -11432,79 +11494,79 @@
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C528" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C529" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D529" s="29"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C530" s="29"/>
       <c r="D530" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C531" s="29"/>
       <c r="D531" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C532" s="29"/>
       <c r="D532" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D533" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B535" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C536" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C537" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C538" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D539" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.35">
@@ -11534,7 +11596,7 @@
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C553" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.35">
@@ -11569,7 +11631,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B563" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C563" s="29"/>
       <c r="D563" s="29"/>
@@ -11580,40 +11642,40 @@
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B564" s="29"/>
       <c r="C564" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29"/>
       <c r="F564" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G564" s="29"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B565" s="29"/>
       <c r="C565" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D565" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E565" s="29"/>
       <c r="F565" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G565" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B566" s="29"/>
       <c r="C566" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29"/>
       <c r="F566" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G566" s="29"/>
     </row>
@@ -11621,48 +11683,48 @@
       <c r="B567" s="29"/>
       <c r="C567" s="29"/>
       <c r="D567" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E567" s="29"/>
       <c r="F567" s="29"/>
       <c r="G567" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
       <c r="D568" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E568" s="29"/>
       <c r="F568" s="29"/>
       <c r="G568" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
       <c r="D569" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E569" s="29"/>
       <c r="F569" s="29"/>
       <c r="G569" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
       <c r="D570" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E570" s="29"/>
       <c r="F570" s="29"/>
       <c r="G570" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
@@ -11672,47 +11734,47 @@
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="16"/>
       <c r="B572" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D572" s="29"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="16"/>
       <c r="C573" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D573" s="50" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="16"/>
       <c r="C574" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D574" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="D574" s="50" t="s">
-        <v>534</v>
-      </c>
       <c r="E574" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="16"/>
       <c r="C575" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="16"/>
       <c r="D576" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
@@ -11747,90 +11809,90 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B589" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B590" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B591" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C591" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B592" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C592" s="29"/>
     </row>
     <row r="593" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B593" s="29"/>
       <c r="C593" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F593" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="F593" s="29" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="594" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B594" s="29"/>
       <c r="C594" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F594" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="595" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B595" s="29"/>
       <c r="C595" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F595" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="596" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B596" s="29"/>
       <c r="C596" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F596" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="598" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B598" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D598" s="29"/>
     </row>
     <row r="599" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C599" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D599" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="600" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C600" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D600" s="50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -12741,7 +12803,7 @@
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -13131,27 +13193,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -13177,86 +13239,86 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -13269,24 +13331,24 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>384</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>385</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>401</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>402</v>
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -13298,24 +13360,24 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>386</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>387</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>405</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>406</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -13327,24 +13389,24 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>388</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>389</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
       <c r="L23" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -13356,24 +13418,24 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>399</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>400</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -13385,24 +13447,24 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -13414,19 +13476,19 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="I26" s="41" t="s">
         <v>424</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>425</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -13441,10 +13503,10 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>394</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>395</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -13464,10 +13526,10 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>396</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>397</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -13505,138 +13567,138 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B62" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
@@ -13648,37 +13710,37 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
       <c r="C63" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>401</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>402</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="H63" s="41" t="s">
         <v>459</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>460</v>
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" s="41" t="s">
         <v>453</v>
-      </c>
-      <c r="L63" s="41" t="s">
-        <v>454</v>
       </c>
       <c r="M63" s="41"/>
       <c r="N63" s="41"/>
       <c r="O63" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="S63" s="41"/>
       <c r="T63" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U63" s="41"/>
       <c r="V63" s="41"/>
@@ -13689,36 +13751,36 @@
     <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
       <c r="C64" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="41" t="s">
         <v>405</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>406</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="H64" s="41" t="s">
         <v>461</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>462</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L64" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M64" s="41"/>
       <c r="N64" s="41"/>
       <c r="O64" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q64" s="41"/>
       <c r="S64" s="41"/>
       <c r="T64" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U64" s="41"/>
       <c r="V64" s="41"/>
@@ -13729,36 +13791,36 @@
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
       <c r="C65" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" s="41" t="s">
         <v>483</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>484</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="H65" s="41" t="s">
         <v>463</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>464</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
       <c r="O65" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q65" s="41"/>
       <c r="S65" s="41"/>
       <c r="T65" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U65" s="41"/>
       <c r="V65" s="41"/>
@@ -13769,18 +13831,18 @@
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
       <c r="C66" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="H66" s="41" t="s">
         <v>465</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>466</v>
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
@@ -13789,15 +13851,15 @@
       <c r="M66" s="41"/>
       <c r="N66" s="41"/>
       <c r="O66" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P66" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q66" s="41"/>
       <c r="S66" s="41"/>
       <c r="T66" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U66" s="41"/>
       <c r="V66" s="41"/>
@@ -13808,18 +13870,18 @@
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
       <c r="C67" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="41" t="s">
         <v>486</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>487</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
@@ -13828,15 +13890,15 @@
       <c r="M67" s="41"/>
       <c r="N67" s="41"/>
       <c r="O67" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q67" s="41"/>
       <c r="S67" s="41"/>
       <c r="T67" s="41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U67" s="41"/>
       <c r="V67" s="41"/>
@@ -13851,10 +13913,10 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="H68" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -13863,10 +13925,10 @@
       <c r="M68" s="41"/>
       <c r="N68" s="41"/>
       <c r="O68" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P68" s="41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q68" s="41"/>
       <c r="R68" s="41"/>
@@ -13885,10 +13947,10 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
@@ -13897,10 +13959,10 @@
       <c r="M69" s="41"/>
       <c r="N69" s="41"/>
       <c r="O69" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
@@ -13919,10 +13981,10 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
@@ -13949,7 +14011,7 @@
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
@@ -13998,17 +14060,17 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
@@ -14166,7 +14228,7 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="47" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C95" s="47"/>
       <c r="D95" s="47"/>
@@ -14288,7 +14350,7 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
@@ -14523,17 +14585,17 @@
     </row>
     <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -25,10 +25,10 @@
     <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
     <definedName name="六、按钮尺寸规范">控件规则!$B$461:$G$466</definedName>
-    <definedName name="六、列表项尺寸规范">控件规则!$B$535:$F$539</definedName>
-    <definedName name="输入框尺寸规范">控件规则!$B$598</definedName>
+    <definedName name="六、列表项尺寸规范">控件规则!$B$536:$F$540</definedName>
+    <definedName name="输入框尺寸规范">控件规则!$B$599</definedName>
     <definedName name="四、标签按钮尺寸规范">控件规则!$B$495:$D$499</definedName>
-    <definedName name="五、进度条尺寸规范">控件规则!$B$572:$F$576</definedName>
+    <definedName name="五、进度条尺寸规范">控件规则!$B$573:$F$577</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="552">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1384,10 +1384,6 @@
   </si>
   <si>
     <t>字色为棕色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准按钮尺寸为180*70px，如UI中使用特殊大小按钮，需要标识按钮尺寸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2492,6 +2488,38 @@
   </si>
   <si>
     <t>修改默认字体为华康圆体w7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为580*220像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为580*220像素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准按钮尺寸为166*68px，如UI中使用特殊大小按钮，需要标识按钮尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号（大）为24px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字号（小）为22px</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI制作流程中补充UI评审阶段内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4800,13 +4828,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>543</xdr:row>
+      <xdr:row>544</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>545</xdr:row>
+      <xdr:row>546</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4816,8 +4844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1395413" y="113339164"/>
-          <a:ext cx="3774281" cy="264320"/>
+          <a:off x="1395413" y="113547523"/>
+          <a:ext cx="3774281" cy="264321"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
         </a:xfrm>
@@ -5049,13 +5077,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>548</xdr:row>
+      <xdr:row>549</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>549</xdr:row>
+      <xdr:row>550</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5065,7 +5093,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335882" y="114276186"/>
+          <a:off x="1335882" y="114484545"/>
           <a:ext cx="3833812" cy="265511"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
@@ -5298,13 +5326,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>550</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>552</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5314,8 +5342,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335881" y="114654804"/>
-          <a:ext cx="3843338" cy="265512"/>
+          <a:off x="1335881" y="114863164"/>
+          <a:ext cx="3843338" cy="265511"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
         </a:xfrm>
@@ -5547,13 +5575,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>585</xdr:row>
+      <xdr:row>586</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>587</xdr:row>
+      <xdr:row>588</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6319,13 +6347,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6334,8 +6362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="16992600"/>
-          <a:ext cx="3133725" cy="638175"/>
+          <a:off x="3886200" y="16992601"/>
+          <a:ext cx="3133725" cy="942974"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6398,7 +6426,57 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>大致原型并辅以说明</a:t>
+            <a:t>大致原型并辅以说明后</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>发布到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>moxtra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>中进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>评审</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6741,6 +6819,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FFFF00"/>
@@ -6750,7 +6840,7 @@
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>策划同学主动</a:t>
+            <a:t>评审后策划同学主动</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
@@ -7883,7 +7973,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8150,7 +8240,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -8166,7 +8256,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -8182,7 +8272,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -8198,7 +8288,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -8208,19 +8298,19 @@
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="14">
         <v>42123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -8230,21 +8320,21 @@
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C19" s="14">
         <v>42124</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -8254,21 +8344,21 @@
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C20" s="14">
         <v>42125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -8284,7 +8374,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -8300,7 +8390,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -8316,7 +8406,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -8332,7 +8422,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -8348,7 +8438,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -8364,7 +8454,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -8373,13 +8463,23 @@
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C27" s="14">
+        <v>42130</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>549</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -8684,10 +8784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView topLeftCell="A509" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D529" sqref="D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8737,7 +8837,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -8818,7 +8918,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -9072,7 +9172,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
@@ -9092,7 +9192,7 @@
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
@@ -9143,7 +9243,7 @@
     <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
@@ -10356,7 +10456,7 @@
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D299" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="313" spans="3:4" x14ac:dyDescent="0.35">
@@ -10416,7 +10516,7 @@
     <row r="324" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C324" s="29"/>
       <c r="D324" s="29" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
       <c r="E324" s="29"/>
       <c r="F324" s="29"/>
@@ -10706,7 +10806,7 @@
     <row r="377" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C377" s="29"/>
       <c r="D377" s="29" t="s">
-        <v>295</v>
+        <v>544</v>
       </c>
       <c r="E377" s="29"/>
       <c r="F377" s="29"/>
@@ -11055,7 +11155,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C438" s="29" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -11075,7 +11175,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C444" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -11155,69 +11255,69 @@
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C462" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D463" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E463" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="F463" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D464" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E464" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E464" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="F464" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D465" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E465" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="E465" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="F465" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D466" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E466" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E466" s="1" t="s">
+      <c r="F466" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D467" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E467" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E468" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
@@ -11257,7 +11357,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C478" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
@@ -11272,7 +11372,7 @@
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C481" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.35">
@@ -11339,42 +11439,42 @@
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C496" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C497" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D497" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E497" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C498" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D499" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.35">
@@ -11429,7 +11529,7 @@
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C513" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.35">
@@ -11449,7 +11549,7 @@
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C517" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.35">
@@ -11497,402 +11597,408 @@
         <v>302</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>336</v>
+        <v>547</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C529" s="29" t="s">
+      <c r="C529" s="29"/>
+      <c r="D529" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C530" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="D529" s="29"/>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C530" s="29"/>
-      <c r="D530" s="29" t="s">
-        <v>337</v>
-      </c>
+      <c r="D530" s="29"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C531" s="29"/>
       <c r="D531" s="29" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C532" s="29"/>
       <c r="D532" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C533" s="29"/>
+      <c r="D533" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D533" s="29" t="s">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D534" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B535" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C536" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E536" s="1" t="s">
-        <v>513</v>
+      <c r="B536" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C537" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C538" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D538" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C539" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D540" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D539" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A541" s="15" t="s">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A542" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B542" s="1" t="s">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B543" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C543" s="1" t="s">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C544" s="1" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C547" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C548" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C549" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C553" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B555" s="1" t="s">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C554" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B556" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C556" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C557" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C558" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B559" s="1" t="s">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B560" s="1" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C560" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C561" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C562" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B563" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="C563" s="29"/>
-      <c r="D563" s="29"/>
-      <c r="E563" s="29"/>
-      <c r="F563" s="29"/>
-      <c r="G563" s="29"/>
-    </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B564" s="29"/>
-      <c r="C564" s="29" t="s">
-        <v>344</v>
-      </c>
+      <c r="B564" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C564" s="29"/>
       <c r="D564" s="29"/>
       <c r="E564" s="29"/>
-      <c r="F564" s="29" t="s">
-        <v>345</v>
-      </c>
+      <c r="F564" s="29"/>
       <c r="G564" s="29"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B565" s="29"/>
       <c r="C565" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D565" s="29" t="s">
-        <v>342</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D565" s="29"/>
       <c r="E565" s="29"/>
       <c r="F565" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G565" s="29" t="s">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G565" s="29"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B566" s="29"/>
       <c r="C566" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="D566" s="29"/>
+        <v>302</v>
+      </c>
+      <c r="D566" s="29" t="s">
+        <v>341</v>
+      </c>
       <c r="E566" s="29"/>
       <c r="F566" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="G566" s="29"/>
+        <v>302</v>
+      </c>
+      <c r="G566" s="29" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B567" s="29"/>
-      <c r="C567" s="29"/>
-      <c r="D567" s="29" t="s">
-        <v>337</v>
-      </c>
+      <c r="C567" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D567" s="29"/>
       <c r="E567" s="29"/>
-      <c r="F567" s="29"/>
-      <c r="G567" s="29" t="s">
-        <v>350</v>
-      </c>
+      <c r="F567" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G567" s="29"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
       <c r="D568" s="29" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E568" s="29"/>
       <c r="F568" s="29"/>
       <c r="G568" s="29" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
       <c r="D569" s="29" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="E569" s="29"/>
       <c r="F569" s="29"/>
       <c r="G569" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
       <c r="D570" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E570" s="29"/>
       <c r="F570" s="29"/>
       <c r="G570" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A571" s="16"/>
-      <c r="D571" s="29"/>
+      <c r="B571" s="29"/>
+      <c r="C571" s="29"/>
+      <c r="D571" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E571" s="29"/>
+      <c r="F571" s="29"/>
+      <c r="G571" s="29" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="16"/>
-      <c r="B572" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="D572" s="29"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="16"/>
-      <c r="C573" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D573" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="B573" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D573" s="29"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="16"/>
       <c r="C574" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D574" s="50" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="16"/>
       <c r="C575" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D575" s="1" t="s">
-        <v>519</v>
+        <v>531</v>
+      </c>
+      <c r="D575" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="16"/>
+      <c r="C576" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="D576" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="16"/>
-      <c r="D577" s="29"/>
+      <c r="D577" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="16" t="s">
+      <c r="A578" s="16"/>
+      <c r="D578" s="29"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A579" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D578" s="29"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B579" s="1" t="s">
+      <c r="D579" s="29"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B580" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B581" s="1" t="s">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B582" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B583" s="1" t="s">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B584" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B585" s="1" t="s">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B586" s="1" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B589" s="29" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B590" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B591" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C591" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B592" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C592" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="593" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B593" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C592" s="29"/>
-    </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B593" s="29"/>
-      <c r="C593" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F593" s="29" t="s">
-        <v>355</v>
-      </c>
+      <c r="C593" s="29"/>
     </row>
     <row r="594" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B594" s="29"/>
       <c r="C594" s="29" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F594" s="29" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="595" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B595" s="29"/>
       <c r="C595" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F595" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="596" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B596" s="29"/>
       <c r="C596" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F596" s="29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B598" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D598" s="29"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="597" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B597" s="29"/>
+      <c r="C597" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F597" s="29" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="599" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C599" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D599" s="50" t="s">
-        <v>537</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="B599" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D599" s="29"/>
     </row>
     <row r="600" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C600" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D600" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="D600" s="50" t="s">
-        <v>538</v>
-      </c>
       <c r="E600" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="601" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C601" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D601" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -12803,7 +12909,7 @@
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -13193,27 +13299,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -13227,8 +13333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13239,86 +13345,86 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -13331,24 +13437,24 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>383</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>384</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>400</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>401</v>
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -13360,24 +13466,24 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>385</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>386</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>405</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -13389,24 +13495,24 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>387</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>388</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
       <c r="L23" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -13418,24 +13524,24 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>398</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>399</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -13447,24 +13553,24 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -13476,19 +13582,19 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="I26" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>424</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -13503,10 +13609,10 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>393</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>394</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -13526,10 +13632,10 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -13567,138 +13673,138 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B62" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
@@ -13710,37 +13816,37 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
       <c r="C63" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>400</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>401</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="H63" s="41" t="s">
         <v>458</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>459</v>
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" s="41" t="s">
         <v>452</v>
-      </c>
-      <c r="L63" s="41" t="s">
-        <v>453</v>
       </c>
       <c r="M63" s="41"/>
       <c r="N63" s="41"/>
       <c r="O63" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="S63" s="41"/>
       <c r="T63" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U63" s="41"/>
       <c r="V63" s="41"/>
@@ -13751,36 +13857,36 @@
     <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
       <c r="C64" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D64" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>405</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="H64" s="41" t="s">
         <v>460</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>461</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L64" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M64" s="41"/>
       <c r="N64" s="41"/>
       <c r="O64" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q64" s="41"/>
       <c r="S64" s="41"/>
       <c r="T64" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U64" s="41"/>
       <c r="V64" s="41"/>
@@ -13791,36 +13897,36 @@
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
       <c r="C65" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="D65" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>483</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="H65" s="41" t="s">
         <v>462</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>463</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
       <c r="O65" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q65" s="41"/>
       <c r="S65" s="41"/>
       <c r="T65" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U65" s="41"/>
       <c r="V65" s="41"/>
@@ -13831,18 +13937,18 @@
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
       <c r="C66" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="H66" s="41" t="s">
         <v>464</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>465</v>
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
@@ -13851,15 +13957,15 @@
       <c r="M66" s="41"/>
       <c r="N66" s="41"/>
       <c r="O66" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P66" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q66" s="41"/>
       <c r="S66" s="41"/>
       <c r="T66" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U66" s="41"/>
       <c r="V66" s="41"/>
@@ -13870,18 +13976,18 @@
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
       <c r="C67" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>486</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
@@ -13890,15 +13996,15 @@
       <c r="M67" s="41"/>
       <c r="N67" s="41"/>
       <c r="O67" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q67" s="41"/>
       <c r="S67" s="41"/>
       <c r="T67" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U67" s="41"/>
       <c r="V67" s="41"/>
@@ -13913,10 +14019,10 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="H68" s="41" t="s">
         <v>468</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>469</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -13925,10 +14031,10 @@
       <c r="M68" s="41"/>
       <c r="N68" s="41"/>
       <c r="O68" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P68" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q68" s="41"/>
       <c r="R68" s="41"/>
@@ -13947,10 +14053,10 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
@@ -13959,10 +14065,10 @@
       <c r="M69" s="41"/>
       <c r="N69" s="41"/>
       <c r="O69" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
@@ -13981,10 +14087,10 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
@@ -14011,7 +14117,7 @@
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
@@ -14060,17 +14166,17 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
@@ -14228,7 +14334,7 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="47" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C95" s="47"/>
       <c r="D95" s="47"/>
@@ -14350,7 +14456,7 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
@@ -14585,17 +14691,17 @@
     </row>
     <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="UI制作流程">UI命名规范及制作流程!$A$80</definedName>
     <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
+    <definedName name="货币显示相关规范">控件规则!$A$603</definedName>
     <definedName name="六、按钮尺寸规范">控件规则!$B$461:$G$466</definedName>
     <definedName name="六、列表项尺寸规范">控件规则!$B$536:$F$540</definedName>
     <definedName name="输入框尺寸规范">控件规则!$B$599</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="557">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2522,12 +2523,32 @@
     <t>yh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>货币显示相关规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币显示时，每三位加一个逗号隔开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考效果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充货币显示规范</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2713,6 +2734,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2836,7 +2872,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2930,6 +2966,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2947,6 +2986,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2974,8 +3016,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="12603135">
-          <a:off x="1463674" y="10887076"/>
-          <a:ext cx="5032375" cy="2600325"/>
+          <a:off x="1449480" y="11058526"/>
+          <a:ext cx="4982695" cy="2644028"/>
           <a:chOff x="1133475" y="4267199"/>
           <a:chExt cx="5076825" cy="2600325"/>
         </a:xfrm>
@@ -3571,8 +3613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="7709297"/>
-          <a:ext cx="4652962" cy="2519362"/>
+          <a:off x="2066925" y="7753350"/>
+          <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -3755,8 +3797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="26329481"/>
-          <a:ext cx="4652962" cy="2519363"/>
+          <a:off x="2066925" y="26479500"/>
+          <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -3996,8 +4038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="35705653"/>
-          <a:ext cx="4652962" cy="2519363"/>
+          <a:off x="2066925" y="35909250"/>
+          <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -4176,8 +4218,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2055019" y="44684156"/>
-          <a:ext cx="4519612" cy="2330053"/>
+          <a:off x="2047875" y="44938950"/>
+          <a:ext cx="4505325" cy="2343150"/>
           <a:chOff x="2076450" y="25869900"/>
           <a:chExt cx="4562475" cy="2343150"/>
         </a:xfrm>
@@ -4844,8 +4886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1395413" y="113547523"/>
-          <a:ext cx="3774281" cy="264321"/>
+          <a:off x="1390650" y="114195223"/>
+          <a:ext cx="3762375" cy="266702"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
         </a:xfrm>
@@ -5093,8 +5135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335882" y="114484545"/>
-          <a:ext cx="3833812" cy="265511"/>
+          <a:off x="1333501" y="115138198"/>
+          <a:ext cx="3819524" cy="266702"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
         </a:xfrm>
@@ -5342,8 +5384,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1335881" y="114863164"/>
-          <a:ext cx="3843338" cy="265511"/>
+          <a:off x="1333500" y="115519198"/>
+          <a:ext cx="3829050" cy="266702"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
         </a:xfrm>
@@ -6173,8 +6215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2074069" y="17085469"/>
-          <a:ext cx="4652962" cy="2519362"/>
+          <a:off x="2066925" y="17183100"/>
+          <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
         </a:xfrm>
@@ -6335,6 +6377,44 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285640</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>152367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="22726650"/>
+          <a:ext cx="876190" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7684,7 +7764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7726,7 +7806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7761,7 +7841,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7972,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8485,16 +8565,22 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14">
+        <v>42254</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="I28" s="53"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -8583,6 +8669,7 @@
     <hyperlink ref="H23" location="六、列表项尺寸规范" display="补充列表项尺寸规范"/>
     <hyperlink ref="H24" location="输入框尺寸规范" display="补充输入框尺寸规范"/>
     <hyperlink ref="H25" location="五、进度条尺寸规范" display="补充进度条尺寸规范"/>
+    <hyperlink ref="H28" location="货币显示相关规范" display="补充货币显示规范"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8598,7 +8685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -8784,10 +8871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
-    <sheetView topLeftCell="A509" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D529" sqref="D529"/>
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I608" sqref="I608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11931,13 +12018,13 @@
         <v>352</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B593" s="29" t="s">
         <v>311</v>
       </c>
       <c r="C593" s="29"/>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B594" s="29"/>
       <c r="C594" s="29" t="s">
         <v>353</v>
@@ -11946,7 +12033,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B595" s="29"/>
       <c r="C595" s="29" t="s">
         <v>361</v>
@@ -11955,7 +12042,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B596" s="29"/>
       <c r="C596" s="29" t="s">
         <v>362</v>
@@ -11964,7 +12051,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B597" s="29"/>
       <c r="C597" s="29" t="s">
         <v>363</v>
@@ -11973,13 +12060,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B599" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D599" s="29"/>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C600" s="1" t="s">
         <v>534</v>
       </c>
@@ -11990,7 +12077,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C601" s="1" t="s">
         <v>535</v>
       </c>
@@ -12000,6 +12087,28 @@
       <c r="E601" s="1" t="s">
         <v>512</v>
       </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A603" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B604" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B605" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C605" s="51"/>
+      <c r="D605" s="51"/>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B606" s="51"/>
+      <c r="C606" s="51"/>
+      <c r="D606" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12017,7 +12126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="四、标签按钮尺寸规范">控件规则!$B$495:$D$499</definedName>
     <definedName name="五、进度条尺寸规范">控件规则!$B$573:$F$577</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2483,10 +2483,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>窗口尺寸大小最大为580*220像素</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>标准按钮尺寸为166*68px，如UI中使用特殊大小按钮，需要标识按钮尺寸</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2576,14 +2572,18 @@
   </si>
   <si>
     <t>2.设备分辨率为480*1000时，相对距离（400，200）根据宽度变化比例：960：480=2:1,缩放至（200，100）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为581*337像素</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3194,6 +3194,14 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3442,7 +3450,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7954,7 +7962,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="总则"/>
@@ -8009,7 +8017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8041,9 +8049,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8075,6 +8084,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8250,14 +8260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="7"/>
     <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
@@ -8266,7 +8276,7 @@
     <col min="9" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -8284,7 +8294,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="17.25">
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8298,7 +8308,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25">
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -8316,7 +8326,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -8330,7 +8340,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25">
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8348,7 +8358,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
@@ -8362,7 +8372,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25">
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8380,7 +8390,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25">
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -8394,7 +8404,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25">
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8434,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>35</v>
@@ -8448,7 +8458,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -8472,7 +8482,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14"/>
@@ -8488,7 +8498,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25">
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>287</v>
@@ -8512,7 +8522,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="17.25">
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="14"/>
@@ -8528,7 +8538,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14"/>
@@ -8544,7 +8554,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="14"/>
@@ -8560,7 +8570,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25">
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
@@ -8576,7 +8586,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="17.25">
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>377</v>
@@ -8598,7 +8608,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25">
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>490</v>
@@ -8622,7 +8632,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>538</v>
@@ -8646,7 +8656,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="17.25">
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
@@ -8662,7 +8672,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="17.25">
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="14"/>
@@ -8678,7 +8688,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="17.25">
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="14"/>
@@ -8694,7 +8704,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="17.25">
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="14"/>
@@ -8710,7 +8720,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="17.25">
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="14"/>
@@ -8726,7 +8736,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="17.25">
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="14"/>
@@ -8742,10 +8752,10 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="17.25">
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C27" s="14">
         <v>42130</v>
@@ -8756,17 +8766,17 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="18">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="14">
@@ -8776,17 +8786,17 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="H28" s="52" t="s">
         <v>553</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>554</v>
       </c>
       <c r="I28" s="53"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="17.25">
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="14"/>
@@ -8800,7 +8810,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="17.25">
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="14"/>
@@ -8814,7 +8824,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="17.25">
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -8840,7 +8850,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="17.25">
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
@@ -8883,65 +8893,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="19"/>
     <col min="2" max="16384" width="8.875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="55" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J10" s="55"/>
       <c r="K10" s="54"/>
@@ -8951,9 +8961,9 @@
       <c r="O10" s="54"/>
       <c r="P10" s="54"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="54"/>
@@ -8963,7 +8973,7 @@
       <c r="O11" s="54"/>
       <c r="P11" s="54"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J12" s="55"/>
       <c r="K12" s="54"/>
       <c r="L12" s="54"/>
@@ -8972,9 +8982,9 @@
       <c r="O12" s="54"/>
       <c r="P12" s="54"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
@@ -8983,113 +8993,113 @@
       <c r="O13" s="54"/>
       <c r="P13" s="54"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="17" t="s">
         <v>561</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="D18" s="17" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="D19" s="17" t="s">
-        <v>562</v>
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="54"/>
       <c r="L20" s="54"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J21" s="55"/>
       <c r="K21" s="54"/>
       <c r="L21" s="54"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C23" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B87" s="17" t="s">
         <v>174</v>
       </c>
@@ -9097,7 +9107,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" s="17" t="s">
         <v>163</v>
       </c>
@@ -9109,7 +9119,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90" s="17" t="s">
         <v>164</v>
       </c>
@@ -9121,7 +9131,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B92" s="17" t="s">
         <v>274</v>
       </c>
@@ -9133,7 +9143,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B94" s="17" t="s">
         <v>165</v>
       </c>
@@ -9145,7 +9155,7 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="17" t="s">
         <v>167</v>
       </c>
@@ -9157,7 +9167,7 @@
         <v>1.7786666666666666</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
         <v>166</v>
       </c>
@@ -9178,200 +9188,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H606"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B375" sqref="B375"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I327" sqref="I327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C15" s="29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C16" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="D17" s="29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="D18" s="29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="29"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="3:8">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D52" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D53" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C55" s="29" t="s">
         <v>292</v>
       </c>
@@ -9381,7 +9391,7 @@
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
     </row>
-    <row r="56" spans="3:8">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C56" s="29"/>
       <c r="D56" s="29" t="s">
         <v>293</v>
@@ -9391,7 +9401,7 @@
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C57" s="29"/>
       <c r="D57" s="29" t="s">
         <v>300</v>
@@ -9401,7 +9411,7 @@
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
@@ -9413,7 +9423,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="3:8">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29" t="s">
@@ -9425,7 +9435,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="3:8">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
@@ -9437,7 +9447,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="3:8">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29" t="s">
@@ -9449,7 +9459,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="3:8">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C62" s="29"/>
       <c r="D62" s="29" t="s">
         <v>309</v>
@@ -9459,7 +9469,7 @@
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="3:8">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -9471,7 +9481,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="3:8">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
@@ -9483,7 +9493,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -9495,7 +9505,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
@@ -9507,7 +9517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -9517,7 +9527,7 @@
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
@@ -9529,7 +9539,7 @@
       </c>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -9541,7 +9551,7 @@
       </c>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -9553,7 +9563,7 @@
       </c>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
@@ -9565,67 +9575,67 @@
       </c>
       <c r="H71" s="29"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D75" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D77" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D79" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="3:8">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D97" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="3:8">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D98" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="3:8">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C100" s="29" t="s">
         <v>292</v>
       </c>
@@ -9635,7 +9645,7 @@
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
     </row>
-    <row r="101" spans="3:8">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
         <v>376</v>
@@ -9645,7 +9655,7 @@
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
     </row>
-    <row r="102" spans="3:8">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C102" s="29"/>
       <c r="D102" s="29" t="s">
         <v>300</v>
@@ -9655,7 +9665,7 @@
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
     </row>
-    <row r="103" spans="3:8">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29" t="s">
@@ -9667,7 +9677,7 @@
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
     </row>
-    <row r="104" spans="3:8">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
@@ -9679,7 +9689,7 @@
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
     </row>
-    <row r="105" spans="3:8">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C105" s="29"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29" t="s">
@@ -9691,7 +9701,7 @@
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
     </row>
-    <row r="106" spans="3:8">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C106" s="29"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
@@ -9703,7 +9713,7 @@
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
     </row>
-    <row r="107" spans="3:8">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C107" s="29"/>
       <c r="D107" s="29" t="s">
         <v>309</v>
@@ -9713,7 +9723,7 @@
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
     </row>
-    <row r="108" spans="3:8">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
@@ -9725,7 +9735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="3:8">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C109" s="29"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -9737,7 +9747,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="3:8">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
       <c r="E110" s="29" t="s">
@@ -9749,7 +9759,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="3:8">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C111" s="29"/>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -9761,7 +9771,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="3:8">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
       <c r="E112" s="29" t="s">
@@ -9771,7 +9781,7 @@
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C113" s="29"/>
       <c r="D113" s="29"/>
       <c r="E113" s="29" t="s">
@@ -9783,7 +9793,7 @@
       </c>
       <c r="H113" s="29"/>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C114" s="29"/>
       <c r="D114" s="29"/>
       <c r="E114" s="29" t="s">
@@ -9795,7 +9805,7 @@
       </c>
       <c r="H114" s="29"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C115" s="29"/>
       <c r="D115" s="29"/>
       <c r="E115" s="29" t="s">
@@ -9807,7 +9817,7 @@
       </c>
       <c r="H115" s="29"/>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
@@ -9819,72 +9829,72 @@
       </c>
       <c r="H116" s="29"/>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C119" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D120" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C121" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D122" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C123" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D124" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C125" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D126" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C140" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D141" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D142" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D143" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="3:8">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C145" s="29" t="s">
         <v>292</v>
       </c>
@@ -9894,7 +9904,7 @@
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
     </row>
-    <row r="146" spans="3:8">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C146" s="29"/>
       <c r="D146" s="29" t="s">
         <v>293</v>
@@ -9904,7 +9914,7 @@
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
     </row>
-    <row r="147" spans="3:8">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C147" s="29"/>
       <c r="D147" s="29" t="s">
         <v>300</v>
@@ -9914,7 +9924,7 @@
       <c r="G147" s="29"/>
       <c r="H147" s="29"/>
     </row>
-    <row r="148" spans="3:8">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -9926,7 +9936,7 @@
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
     </row>
-    <row r="149" spans="3:8">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C149" s="29"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -9938,7 +9948,7 @@
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
     </row>
-    <row r="150" spans="3:8">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C150" s="29"/>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -9950,7 +9960,7 @@
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
     </row>
-    <row r="151" spans="3:8">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C151" s="29"/>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
@@ -9962,7 +9972,7 @@
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
     </row>
-    <row r="152" spans="3:8">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C152" s="29"/>
       <c r="D152" s="29" t="s">
         <v>309</v>
@@ -9972,7 +9982,7 @@
       <c r="G152" s="29"/>
       <c r="H152" s="29"/>
     </row>
-    <row r="153" spans="3:8">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
@@ -9984,7 +9994,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="3:8">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C154" s="29"/>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -9996,7 +10006,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="3:8">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C155" s="29"/>
       <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
@@ -10008,7 +10018,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="3:8">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="29" t="s">
@@ -10020,7 +10030,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="3:8">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C157" s="29"/>
       <c r="D157" s="29"/>
       <c r="E157" s="29" t="s">
@@ -10030,7 +10040,7 @@
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
     </row>
-    <row r="158" spans="3:8">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C158" s="29"/>
       <c r="D158" s="29"/>
       <c r="E158" s="29" t="s">
@@ -10042,7 +10052,7 @@
       </c>
       <c r="H158" s="29"/>
     </row>
-    <row r="159" spans="3:8">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C159" s="29"/>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
@@ -10054,7 +10064,7 @@
       </c>
       <c r="H159" s="29"/>
     </row>
-    <row r="160" spans="3:8">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C160" s="29"/>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -10066,7 +10076,7 @@
       </c>
       <c r="H160" s="29"/>
     </row>
-    <row r="161" spans="2:8">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C161" s="29"/>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
@@ -10078,77 +10088,77 @@
       </c>
       <c r="H161" s="29"/>
     </row>
-    <row r="163" spans="2:8">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:8">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C164" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="2:8">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D165" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="2:8">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C166" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="2:8">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D167" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="2:8">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C168" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="2:8">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D169" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="2:8">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C170" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="2:8">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D171" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="3:8">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C185" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="3:8">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D186" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="3:8">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D187" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="3:8">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D188" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="3:8">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D189" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="3:8">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C191" s="29" t="s">
         <v>292</v>
       </c>
@@ -10158,7 +10168,7 @@
       <c r="G191" s="29"/>
       <c r="H191" s="29"/>
     </row>
-    <row r="192" spans="3:8">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C192" s="29"/>
       <c r="D192" s="29" t="s">
         <v>293</v>
@@ -10168,7 +10178,7 @@
       <c r="G192" s="29"/>
       <c r="H192" s="29"/>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C193" s="29"/>
       <c r="D193" s="29" t="s">
         <v>300</v>
@@ -10178,7 +10188,7 @@
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C194" s="29"/>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -10190,7 +10200,7 @@
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C195" s="29"/>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -10202,7 +10212,7 @@
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C196" s="29"/>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -10214,7 +10224,7 @@
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
     </row>
-    <row r="197" spans="2:8">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C197" s="29"/>
       <c r="D197" s="29" t="s">
         <v>309</v>
@@ -10224,7 +10234,7 @@
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
     </row>
-    <row r="198" spans="2:8">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C198" s="29"/>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -10236,7 +10246,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="2:8">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C199" s="29"/>
       <c r="D199" s="29"/>
       <c r="E199" s="29" t="s">
@@ -10248,7 +10258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="2:8">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C200" s="29"/>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -10260,7 +10270,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="201" spans="2:8">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C201" s="29"/>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -10272,7 +10282,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -10282,7 +10292,7 @@
       <c r="G202" s="29"/>
       <c r="H202" s="29"/>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C203" s="29"/>
       <c r="D203" s="29"/>
       <c r="E203" s="29" t="s">
@@ -10294,7 +10304,7 @@
       </c>
       <c r="H203" s="29"/>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C204" s="29"/>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -10306,7 +10316,7 @@
       </c>
       <c r="H204" s="29"/>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C205" s="29"/>
       <c r="D205" s="29"/>
       <c r="E205" s="29" t="s">
@@ -10318,7 +10328,7 @@
       </c>
       <c r="H205" s="29"/>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C206" s="29"/>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -10330,62 +10340,62 @@
       </c>
       <c r="H206" s="29"/>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="3:4">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C209" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="3:4">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D210" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="3:4">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C211" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="3:4">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D212" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="3:4">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C213" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="3:4">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D214" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="3:8">
+    <row r="227" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C227" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="3:8">
+    <row r="228" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D228" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="3:8">
+    <row r="229" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D229" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="3:8">
+    <row r="230" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D230" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="3:8">
+    <row r="232" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C232" s="29" t="s">
         <v>292</v>
       </c>
@@ -10395,7 +10405,7 @@
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
     </row>
-    <row r="233" spans="3:8">
+    <row r="233" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C233" s="29"/>
       <c r="D233" s="29" t="s">
         <v>327</v>
@@ -10405,7 +10415,7 @@
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
     </row>
-    <row r="234" spans="3:8">
+    <row r="234" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C234" s="29"/>
       <c r="D234" s="29" t="s">
         <v>300</v>
@@ -10415,7 +10425,7 @@
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
     </row>
-    <row r="235" spans="3:8">
+    <row r="235" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C235" s="29"/>
       <c r="D235" s="29"/>
       <c r="E235" s="29" t="s">
@@ -10427,7 +10437,7 @@
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
     </row>
-    <row r="236" spans="3:8">
+    <row r="236" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C236" s="29"/>
       <c r="D236" s="29"/>
       <c r="E236" s="29" t="s">
@@ -10439,7 +10449,7 @@
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
     </row>
-    <row r="237" spans="3:8">
+    <row r="237" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C237" s="29"/>
       <c r="D237" s="29"/>
       <c r="E237" s="29" t="s">
@@ -10451,7 +10461,7 @@
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
     </row>
-    <row r="238" spans="3:8">
+    <row r="238" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C238" s="29"/>
       <c r="D238" s="29" t="s">
         <v>309</v>
@@ -10461,7 +10471,7 @@
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
     </row>
-    <row r="239" spans="3:8">
+    <row r="239" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C239" s="29"/>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -10473,7 +10483,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="3:8">
+    <row r="240" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C240" s="29"/>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -10485,7 +10495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="241" spans="2:8">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C241" s="29"/>
       <c r="D241" s="29"/>
       <c r="E241" s="29" t="s">
@@ -10497,7 +10507,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="2:8">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C242" s="29"/>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
@@ -10509,7 +10519,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="243" spans="2:8">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
       <c r="E243" s="29" t="s">
@@ -10519,7 +10529,7 @@
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
     </row>
-    <row r="244" spans="2:8">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C244" s="29"/>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
@@ -10531,7 +10541,7 @@
       </c>
       <c r="H244" s="29"/>
     </row>
-    <row r="245" spans="2:8">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C245" s="29"/>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -10543,7 +10553,7 @@
       </c>
       <c r="H245" s="29"/>
     </row>
-    <row r="246" spans="2:8">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C246" s="29"/>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -10555,7 +10565,7 @@
       </c>
       <c r="H246" s="29"/>
     </row>
-    <row r="247" spans="2:8">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C247" s="29"/>
       <c r="D247" s="29"/>
       <c r="E247" s="29" t="s">
@@ -10567,67 +10577,67 @@
       </c>
       <c r="H247" s="29"/>
     </row>
-    <row r="249" spans="2:8">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="2:8">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C250" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="2:8">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D251" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="2:8">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C252" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="2:8">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D253" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="2:8">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C254" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="2:8">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D255" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="3:4">
+    <row r="268" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C268" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="269" spans="3:4">
+    <row r="269" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D269" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="3:4">
+    <row r="270" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D270" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="3:4">
+    <row r="271" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D271" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="3:4">
+    <row r="272" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D272" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="3:8">
+    <row r="274" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C274" s="29" t="s">
         <v>292</v>
       </c>
@@ -10637,7 +10647,7 @@
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
     </row>
-    <row r="275" spans="3:8">
+    <row r="275" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C275" s="29"/>
       <c r="D275" s="29" t="s">
         <v>327</v>
@@ -10647,7 +10657,7 @@
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
     </row>
-    <row r="276" spans="3:8">
+    <row r="276" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C276" s="29"/>
       <c r="D276" s="29" t="s">
         <v>300</v>
@@ -10657,7 +10667,7 @@
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
     </row>
-    <row r="277" spans="3:8">
+    <row r="277" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C277" s="29"/>
       <c r="D277" s="29"/>
       <c r="E277" s="29" t="s">
@@ -10669,7 +10679,7 @@
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
     </row>
-    <row r="278" spans="3:8">
+    <row r="278" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C278" s="29"/>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -10681,7 +10691,7 @@
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
     </row>
-    <row r="279" spans="3:8">
+    <row r="279" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C279" s="29"/>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -10693,7 +10703,7 @@
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
     </row>
-    <row r="280" spans="3:8">
+    <row r="280" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C280" s="29"/>
       <c r="D280" s="29" t="s">
         <v>309</v>
@@ -10703,7 +10713,7 @@
       <c r="G280" s="29"/>
       <c r="H280" s="29"/>
     </row>
-    <row r="281" spans="3:8">
+    <row r="281" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C281" s="29"/>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -10715,7 +10725,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="282" spans="3:8">
+    <row r="282" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C282" s="29"/>
       <c r="D282" s="29"/>
       <c r="E282" s="29" t="s">
@@ -10727,7 +10737,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="3:8">
+    <row r="283" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C283" s="29"/>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -10739,7 +10749,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="284" spans="3:8">
+    <row r="284" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C284" s="29"/>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -10751,7 +10761,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="3:8">
+    <row r="285" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C285" s="29"/>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -10761,7 +10771,7 @@
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
     </row>
-    <row r="286" spans="3:8">
+    <row r="286" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C286" s="29"/>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -10773,7 +10783,7 @@
       </c>
       <c r="H286" s="29"/>
     </row>
-    <row r="287" spans="3:8">
+    <row r="287" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C287" s="29"/>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -10785,7 +10795,7 @@
       </c>
       <c r="H287" s="29"/>
     </row>
-    <row r="288" spans="3:8">
+    <row r="288" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C288" s="29"/>
       <c r="D288" s="29"/>
       <c r="E288" s="29" t="s">
@@ -10797,7 +10807,7 @@
       </c>
       <c r="H288" s="29"/>
     </row>
-    <row r="289" spans="2:8">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C289" s="29"/>
       <c r="D289" s="29"/>
       <c r="E289" s="29" t="s">
@@ -10809,96 +10819,96 @@
       </c>
       <c r="H289" s="29"/>
     </row>
-    <row r="291" spans="2:8">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B291" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="292" spans="2:8">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C292" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="293" spans="2:8">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D293" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="2:8">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C294" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="2:8">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D295" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="2:8">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C296" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="2:8">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D297" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="2:8">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C298" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="2:8">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D299" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="313" spans="3:4">
+    <row r="313" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C313" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="314" spans="3:4">
+    <row r="314" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D314" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="315" spans="3:4">
+    <row r="315" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D315" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="316" spans="3:4">
+    <row r="316" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D316" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="318" spans="3:4">
+    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C318" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D318" s="28"/>
     </row>
-    <row r="319" spans="3:4">
+    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C319" s="28"/>
       <c r="D319" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="320" spans="3:4">
+    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C320" s="28"/>
       <c r="D320" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="321" spans="3:8">
+    <row r="321" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C321" s="28"/>
       <c r="D321" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="323" spans="3:8">
+    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C323" s="29" t="s">
         <v>292</v>
       </c>
@@ -10908,17 +10918,17 @@
       <c r="G323" s="29"/>
       <c r="H323" s="29"/>
     </row>
-    <row r="324" spans="3:8">
+    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C324" s="29"/>
       <c r="D324" s="29" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="E324" s="29"/>
       <c r="F324" s="29"/>
       <c r="G324" s="29"/>
       <c r="H324" s="29"/>
     </row>
-    <row r="325" spans="3:8">
+    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C325" s="29"/>
       <c r="D325" s="29" t="s">
         <v>300</v>
@@ -10928,7 +10938,7 @@
       <c r="G325" s="29"/>
       <c r="H325" s="29"/>
     </row>
-    <row r="326" spans="3:8">
+    <row r="326" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C326" s="29"/>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
@@ -10940,7 +10950,7 @@
       <c r="G326" s="29"/>
       <c r="H326" s="29"/>
     </row>
-    <row r="327" spans="3:8">
+    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C327" s="29"/>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -10952,7 +10962,7 @@
       <c r="G327" s="29"/>
       <c r="H327" s="29"/>
     </row>
-    <row r="328" spans="3:8">
+    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C328" s="29"/>
       <c r="D328" s="29"/>
       <c r="E328" s="29" t="s">
@@ -10964,7 +10974,7 @@
       <c r="G328" s="29"/>
       <c r="H328" s="29"/>
     </row>
-    <row r="329" spans="3:8">
+    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C329" s="29"/>
       <c r="D329" s="29" t="s">
         <v>309</v>
@@ -10974,7 +10984,7 @@
       <c r="G329" s="29"/>
       <c r="H329" s="29"/>
     </row>
-    <row r="330" spans="3:8">
+    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C330" s="29"/>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
@@ -10986,7 +10996,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="3:8">
+    <row r="331" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C331" s="29"/>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -10998,7 +11008,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="332" spans="3:8">
+    <row r="332" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C332" s="29"/>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
@@ -11010,7 +11020,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="333" spans="3:8">
+    <row r="333" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C333" s="29"/>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
@@ -11022,7 +11032,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="334" spans="3:8">
+    <row r="334" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C334" s="29"/>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -11032,7 +11042,7 @@
       <c r="G334" s="29"/>
       <c r="H334" s="29"/>
     </row>
-    <row r="335" spans="3:8">
+    <row r="335" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C335" s="29"/>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -11044,7 +11054,7 @@
       </c>
       <c r="H335" s="29"/>
     </row>
-    <row r="336" spans="3:8">
+    <row r="336" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C336" s="29"/>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -11056,7 +11066,7 @@
       </c>
       <c r="H336" s="29"/>
     </row>
-    <row r="337" spans="2:8">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C337" s="29"/>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -11068,7 +11078,7 @@
       </c>
       <c r="H337" s="29"/>
     </row>
-    <row r="338" spans="2:8">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C338" s="29"/>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -11080,115 +11090,115 @@
       </c>
       <c r="H338" s="29"/>
     </row>
-    <row r="340" spans="2:8">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B340" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="2:8">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C341" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="2:8">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D342" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="343" spans="2:8">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C343" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="2:8">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D344" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="2:8">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C345" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="2:8">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D346" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="2:8">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C347" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="348" spans="2:8">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D348" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="362" spans="3:4">
+    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C362" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="363" spans="3:4">
+    <row r="363" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D363" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="364" spans="3:4">
+    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D364" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="3:4">
+    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C366" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D366" s="28"/>
     </row>
-    <row r="367" spans="3:4">
+    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C367" s="28"/>
       <c r="D367" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="368" spans="3:4">
+    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C368" s="28"/>
       <c r="D368" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="3:8">
+    <row r="369" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C369" s="28"/>
       <c r="D369" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="371" spans="3:8">
+    <row r="371" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C371" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D371" s="28"/>
     </row>
-    <row r="372" spans="3:8">
+    <row r="372" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C372" s="28"/>
       <c r="D372" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="373" spans="3:8">
+    <row r="373" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C373" s="28"/>
       <c r="D373" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="374" spans="3:8">
+    <row r="374" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C374" s="28"/>
       <c r="D374" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="376" spans="3:8">
+    <row r="376" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C376" s="29" t="s">
         <v>292</v>
       </c>
@@ -11198,7 +11208,7 @@
       <c r="G376" s="29"/>
       <c r="H376" s="29"/>
     </row>
-    <row r="377" spans="3:8">
+    <row r="377" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C377" s="29"/>
       <c r="D377" s="29" t="s">
         <v>542</v>
@@ -11208,7 +11218,7 @@
       <c r="G377" s="29"/>
       <c r="H377" s="29"/>
     </row>
-    <row r="378" spans="3:8">
+    <row r="378" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C378" s="29"/>
       <c r="D378" s="29" t="s">
         <v>300</v>
@@ -11218,7 +11228,7 @@
       <c r="G378" s="29"/>
       <c r="H378" s="29"/>
     </row>
-    <row r="379" spans="3:8">
+    <row r="379" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C379" s="29"/>
       <c r="D379" s="29"/>
       <c r="E379" s="29" t="s">
@@ -11230,7 +11240,7 @@
       <c r="G379" s="29"/>
       <c r="H379" s="29"/>
     </row>
-    <row r="380" spans="3:8">
+    <row r="380" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C380" s="29"/>
       <c r="D380" s="29"/>
       <c r="E380" s="29" t="s">
@@ -11242,7 +11252,7 @@
       <c r="G380" s="29"/>
       <c r="H380" s="29"/>
     </row>
-    <row r="381" spans="3:8">
+    <row r="381" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C381" s="29"/>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
@@ -11254,7 +11264,7 @@
       <c r="G381" s="29"/>
       <c r="H381" s="29"/>
     </row>
-    <row r="382" spans="3:8">
+    <row r="382" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C382" s="29"/>
       <c r="D382" s="29" t="s">
         <v>309</v>
@@ -11264,7 +11274,7 @@
       <c r="G382" s="29"/>
       <c r="H382" s="29"/>
     </row>
-    <row r="383" spans="3:8">
+    <row r="383" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C383" s="29"/>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
@@ -11276,7 +11286,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="384" spans="3:8">
+    <row r="384" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C384" s="29"/>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -11288,7 +11298,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="385" spans="2:8">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C385" s="29"/>
       <c r="D385" s="29"/>
       <c r="E385" s="29" t="s">
@@ -11300,7 +11310,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="386" spans="2:8">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C386" s="29"/>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -11312,7 +11322,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="387" spans="2:8">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C387" s="29"/>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -11322,7 +11332,7 @@
       <c r="G387" s="29"/>
       <c r="H387" s="29"/>
     </row>
-    <row r="388" spans="2:8">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C388" s="29"/>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -11334,7 +11344,7 @@
       </c>
       <c r="H388" s="29"/>
     </row>
-    <row r="389" spans="2:8">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C389" s="29"/>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -11346,7 +11356,7 @@
       </c>
       <c r="H389" s="29"/>
     </row>
-    <row r="390" spans="2:8">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C390" s="29"/>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -11358,7 +11368,7 @@
       </c>
       <c r="H390" s="29"/>
     </row>
-    <row r="391" spans="2:8">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C391" s="29"/>
       <c r="D391" s="29"/>
       <c r="E391" s="29" t="s">
@@ -11370,7 +11380,7 @@
       </c>
       <c r="H391" s="29"/>
     </row>
-    <row r="392" spans="2:8">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C392" s="29"/>
       <c r="D392" s="29"/>
       <c r="E392" s="29"/>
@@ -11378,222 +11388,222 @@
       <c r="G392" s="29"/>
       <c r="H392" s="29"/>
     </row>
-    <row r="393" spans="2:8">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B393" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="394" spans="2:8">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C394" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="395" spans="2:8">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D395" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="396" spans="2:8">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C396" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="2:8">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D397" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="398" spans="2:8">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C398" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="399" spans="2:8">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D399" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="400" spans="2:8">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C400" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="401" spans="3:4">
+    <row r="401" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D401" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="402" spans="3:4">
+    <row r="402" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D402" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="404" spans="3:4">
+    <row r="404" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C404" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="3:4">
+    <row r="405" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D405" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="406" spans="3:4">
+    <row r="406" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D406" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="408" spans="3:4">
+    <row r="408" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C408" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="409" spans="3:4">
+    <row r="409" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D409" s="28" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="410" spans="3:4">
+    <row r="410" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D410" s="28"/>
     </row>
-    <row r="411" spans="3:4">
+    <row r="411" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D411" s="28"/>
     </row>
-    <row r="412" spans="3:4">
+    <row r="412" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D412" s="28"/>
     </row>
-    <row r="413" spans="3:4">
+    <row r="413" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D413" s="28"/>
     </row>
-    <row r="414" spans="3:4">
+    <row r="414" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D414" s="28"/>
     </row>
-    <row r="415" spans="3:4">
+    <row r="415" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D415" s="28"/>
     </row>
-    <row r="416" spans="3:4">
+    <row r="416" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D416" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="424" spans="3:5">
+    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C424" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D424" s="28"/>
     </row>
-    <row r="425" spans="3:5">
+    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C425" s="28"/>
       <c r="D425" s="28" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="426" spans="3:5">
+    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D426" s="28" t="s">
         <v>279</v>
       </c>
       <c r="E426" s="28"/>
     </row>
-    <row r="427" spans="3:5">
+    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D427" s="28" t="s">
         <v>280</v>
       </c>
       <c r="E427" s="28"/>
     </row>
-    <row r="428" spans="3:5">
+    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D428" s="28"/>
       <c r="E428" s="28" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="429" spans="3:5">
+    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D429" s="28"/>
       <c r="E429" s="28" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="430" spans="3:5">
+    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D430" s="28"/>
       <c r="E430" s="28" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="431" spans="3:5">
+    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D431" s="28" t="s">
         <v>284</v>
       </c>
       <c r="E431" s="28"/>
     </row>
-    <row r="432" spans="3:5">
+    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D432" s="28"/>
       <c r="E432" s="28"/>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B435" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C436" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C437" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C438" s="29" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B440" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C441" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B443" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C444" s="29" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B446" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C447" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C448" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="449" spans="2:6">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C449" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="450" spans="2:6">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C450" s="29" t="s">
         <v>300</v>
       </c>
@@ -11601,64 +11611,64 @@
         <v>334</v>
       </c>
     </row>
-    <row r="451" spans="2:6">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C451" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D451" s="29"/>
     </row>
-    <row r="452" spans="2:6">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C452" s="29"/>
       <c r="D452" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="453" spans="2:6">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C453" s="29"/>
       <c r="D453" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="2:6">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C454" s="29"/>
       <c r="D454" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="455" spans="2:6">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D455" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="456" spans="2:6">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D456" s="29"/>
     </row>
-    <row r="457" spans="2:6">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B457" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="458" spans="2:6">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C458" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="459" spans="2:6">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C459" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="461" spans="2:6">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B461" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="462" spans="2:6">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C462" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="463" spans="2:6">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D463" s="1" t="s">
         <v>501</v>
       </c>
@@ -11669,7 +11679,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="464" spans="2:6">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D464" s="1" t="s">
         <v>503</v>
       </c>
@@ -11680,7 +11690,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D465" s="1" t="s">
         <v>505</v>
       </c>
@@ -11691,7 +11701,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D466" s="1" t="s">
         <v>507</v>
       </c>
@@ -11702,7 +11712,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D467" s="1" t="s">
         <v>515</v>
       </c>
@@ -11710,92 +11720,92 @@
         <v>516</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E468" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B471" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C472" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D473" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D474" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C475" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B477" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C478" s="29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C479" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C480" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="481" spans="2:5">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C481" s="29" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="483" spans="2:5">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B483" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="484" spans="2:5">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C484" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="485" spans="2:5">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C485" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="486" spans="2:5">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C486" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="487" spans="2:5">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C487" s="28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="488" spans="2:5">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C488" s="29" t="s">
         <v>300</v>
       </c>
@@ -11803,41 +11813,41 @@
         <v>334</v>
       </c>
     </row>
-    <row r="489" spans="2:5">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C489" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D489" s="29"/>
     </row>
-    <row r="490" spans="2:5">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C490" s="29"/>
       <c r="D490" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="491" spans="2:5">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C491" s="29"/>
       <c r="D491" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="492" spans="2:5">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C492" s="29"/>
       <c r="D492" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="493" spans="2:5">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D493" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="495" spans="2:5">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B495" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="496" spans="2:5">
+    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C496" s="1" t="s">
         <v>513</v>
       </c>
@@ -11848,7 +11858,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C497" s="1" t="s">
         <v>514</v>
       </c>
@@ -11859,7 +11869,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C498" s="1" t="s">
         <v>521</v>
       </c>
@@ -11867,175 +11877,175 @@
         <v>516</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D499" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B502" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C503" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D504" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D505" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C506" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B508" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C509" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C510" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B512" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="513" spans="2:4">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C513" s="29" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="514" spans="2:4">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C514" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="515" spans="2:4">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D515" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="516" spans="2:4">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D516" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="517" spans="2:4">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C517" s="29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="519" spans="2:4">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B519" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="520" spans="2:4">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C520" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="521" spans="2:4">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C521" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="523" spans="2:4">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B523" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="524" spans="2:4">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C524" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="2:4">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C525" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="526" spans="2:4">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C526" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="527" spans="2:4">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C527" s="28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="528" spans="2:4">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C528" s="29" t="s">
         <v>300</v>
       </c>
       <c r="D528" s="29" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C529" s="29"/>
       <c r="D529" s="29" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C530" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D530" s="29"/>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C531" s="29"/>
       <c r="D531" s="29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C532" s="29"/>
       <c r="D532" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C533" s="29"/>
       <c r="D533" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D534" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B536" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C537" s="1" t="s">
         <v>524</v>
       </c>
@@ -12046,7 +12056,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C538" s="1" t="s">
         <v>525</v>
       </c>
@@ -12057,7 +12067,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C539" s="1" t="s">
         <v>521</v>
       </c>
@@ -12065,72 +12075,72 @@
         <v>516</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D540" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B543" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C544" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="548" spans="2:3">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C548" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="549" spans="2:3">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C549" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="554" spans="2:3">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C554" s="29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="556" spans="2:3">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B556" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="557" spans="2:3">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C557" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="558" spans="2:3">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C558" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="560" spans="2:3">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B560" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C561" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C562" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B564" s="29" t="s">
         <v>338</v>
       </c>
@@ -12140,7 +12150,7 @@
       <c r="F564" s="29"/>
       <c r="G564" s="29"/>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B565" s="29"/>
       <c r="C565" s="29" t="s">
         <v>341</v>
@@ -12152,7 +12162,7 @@
       </c>
       <c r="G565" s="29"/>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B566" s="29"/>
       <c r="C566" s="29" t="s">
         <v>300</v>
@@ -12168,7 +12178,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B567" s="29"/>
       <c r="C567" s="29" t="s">
         <v>309</v>
@@ -12180,7 +12190,7 @@
       </c>
       <c r="G567" s="29"/>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
       <c r="D568" s="29" t="s">
@@ -12192,7 +12202,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
       <c r="D569" s="29" t="s">
@@ -12204,7 +12214,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
       <c r="D570" s="29" t="s">
@@ -12216,7 +12226,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
       <c r="D571" s="29" t="s">
@@ -12228,18 +12238,18 @@
         <v>346</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="16"/>
       <c r="D572" s="29"/>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="16"/>
       <c r="B573" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D573" s="29"/>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="16"/>
       <c r="C574" s="1" t="s">
         <v>528</v>
@@ -12251,7 +12261,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="16"/>
       <c r="C575" s="1" t="s">
         <v>529</v>
@@ -12263,7 +12273,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="16"/>
       <c r="C576" s="1" t="s">
         <v>521</v>
@@ -12272,53 +12282,53 @@
         <v>516</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="16"/>
       <c r="D577" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="16"/>
       <c r="D578" s="29"/>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="16" t="s">
         <v>143</v>
       </c>
       <c r="D579" s="29"/>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B580" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B582" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B584" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B586" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B590" s="29" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B591" s="29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B592" s="29" t="s">
         <v>300</v>
       </c>
@@ -12326,13 +12336,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B593" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C593" s="29"/>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B594" s="29"/>
       <c r="C594" s="29" t="s">
         <v>351</v>
@@ -12341,7 +12351,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B595" s="29"/>
       <c r="C595" s="29" t="s">
         <v>359</v>
@@ -12350,7 +12360,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B596" s="29"/>
       <c r="C596" s="29" t="s">
         <v>360</v>
@@ -12359,7 +12369,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B597" s="29"/>
       <c r="C597" s="29" t="s">
         <v>361</v>
@@ -12368,13 +12378,13 @@
         <v>346</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B599" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D599" s="29"/>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C600" s="1" t="s">
         <v>532</v>
       </c>
@@ -12385,7 +12395,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C601" s="1" t="s">
         <v>533</v>
       </c>
@@ -12396,24 +12406,24 @@
         <v>510</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B604" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
-      <c r="B604" s="1" t="s">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B605" s="51" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6">
-      <c r="B605" s="51" t="s">
-        <v>552</v>
       </c>
       <c r="C605" s="51"/>
       <c r="D605" s="51"/>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B606" s="51"/>
       <c r="C606" s="51"/>
       <c r="D606" s="51"/>
@@ -12431,14 +12441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.875" style="21"/>
     <col min="3" max="4" width="8.875" style="20"/>
@@ -12448,59 +12458,59 @@
     <col min="8" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C3" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C7" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="20" t="s">
         <v>207</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C10" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="24" t="s">
         <v>184</v>
       </c>
@@ -12514,7 +12524,7 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="20" t="s">
         <v>195</v>
       </c>
@@ -12522,7 +12532,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="20" t="s">
         <v>193</v>
       </c>
@@ -12530,7 +12540,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="20" t="s">
         <v>194</v>
       </c>
@@ -12538,83 +12548,83 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" s="21"/>
       <c r="D20" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C21" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" s="21"/>
       <c r="D22" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" s="21"/>
       <c r="D24" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" s="21"/>
       <c r="D26" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" s="21"/>
       <c r="D27" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="21"/>
       <c r="D29" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
         <v>214</v>
@@ -12623,7 +12633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" s="21"/>
       <c r="D32" s="20" t="s">
         <v>215</v>
@@ -12632,7 +12642,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C33" s="21"/>
       <c r="D33" s="20" t="s">
         <v>225</v>
@@ -12641,12 +12651,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C34" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D35" s="20" t="s">
         <v>195</v>
       </c>
@@ -12654,7 +12664,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D36" s="20" t="s">
         <v>212</v>
       </c>
@@ -12662,90 +12672,90 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="21" t="s">
         <v>217</v>
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C39" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C40" s="21"/>
       <c r="D40" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C41" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C42" s="21"/>
       <c r="D42" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C43" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C44" s="21"/>
       <c r="D44" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C45" s="21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C46" s="21"/>
       <c r="D46" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C47" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C48" s="21"/>
       <c r="D48" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C49" s="21"/>
       <c r="D49" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C50" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C51" s="21"/>
       <c r="D51" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C52" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" s="21"/>
       <c r="D53" s="20" t="s">
         <v>214</v>
@@ -12754,7 +12764,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C54" s="21"/>
       <c r="D54" s="20" t="s">
         <v>215</v>
@@ -12763,7 +12773,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C55" s="21"/>
       <c r="D55" s="20" t="s">
         <v>224</v>
@@ -12772,7 +12782,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" s="21"/>
       <c r="D56" s="20" t="s">
         <v>225</v>
@@ -12781,12 +12791,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C57" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D58" s="20" t="s">
         <v>195</v>
       </c>
@@ -12794,7 +12804,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D59" s="20" t="s">
         <v>212</v>
       </c>
@@ -12802,53 +12812,53 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C62" s="21" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C63" s="21"/>
       <c r="D63" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C64" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C65" s="21"/>
       <c r="D65" s="20" t="s">
         <v>203</v>
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C66" s="21" t="s">
         <v>204</v>
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C67" s="21"/>
       <c r="D67" s="20" t="s">
         <v>205</v>
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C68" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C69" s="21"/>
       <c r="D69" s="20" t="s">
         <v>189</v>
@@ -12865,7 +12875,7 @@
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C70" s="21"/>
       <c r="D70" s="20" t="s">
         <v>207</v>
@@ -12882,7 +12892,7 @@
       <c r="S70" s="21"/>
       <c r="T70" s="21"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C71" s="21" t="s">
         <v>229</v>
       </c>
@@ -12898,7 +12908,7 @@
       <c r="S71" s="21"/>
       <c r="T71" s="21"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C72" s="21"/>
       <c r="D72" s="20" t="s">
         <v>209</v>
@@ -12916,7 +12926,7 @@
       <c r="S72" s="21"/>
       <c r="T72" s="21"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C73" s="21" t="s">
         <v>230</v>
       </c>
@@ -12933,7 +12943,7 @@
       <c r="S73" s="21"/>
       <c r="T73" s="21"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C74" s="21"/>
       <c r="D74" s="20" t="s">
         <v>214</v>
@@ -12954,7 +12964,7 @@
       <c r="S74" s="21"/>
       <c r="T74" s="21"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C75" s="21"/>
       <c r="D75" s="20" t="s">
         <v>215</v>
@@ -12975,7 +12985,7 @@
       <c r="S75" s="21"/>
       <c r="T75" s="21"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C76" s="21"/>
       <c r="D76" s="20" t="s">
         <v>224</v>
@@ -12996,7 +13006,7 @@
       <c r="S76" s="21"/>
       <c r="T76" s="21"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C77" s="21"/>
       <c r="D77" s="25" t="s">
         <v>225</v>
@@ -13017,7 +13027,7 @@
       <c r="S77" s="21"/>
       <c r="T77" s="21"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="24"/>
       <c r="C78" s="21" t="s">
         <v>210</v>
@@ -13035,7 +13045,7 @@
       <c r="S78" s="21"/>
       <c r="T78" s="21"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="24"/>
       <c r="D79" s="20" t="s">
         <v>195</v>
@@ -13056,7 +13066,7 @@
       <c r="S79" s="21"/>
       <c r="T79" s="21"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="24"/>
       <c r="D80" s="20" t="s">
         <v>212</v>
@@ -13077,7 +13087,7 @@
       <c r="S80" s="21"/>
       <c r="T80" s="21"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -13097,7 +13107,7 @@
       <c r="S81" s="21"/>
       <c r="T81" s="21"/>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B82" s="21" t="s">
         <v>231</v>
       </c>
@@ -13113,7 +13123,7 @@
       <c r="S82" s="21"/>
       <c r="T82" s="21"/>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C83" s="21" t="s">
         <v>200</v>
       </c>
@@ -13129,7 +13139,7 @@
       <c r="S83" s="21"/>
       <c r="T83" s="21"/>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C84" s="21"/>
       <c r="D84" s="20" t="s">
         <v>232</v>
@@ -13146,7 +13156,7 @@
       <c r="S84" s="21"/>
       <c r="T84" s="21"/>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C85" s="21" t="s">
         <v>202</v>
       </c>
@@ -13162,7 +13172,7 @@
       <c r="S85" s="21"/>
       <c r="T85" s="21"/>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C86" s="21"/>
       <c r="D86" s="20" t="s">
         <v>203</v>
@@ -13179,7 +13189,7 @@
       <c r="S86" s="21"/>
       <c r="T86" s="21"/>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C87" s="21" t="s">
         <v>204</v>
       </c>
@@ -13188,7 +13198,7 @@
       <c r="L87" s="21"/>
       <c r="M87" s="21"/>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C88" s="21"/>
       <c r="D88" s="20" t="s">
         <v>205</v>
@@ -13198,7 +13208,7 @@
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C89" s="21" t="s">
         <v>233</v>
       </c>
@@ -13207,7 +13217,7 @@
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C90" s="21"/>
       <c r="D90" s="20" t="s">
         <v>189</v>
@@ -13218,7 +13228,7 @@
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C91" s="21"/>
       <c r="D91" s="20" t="s">
         <v>207</v>
@@ -13229,7 +13239,7 @@
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C92" s="21" t="s">
         <v>236</v>
       </c>
@@ -13239,7 +13249,7 @@
       <c r="L92" s="21"/>
       <c r="M92" s="21"/>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C93" s="21"/>
       <c r="D93" s="20" t="s">
         <v>237</v>
@@ -13250,7 +13260,7 @@
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C94" s="21" t="s">
         <v>234</v>
       </c>
@@ -13260,7 +13270,7 @@
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C95" s="21"/>
       <c r="D95" s="20" t="s">
         <v>235</v>
@@ -13271,7 +13281,7 @@
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C96" s="21" t="s">
         <v>238</v>
       </c>
@@ -13281,7 +13291,7 @@
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C97" s="21"/>
       <c r="D97" s="20" t="s">
         <v>239</v>
@@ -13295,7 +13305,7 @@
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C98" s="21"/>
       <c r="D98" s="20" t="s">
         <v>240</v>
@@ -13309,7 +13319,7 @@
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C99" s="21"/>
       <c r="D99" s="20" t="s">
         <v>241</v>
@@ -13323,7 +13333,7 @@
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C100" s="21"/>
       <c r="D100" s="32" t="s">
         <v>366</v>
@@ -13334,7 +13344,7 @@
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C101" s="26" t="s">
         <v>210</v>
       </c>
@@ -13346,7 +13356,7 @@
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C102" s="25"/>
       <c r="D102" s="25" t="s">
         <v>195</v>
@@ -13360,7 +13370,7 @@
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C103" s="25"/>
       <c r="D103" s="25" t="s">
         <v>212</v>
@@ -13374,7 +13384,7 @@
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
@@ -13387,7 +13397,7 @@
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="21" t="s">
         <v>242</v>
       </c>
@@ -13396,7 +13406,7 @@
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C106" s="21" t="s">
         <v>200</v>
       </c>
@@ -13405,7 +13415,7 @@
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C107" s="21"/>
       <c r="D107" s="20" t="s">
         <v>243</v>
@@ -13415,7 +13425,7 @@
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C108" s="21" t="s">
         <v>202</v>
       </c>
@@ -13425,7 +13435,7 @@
       <c r="M108" s="21"/>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C109" s="21"/>
       <c r="D109" s="20" t="s">
         <v>203</v>
@@ -13436,7 +13446,7 @@
       <c r="M109" s="21"/>
       <c r="N109" s="21"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C110" s="21" t="s">
         <v>204</v>
       </c>
@@ -13446,7 +13456,7 @@
       <c r="M110" s="21"/>
       <c r="N110" s="21"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C111" s="21"/>
       <c r="D111" s="20" t="s">
         <v>205</v>
@@ -13457,7 +13467,7 @@
       <c r="M111" s="21"/>
       <c r="N111" s="21"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C112" s="21" t="s">
         <v>244</v>
       </c>
@@ -13467,7 +13477,7 @@
       <c r="M112" s="21"/>
       <c r="N112" s="21"/>
     </row>
-    <row r="113" spans="3:20">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C113" s="21"/>
       <c r="D113" s="20" t="s">
         <v>189</v>
@@ -13478,7 +13488,7 @@
       <c r="M113" s="21"/>
       <c r="N113" s="21"/>
     </row>
-    <row r="114" spans="3:20">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C114" s="21"/>
       <c r="D114" s="20" t="s">
         <v>207</v>
@@ -13489,7 +13499,7 @@
       <c r="M114" s="21"/>
       <c r="N114" s="21"/>
     </row>
-    <row r="115" spans="3:20">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C115" s="21" t="s">
         <v>245</v>
       </c>
@@ -13499,7 +13509,7 @@
       <c r="M115" s="21"/>
       <c r="N115" s="21"/>
     </row>
-    <row r="116" spans="3:20">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C116" s="21"/>
       <c r="D116" s="20" t="s">
         <v>246</v>
@@ -13510,7 +13520,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
     </row>
-    <row r="117" spans="3:20">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C117" s="21" t="s">
         <v>247</v>
       </c>
@@ -13526,7 +13536,7 @@
       <c r="S117" s="21"/>
       <c r="T117" s="21"/>
     </row>
-    <row r="118" spans="3:20">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C118" s="21"/>
       <c r="D118" s="20" t="s">
         <v>249</v>
@@ -13546,7 +13556,7 @@
       <c r="S118" s="21"/>
       <c r="T118" s="21"/>
     </row>
-    <row r="119" spans="3:20">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C119" s="21"/>
       <c r="D119" s="25" t="s">
         <v>225</v>
@@ -13566,7 +13576,7 @@
       <c r="S119" s="21"/>
       <c r="T119" s="21"/>
     </row>
-    <row r="120" spans="3:20">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C120" s="21" t="s">
         <v>210</v>
       </c>
@@ -13582,7 +13592,7 @@
       <c r="S120" s="21"/>
       <c r="T120" s="21"/>
     </row>
-    <row r="121" spans="3:20">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D121" s="20" t="s">
         <v>195</v>
       </c>
@@ -13601,7 +13611,7 @@
       <c r="S121" s="21"/>
       <c r="T121" s="21"/>
     </row>
-    <row r="122" spans="3:20">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.15">
       <c r="D122" s="20" t="s">
         <v>250</v>
       </c>
@@ -13620,7 +13630,7 @@
       <c r="S122" s="21"/>
       <c r="T122" s="21"/>
     </row>
-    <row r="123" spans="3:20">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
@@ -13640,7 +13650,7 @@
       <c r="S123" s="21"/>
       <c r="T123" s="21"/>
     </row>
-    <row r="124" spans="3:20">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.15">
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
@@ -13668,24 +13678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
@@ -13702,39 +13712,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>371</v>
       </c>
@@ -13747,86 +13757,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="17" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17.25" thickBot="1"/>
-    <row r="20" spans="1:18">
+    <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
         <v>415</v>
       </c>
@@ -13851,7 +13861,7 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
         <v>380</v>
@@ -13880,7 +13890,7 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="42"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
         <v>382</v>
@@ -13909,7 +13919,7 @@
       <c r="Q22" s="41"/>
       <c r="R22" s="42"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
         <v>384</v>
@@ -13938,7 +13948,7 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="42"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
         <v>395</v>
@@ -13967,7 +13977,7 @@
       <c r="Q24" s="41"/>
       <c r="R24" s="42"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
         <v>388</v>
@@ -13996,7 +14006,7 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="42"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
         <v>386</v>
@@ -14023,7 +14033,7 @@
       <c r="Q26" s="41"/>
       <c r="R26" s="42"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="s">
         <v>390</v>
@@ -14046,7 +14056,7 @@
       <c r="Q27" s="41"/>
       <c r="R27" s="42"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
         <v>392</v>
@@ -14069,7 +14079,7 @@
       <c r="Q28" s="41"/>
       <c r="R28" s="42"/>
     </row>
-    <row r="29" spans="1:18" ht="17.25" thickBot="1">
+    <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="43"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -14088,113 +14098,113 @@
       <c r="Q29" s="44"/>
       <c r="R29" s="45"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="17" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="2:25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="2:25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="2:25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="2:25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="2:25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="2:25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="2:25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="2:25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="2:25" ht="17.25" thickBot="1"/>
-    <row r="62" spans="2:25">
+    <row r="61" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B62" s="37" t="s">
         <v>478</v>
       </c>
@@ -14230,7 +14240,7 @@
       <c r="X62" s="38"/>
       <c r="Y62" s="39"/>
     </row>
-    <row r="63" spans="2:25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
       <c r="C63" s="41" t="s">
         <v>397</v>
@@ -14271,7 +14281,7 @@
       <c r="X63" s="41"/>
       <c r="Y63" s="42"/>
     </row>
-    <row r="64" spans="2:25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
       <c r="C64" s="41" t="s">
         <v>401</v>
@@ -14311,7 +14321,7 @@
       <c r="X64" s="41"/>
       <c r="Y64" s="42"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
       <c r="C65" s="41" t="s">
         <v>479</v>
@@ -14351,7 +14361,7 @@
       <c r="X65" s="41"/>
       <c r="Y65" s="42"/>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
       <c r="C66" s="41" t="s">
         <v>395</v>
@@ -14390,7 +14400,7 @@
       <c r="X66" s="41"/>
       <c r="Y66" s="42"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
       <c r="C67" s="41" t="s">
         <v>482</v>
@@ -14429,7 +14439,7 @@
       <c r="X67" s="41"/>
       <c r="Y67" s="42"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B68" s="40"/>
       <c r="C68" s="41"/>
       <c r="D68" s="41"/>
@@ -14463,7 +14473,7 @@
       <c r="X68" s="41"/>
       <c r="Y68" s="42"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B69" s="40"/>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -14497,7 +14507,7 @@
       <c r="X69" s="41"/>
       <c r="Y69" s="42"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B70" s="40"/>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -14527,7 +14537,7 @@
       <c r="X70" s="41"/>
       <c r="Y70" s="42"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B71" s="40"/>
       <c r="C71" s="41"/>
       <c r="D71" s="41"/>
@@ -14555,7 +14565,7 @@
       <c r="X71" s="41"/>
       <c r="Y71" s="42"/>
     </row>
-    <row r="72" spans="1:25" ht="17.25" thickBot="1">
+    <row r="72" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="43"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -14581,17 +14591,17 @@
       <c r="X72" s="44"/>
       <c r="Y72" s="45"/>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="48" t="s">
         <v>495</v>
       </c>
@@ -14605,7 +14615,7 @@
       <c r="J81" s="48"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
       <c r="D82" s="48"/>
@@ -14617,7 +14627,7 @@
       <c r="J82" s="48"/>
       <c r="K82" s="48"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
       <c r="D83" s="48"/>
@@ -14629,7 +14639,7 @@
       <c r="J83" s="48"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
       <c r="D84" s="48"/>
@@ -14641,7 +14651,7 @@
       <c r="J84" s="48"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
       <c r="D85" s="48"/>
@@ -14653,7 +14663,7 @@
       <c r="J85" s="48"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
       <c r="D86" s="48"/>
@@ -14665,7 +14675,7 @@
       <c r="J86" s="48"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
       <c r="D87" s="48"/>
@@ -14677,7 +14687,7 @@
       <c r="J87" s="48"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
       <c r="D88" s="48"/>
@@ -14689,7 +14699,7 @@
       <c r="J88" s="48"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
       <c r="D89" s="48"/>
@@ -14701,7 +14711,7 @@
       <c r="J89" s="48"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
       <c r="D90" s="48"/>
@@ -14713,7 +14723,7 @@
       <c r="J90" s="48"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
       <c r="D91" s="48"/>
@@ -14725,7 +14735,7 @@
       <c r="J91" s="48"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
       <c r="D92" s="48"/>
@@ -14737,7 +14747,7 @@
       <c r="J92" s="48"/>
       <c r="K92" s="48"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
       <c r="D94" s="47"/>
@@ -14749,7 +14759,7 @@
       <c r="J94" s="47"/>
       <c r="K94" s="47"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="47" t="s">
         <v>496</v>
       </c>
@@ -14763,7 +14773,7 @@
       <c r="J95" s="47"/>
       <c r="K95" s="47"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
       <c r="D96" s="47"/>
@@ -14775,7 +14785,7 @@
       <c r="J96" s="47"/>
       <c r="K96" s="47"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
       <c r="D97" s="47"/>
@@ -14787,7 +14797,7 @@
       <c r="J97" s="47"/>
       <c r="K97" s="47"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
       <c r="D98" s="47"/>
@@ -14799,7 +14809,7 @@
       <c r="J98" s="47"/>
       <c r="K98" s="47"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
       <c r="D99" s="47"/>
@@ -14811,7 +14821,7 @@
       <c r="J99" s="47"/>
       <c r="K99" s="47"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
       <c r="D100" s="47"/>
@@ -14823,7 +14833,7 @@
       <c r="J100" s="47"/>
       <c r="K100" s="47"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
       <c r="D101" s="47"/>
@@ -14835,7 +14845,7 @@
       <c r="J101" s="47"/>
       <c r="K101" s="47"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
       <c r="D102" s="47"/>
@@ -14847,7 +14857,7 @@
       <c r="J102" s="47"/>
       <c r="K102" s="47"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
@@ -14859,7 +14869,7 @@
       <c r="J103" s="47"/>
       <c r="K103" s="47"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
@@ -14871,7 +14881,7 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="49" t="s">
         <v>497</v>
       </c>
@@ -14885,7 +14895,7 @@
       <c r="J105" s="49"/>
       <c r="K105" s="49"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B106" s="49"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
@@ -14897,7 +14907,7 @@
       <c r="J106" s="49"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="49"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -14909,7 +14919,7 @@
       <c r="J107" s="49"/>
       <c r="K107" s="49"/>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="49"/>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -14921,7 +14931,7 @@
       <c r="J108" s="49"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
@@ -14933,7 +14943,7 @@
       <c r="J109" s="49"/>
       <c r="K109" s="49"/>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -14945,7 +14955,7 @@
       <c r="J110" s="49"/>
       <c r="K110" s="49"/>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -14957,7 +14967,7 @@
       <c r="J111" s="49"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B112" s="49"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
@@ -14969,7 +14979,7 @@
       <c r="J112" s="49"/>
       <c r="K112" s="49"/>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="49"/>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -14981,7 +14991,7 @@
       <c r="J113" s="49"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -14993,7 +15003,7 @@
       <c r="J114" s="49"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="49"/>
       <c r="C115" s="49"/>
       <c r="D115" s="49"/>
@@ -15014,109 +15024,109 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="27"/>
       <c r="C7" s="28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="27" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="27"/>
       <c r="C9" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
       <c r="C11" s="28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="18">
+    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25">
+    <row r="26" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="35" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25">
+    <row r="27" spans="2:2" s="34" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
         <v>368</v>
       </c>

--- a/gd/标准化文档/UI设计规范.xlsx
+++ b/gd/标准化文档/UI设计规范.xlsx
@@ -20,23 +20,27 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="tips位置规则以及文本标准">控件规则!$C$408:$I$431</definedName>
+    <definedName name="tips位置规则以及文本标准">控件规则!$C$427:$I$450</definedName>
     <definedName name="UI制作流程">UI命名规范及制作流程!$A$80</definedName>
     <definedName name="unity通常使用.map与.ogg作为音乐格式">音乐音效!$B$6</definedName>
     <definedName name="产品类型">[1]总则!$C$16</definedName>
-    <definedName name="货币显示相关规范">控件规则!$A$603</definedName>
-    <definedName name="六、按钮尺寸规范">控件规则!$B$461:$G$466</definedName>
-    <definedName name="六、列表项尺寸规范">控件规则!$B$536:$F$540</definedName>
-    <definedName name="输入框尺寸规范">控件规则!$B$599</definedName>
-    <definedName name="四、标签按钮尺寸规范">控件规则!$B$495:$D$499</definedName>
-    <definedName name="五、进度条尺寸规范">控件规则!$B$573:$F$577</definedName>
+    <definedName name="窗口在游戏中实现为底面蒙灰_上层实际窗口_下文标注的窗口尺寸大小为蒙灰尺寸_上层实际窗口尺寸查看“UI标准”文档">控件规则!$D$110</definedName>
+    <definedName name="货币显示相关规范">控件规则!#REF!</definedName>
+    <definedName name="另一个">控件规则!#REF!</definedName>
+    <definedName name="六、按钮尺寸规范">控件规则!$B$480:$G$485</definedName>
+    <definedName name="六、列表项尺寸规范">控件规则!$B$556:$F$560</definedName>
+    <definedName name="输入框尺寸规范">控件规则!$B$619</definedName>
+    <definedName name="四、标签按钮尺寸规范">控件规则!$B$515:$D$519</definedName>
+    <definedName name="四、窗口">控件规则!#REF!</definedName>
+    <definedName name="四、缩放规则">控件规则!$B$26</definedName>
+    <definedName name="五、进度条尺寸规范">控件规则!$B$593:$F$597</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="575">
   <si>
     <t>动画与音效</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1530,10 +1534,6 @@
   </si>
   <si>
     <t>该窗口为模态样式，打开整体遮罩主界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口尺寸大小最大为960*640像素</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2507,26 +2507,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>货币显示相关规范</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币显示时，每三位加一个逗号隔开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考效果</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>雪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>补充货币显示规范</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端现在采用如下两种方式进行分辨率适配</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2576,6 +2560,57 @@
   </si>
   <si>
     <t>窗口尺寸大小最大为581*337像素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口尺寸大小最大为960*640像素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口在游戏中实现为底面蒙灰+上层实际窗口，下文标注的窗口尺寸大小为蒙灰尺寸，上层实际窗口尺寸查看“UI标准”文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充货币显示规范（已移出——》货币通用规范文档）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归窗口实现规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、缩放规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中控件字号范围为：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大=默认字号，是美术给出标准情况下的显示字号</t>
+  </si>
+  <si>
+    <t>当在给定高度内，文字由于缩放产生换行情况为合理情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要使用文字缩放规则的控件由美术给出控件的高度与宽度，当在给定宽度内，默认字号显示不下时，文字进行缩放显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小字符待美术给</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>若当文字变为最小字号且在给定高度内换行也无法显示下时，当做bug处理（通过修改翻译达到合理显示）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加文字缩放规则</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2583,7 +2618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2778,21 +2813,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -2808,8 +2828,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2842,6 +2870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2949,87 +2983,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3125,15 +3159,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="GreyOrWhite" xfId="11"/>
@@ -3808,13 +3842,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3824,7 +3858,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066925" y="7753350"/>
+          <a:off x="2066925" y="9429750"/>
           <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
@@ -3992,13 +4026,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4008,7 +4042,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066925" y="26479500"/>
+          <a:off x="2066925" y="30460950"/>
           <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
@@ -4176,13 +4210,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4233,13 +4267,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>202</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4249,7 +4283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066925" y="35909250"/>
+          <a:off x="2066925" y="39890700"/>
           <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
@@ -4356,13 +4390,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4413,13 +4447,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4429,7 +4463,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2047875" y="44938950"/>
+          <a:off x="2047875" y="48920400"/>
           <a:ext cx="4505325" cy="2343150"/>
           <a:chOff x="2076450" y="25869900"/>
           <a:chExt cx="4562475" cy="2343150"/>
@@ -4577,13 +4611,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4646,7 +4680,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1454244" cy="334451"/>
@@ -4701,13 +4735,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4767,13 +4801,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4843,13 +4877,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4919,13 +4953,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4985,13 +5019,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5081,13 +5115,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>564</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>546</xdr:row>
+      <xdr:row>566</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5097,7 +5131,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1390650" y="114195223"/>
+          <a:off x="1390650" y="118386223"/>
           <a:ext cx="3762375" cy="266702"/>
           <a:chOff x="1409700" y="59502673"/>
           <a:chExt cx="3810000" cy="266702"/>
@@ -5330,13 +5364,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>549</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>550</xdr:row>
+      <xdr:row>570</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5346,7 +5380,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1333501" y="115138198"/>
+          <a:off x="1333501" y="119329198"/>
           <a:ext cx="3819524" cy="266702"/>
           <a:chOff x="1343026" y="59502673"/>
           <a:chExt cx="3876674" cy="266702"/>
@@ -5579,13 +5613,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>571</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>552</xdr:row>
+      <xdr:row>572</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5595,7 +5629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1333500" y="115519198"/>
+          <a:off x="1333500" y="119710198"/>
           <a:ext cx="3829050" cy="266702"/>
           <a:chOff x="1333500" y="59502673"/>
           <a:chExt cx="3886200" cy="266702"/>
@@ -5828,13 +5862,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>586</xdr:row>
+      <xdr:row>606</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>588</xdr:row>
+      <xdr:row>608</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5896,13 +5930,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5959,13 +5993,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6011,13 +6045,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>414</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6101,13 +6135,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>430</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>430</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6153,13 +6187,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6216,13 +6250,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6268,13 +6302,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6358,13 +6392,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>437</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6410,13 +6444,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6426,7 +6460,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2066925" y="17183100"/>
+          <a:off x="2066925" y="18859500"/>
           <a:ext cx="4638675" cy="2533650"/>
           <a:chOff x="5724525" y="6457950"/>
           <a:chExt cx="4695825" cy="2533650"/>
@@ -6590,42 +6624,239 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>604</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285640</xdr:colOff>
-      <xdr:row>605</xdr:row>
-      <xdr:rowOff>152367</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="组合 65"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9667875" y="22726650"/>
-          <a:ext cx="876190" cy="266667"/>
+          <a:off x="2028825" y="23050500"/>
+          <a:ext cx="3305175" cy="1762125"/>
+          <a:chOff x="1543050" y="5505450"/>
+          <a:chExt cx="3305175" cy="1762125"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="矩形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1543050" y="5505450"/>
+            <a:ext cx="3305175" cy="1762125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="组合 71"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1666876" y="5543551"/>
+            <a:ext cx="3057524" cy="1638300"/>
+            <a:chOff x="5724525" y="6457950"/>
+            <a:chExt cx="4695825" cy="2533650"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="矩形 72"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5724525" y="6648450"/>
+              <a:ext cx="4562475" cy="2343150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="3200">
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>主体界面</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="圆角矩形 73"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7200900" y="6467475"/>
+              <a:ext cx="1638300" cy="419100"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>窗口标题</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="圆角矩形 74"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10020300" y="6457950"/>
+              <a:ext cx="400050" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="3200" b="1"/>
+                <a:t>X</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8261,17 +8492,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" style="7"/>
     <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="15.125" style="7" customWidth="1"/>
     <col min="9" max="16384" width="8.875" style="7"/>
   </cols>
@@ -8429,9 +8660,9 @@
       <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8450,12 +8681,12 @@
         <v>36</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8474,12 +8705,12 @@
       <c r="G11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8490,12 +8721,12 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8514,12 +8745,12 @@
       <c r="G13" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8530,12 +8761,12 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8546,12 +8777,12 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8562,12 +8793,12 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8578,82 +8809,82 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18" s="14">
         <v>42123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="H18" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" s="14">
         <v>42124</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C20" s="14">
         <v>42125</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8664,12 +8895,12 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="H21" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8680,12 +8911,12 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="H22" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8696,12 +8927,12 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="H23" s="53" t="s">
+        <v>525</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8712,12 +8943,12 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="H24" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8728,12 +8959,12 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="H25" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8744,39 +8975,39 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="H26" s="53" t="s">
+        <v>540</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C27" s="14">
         <v>42130</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+        <v>547</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="14">
@@ -8786,28 +9017,34 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+        <v>548</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>565</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="14">
+        <v>42294</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="G29" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
@@ -8818,55 +9055,71 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="H30" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8881,6 +9134,8 @@
     <hyperlink ref="H24" location="输入框尺寸规范" display="补充输入框尺寸规范"/>
     <hyperlink ref="H25" location="五、进度条尺寸规范" display="补充进度条尺寸规范"/>
     <hyperlink ref="H28" location="货币显示相关规范" display="补充货币显示规范"/>
+    <hyperlink ref="H29" location="窗口在游戏中实现为底面蒙灰_上层实际窗口_下文标注的窗口尺寸大小为蒙灰尺寸_上层实际窗口尺寸查看“UI标准”文档" display="回归窗口实现规则"/>
+    <hyperlink ref="H30" location="四、缩放规则" display="增加文字缩放规则"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8896,7 +9151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -8943,59 +9198,59 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C10" s="55" t="s">
-        <v>555</v>
+      <c r="C10" s="52" t="s">
+        <v>550</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
+        <v>552</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
+        <v>551</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+        <v>549</v>
+      </c>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -9005,38 +9260,38 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D18" s="17" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D19" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+        <v>556</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D20" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+        <v>560</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -9046,7 +9301,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C24" s="17" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -9189,10 +9444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:M621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I327" sqref="I327"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9242,7 +9497,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -9275,3158 +9530,3391 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="D17" s="29" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="D18" s="29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="D19" s="29" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C21" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C22" s="29"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="1" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="1" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C35" s="1" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C43" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C51" s="1" t="s">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D53" s="1" t="s">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C55" s="29" t="s">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C63" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C62" s="29"/>
-      <c r="D62" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C63" s="29"/>
       <c r="D63" s="29"/>
-      <c r="E63" s="29" t="s">
-        <v>322</v>
-      </c>
+      <c r="E63" s="29"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="29" t="s">
-        <v>323</v>
-      </c>
+      <c r="H63" s="29"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29" t="s">
-        <v>310</v>
-      </c>
+      <c r="D64" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29" t="s">
-        <v>311</v>
-      </c>
+      <c r="D65" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="29"/>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F66" s="29"/>
+        <v>304</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>301</v>
+      </c>
       <c r="G66" s="29"/>
-      <c r="H66" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F67" s="29"/>
+        <v>305</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29" t="s">
-        <v>315</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="29"/>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29" t="s">
-        <v>316</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G69" s="29"/>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29" t="s">
-        <v>320</v>
-      </c>
+      <c r="D70" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="29"/>
       <c r="F70" s="29"/>
-      <c r="G70" s="29" t="s">
-        <v>317</v>
-      </c>
+      <c r="G70" s="29"/>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29" t="s">
+      <c r="F79" s="29"/>
+      <c r="G79" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
+      <c r="H79" s="29"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C74" s="1" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C82" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D75" s="1" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C84" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D77" s="1" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C86" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D79" s="1" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C88" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="1" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C96" s="1" t="s">
+    <row r="104" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C104" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D97" s="1" t="s">
+    <row r="105" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D105" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D98" s="1" t="s">
+    <row r="106" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D106" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C100" s="29" t="s">
+    <row r="108" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C108" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C101" s="29"/>
-      <c r="D101" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C102" s="29"/>
-      <c r="D102" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C107" s="29"/>
-      <c r="D107" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C108" s="29"/>
       <c r="D108" s="29"/>
-      <c r="E108" s="29" t="s">
-        <v>322</v>
-      </c>
+      <c r="E108" s="29"/>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29" t="s">
-        <v>310</v>
-      </c>
+      <c r="D109" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="29" t="s">
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C110" s="29"/>
+      <c r="D110" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="54"/>
+      <c r="M110" s="54"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C111" s="29"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C112" s="29"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="54"/>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C113" s="29"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C114" s="29"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="54"/>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C115" s="29"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="54"/>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C116" s="29"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C117" s="29"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C118" s="29"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="54"/>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C119" s="29"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C121" s="29"/>
+      <c r="D121" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C126" s="29"/>
+      <c r="D126" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29" t="s">
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29" t="s">
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29" t="s">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29" t="s">
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29" t="s">
+      <c r="F132" s="29"/>
+      <c r="G132" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H113" s="29"/>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29" t="s">
+      <c r="H132" s="29"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29" t="s">
+      <c r="F133" s="29"/>
+      <c r="G133" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H114" s="29"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29" t="s">
+      <c r="H133" s="29"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29" t="s">
+      <c r="F134" s="29"/>
+      <c r="G134" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H115" s="29"/>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29" t="s">
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29" t="s">
+      <c r="F135" s="29"/>
+      <c r="G135" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H116" s="29"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
+      <c r="H135" s="29"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C119" s="1" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C138" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D120" s="1" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D139" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C121" s="1" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C140" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D122" s="1" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D141" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C123" s="1" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C142" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D124" s="1" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D143" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C125" s="1" t="s">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C144" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D126" s="1" t="s">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D145" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C140" s="1" t="s">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C159" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D141" s="1" t="s">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D160" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D142" s="1" t="s">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D161" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D143" s="1" t="s">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D162" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C145" s="29" t="s">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C164" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-    </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C146" s="29"/>
-      <c r="D146" s="29" t="s">
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C165" s="29"/>
+      <c r="D165" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-    </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C147" s="29"/>
-      <c r="D147" s="29" t="s">
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C166" s="29"/>
+      <c r="D166" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-    </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29" t="s">
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="F148" s="29" t="s">
+      <c r="F167" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-    </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29" t="s">
+      <c r="G167" s="29"/>
+      <c r="H167" s="29"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F149" s="29" t="s">
+      <c r="F168" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
-    </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29" t="s">
+      <c r="G168" s="29"/>
+      <c r="H168" s="29"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="F169" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-    </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29" t="s">
+      <c r="G169" s="29"/>
+      <c r="H169" s="29"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F151" s="29" t="s">
+      <c r="F170" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-    </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C152" s="29"/>
-      <c r="D152" s="29" t="s">
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C171" s="29"/>
+      <c r="D171" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-    </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29" t="s">
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29" t="s">
+      <c r="F172" s="29"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29" t="s">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29" t="s">
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29" t="s">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29" t="s">
+      <c r="F174" s="29"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29" t="s">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29" t="s">
+      <c r="F175" s="29"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29" t="s">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-    </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29" t="s">
+      <c r="F176" s="29"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="29"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29" t="s">
+      <c r="F177" s="29"/>
+      <c r="G177" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H158" s="29"/>
-    </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29" t="s">
+      <c r="H177" s="29"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29" t="s">
+      <c r="F178" s="29"/>
+      <c r="G178" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H159" s="29"/>
-    </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29" t="s">
+      <c r="H178" s="29"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29" t="s">
+      <c r="F179" s="29"/>
+      <c r="G179" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H160" s="29"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29" t="s">
+      <c r="H179" s="29"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29" t="s">
+      <c r="F180" s="29"/>
+      <c r="G180" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H161" s="29"/>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
+      <c r="H180" s="29"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B182" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C164" s="1" t="s">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C183" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D165" s="1" t="s">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D184" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C166" s="1" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C185" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D167" s="1" t="s">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D186" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C168" s="1" t="s">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C187" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D169" s="1" t="s">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D188" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C170" s="1" t="s">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C189" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D171" s="1" t="s">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D190" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C185" s="1" t="s">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C204" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D186" s="1" t="s">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D205" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D187" s="1" t="s">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D206" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D188" s="1" t="s">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D207" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D189" s="1" t="s">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D208" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C191" s="29" t="s">
+    <row r="210" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C210" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="29"/>
-    </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C192" s="29"/>
-      <c r="D192" s="29" t="s">
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="29"/>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C211" s="29"/>
+      <c r="D211" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="29"/>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C193" s="29"/>
-      <c r="D193" s="29" t="s">
+      <c r="E211" s="29"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="29"/>
+      <c r="H211" s="29"/>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C212" s="29"/>
+      <c r="D212" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="29"/>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29" t="s">
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="29"/>
+      <c r="H212" s="29"/>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F194" s="29" t="s">
+      <c r="F213" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="G194" s="29"/>
-      <c r="H194" s="29"/>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29" t="s">
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F195" s="29" t="s">
+      <c r="F214" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G195" s="29"/>
-      <c r="H195" s="29"/>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29" t="s">
+      <c r="G214" s="29"/>
+      <c r="H214" s="29"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C215" s="29"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F196" s="29" t="s">
+      <c r="F215" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="G196" s="29"/>
-      <c r="H196" s="29"/>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C197" s="29"/>
-      <c r="D197" s="29" t="s">
+      <c r="G215" s="29"/>
+      <c r="H215" s="29"/>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C216" s="29"/>
+      <c r="D216" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E197" s="29"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
-      <c r="H197" s="29"/>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29" t="s">
+      <c r="E216" s="29"/>
+      <c r="F216" s="29"/>
+      <c r="G216" s="29"/>
+      <c r="H216" s="29"/>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="29" t="s">
+      <c r="F217" s="29"/>
+      <c r="G217" s="29"/>
+      <c r="H217" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29" t="s">
+    <row r="218" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="29" t="s">
+      <c r="F218" s="29"/>
+      <c r="G218" s="29"/>
+      <c r="H218" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29" t="s">
+    <row r="219" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F200" s="29"/>
-      <c r="G200" s="29"/>
-      <c r="H200" s="29" t="s">
+      <c r="F219" s="29"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29" t="s">
+    <row r="220" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="29" t="s">
+      <c r="F220" s="29"/>
+      <c r="G220" s="29"/>
+      <c r="H220" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29" t="s">
+    <row r="221" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="29"/>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29" t="s">
+      <c r="F221" s="29"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="29"/>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29" t="s">
+      <c r="F222" s="29"/>
+      <c r="G222" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H203" s="29"/>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29" t="s">
+      <c r="H222" s="29"/>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29" t="s">
+      <c r="F223" s="29"/>
+      <c r="G223" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H204" s="29"/>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29" t="s">
+      <c r="H223" s="29"/>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29" t="s">
+      <c r="F224" s="29"/>
+      <c r="G224" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H205" s="29"/>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="29" t="s">
+      <c r="H224" s="29"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29" t="s">
+      <c r="F225" s="29"/>
+      <c r="G225" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H206" s="29"/>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
+      <c r="H225" s="29"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B227" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C209" s="1" t="s">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C228" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D210" s="1" t="s">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D229" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C211" s="1" t="s">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C230" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D212" s="1" t="s">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D231" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C213" s="1" t="s">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C232" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D214" s="1" t="s">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D233" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C227" s="1" t="s">
+    <row r="246" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C246" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D228" s="1" t="s">
+    <row r="247" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D247" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D229" s="1" t="s">
+    <row r="248" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D248" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D230" s="1" t="s">
+    <row r="249" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D249" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C232" s="29" t="s">
+    <row r="251" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C251" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-    </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C233" s="29"/>
-      <c r="D233" s="29" t="s">
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="29"/>
+      <c r="G251" s="29"/>
+      <c r="H251" s="29"/>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C252" s="29"/>
+      <c r="D252" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="29"/>
-    </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C234" s="29"/>
-      <c r="D234" s="29" t="s">
+      <c r="E252" s="29"/>
+      <c r="F252" s="29"/>
+      <c r="G252" s="29"/>
+      <c r="H252" s="29"/>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C253" s="29"/>
+      <c r="D253" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
-    </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29" t="s">
+      <c r="E253" s="29"/>
+      <c r="F253" s="29"/>
+      <c r="G253" s="29"/>
+      <c r="H253" s="29"/>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F235" s="29" t="s">
+      <c r="F254" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="G235" s="29"/>
-      <c r="H235" s="29"/>
-    </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29" t="s">
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+    </row>
+    <row r="255" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F236" s="29" t="s">
+      <c r="F255" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G236" s="29"/>
-      <c r="H236" s="29"/>
-    </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29" t="s">
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
+    </row>
+    <row r="256" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C256" s="29"/>
+      <c r="D256" s="29"/>
+      <c r="E256" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F237" s="29" t="s">
+      <c r="F256" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-    </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C238" s="29"/>
-      <c r="D238" s="29" t="s">
+      <c r="G256" s="29"/>
+      <c r="H256" s="29"/>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C257" s="29"/>
+      <c r="D257" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
-      <c r="G238" s="29"/>
-      <c r="H238" s="29"/>
-    </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
-      <c r="E239" s="29" t="s">
+      <c r="E257" s="29"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C258" s="29"/>
+      <c r="D258" s="29"/>
+      <c r="E258" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F239" s="29"/>
-      <c r="G239" s="29"/>
-      <c r="H239" s="29" t="s">
+      <c r="F258" s="29"/>
+      <c r="G258" s="29"/>
+      <c r="H258" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
-      <c r="E240" s="29" t="s">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C259" s="29"/>
+      <c r="D259" s="29"/>
+      <c r="E259" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F240" s="29"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29" t="s">
+      <c r="F259" s="29"/>
+      <c r="G259" s="29"/>
+      <c r="H259" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C241" s="29"/>
-      <c r="D241" s="29"/>
-      <c r="E241" s="29" t="s">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C260" s="29"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F241" s="29"/>
-      <c r="G241" s="29"/>
-      <c r="H241" s="29" t="s">
+      <c r="F260" s="29"/>
+      <c r="G260" s="29"/>
+      <c r="H260" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
-      <c r="E242" s="29" t="s">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C261" s="29"/>
+      <c r="D261" s="29"/>
+      <c r="E261" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F242" s="29"/>
-      <c r="G242" s="29"/>
-      <c r="H242" s="29" t="s">
+      <c r="F261" s="29"/>
+      <c r="G261" s="29"/>
+      <c r="H261" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29" t="s">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C262" s="29"/>
+      <c r="D262" s="29"/>
+      <c r="E262" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F243" s="29"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29" t="s">
+      <c r="F262" s="29"/>
+      <c r="G262" s="29"/>
+      <c r="H262" s="29"/>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C263" s="29"/>
+      <c r="D263" s="29"/>
+      <c r="E263" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29" t="s">
+      <c r="F263" s="29"/>
+      <c r="G263" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H244" s="29"/>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29" t="s">
+      <c r="H263" s="29"/>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C264" s="29"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F245" s="29"/>
-      <c r="G245" s="29" t="s">
+      <c r="F264" s="29"/>
+      <c r="G264" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H245" s="29"/>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C246" s="29"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29" t="s">
+      <c r="H264" s="29"/>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C265" s="29"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F246" s="29"/>
-      <c r="G246" s="29" t="s">
+      <c r="F265" s="29"/>
+      <c r="G265" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H246" s="29"/>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C247" s="29"/>
-      <c r="D247" s="29"/>
-      <c r="E247" s="29" t="s">
+      <c r="H265" s="29"/>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C266" s="29"/>
+      <c r="D266" s="29"/>
+      <c r="E266" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F247" s="29"/>
-      <c r="G247" s="29" t="s">
+      <c r="F266" s="29"/>
+      <c r="G266" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H247" s="29"/>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B249" s="15" t="s">
+      <c r="H266" s="29"/>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B268" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C250" s="1" t="s">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C269" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D251" s="1" t="s">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D270" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C252" s="1" t="s">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C271" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D253" s="1" t="s">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D272" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C254" s="1" t="s">
+    <row r="273" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C273" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D255" s="1" t="s">
+    <row r="274" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D274" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C268" s="1" t="s">
+    <row r="287" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C287" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D269" s="1" t="s">
+    <row r="288" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D288" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D270" s="1" t="s">
+    <row r="289" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D289" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D271" s="1" t="s">
+    <row r="290" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D290" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D272" s="1" t="s">
+    <row r="291" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D291" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C274" s="29" t="s">
+    <row r="293" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C293" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="29"/>
-      <c r="H274" s="29"/>
-    </row>
-    <row r="275" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C275" s="29"/>
-      <c r="D275" s="29" t="s">
+      <c r="D293" s="29"/>
+      <c r="E293" s="29"/>
+      <c r="F293" s="29"/>
+      <c r="G293" s="29"/>
+      <c r="H293" s="29"/>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C294" s="29"/>
+      <c r="D294" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
-      <c r="G275" s="29"/>
-      <c r="H275" s="29"/>
-    </row>
-    <row r="276" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C276" s="29"/>
-      <c r="D276" s="29" t="s">
+      <c r="E294" s="29"/>
+      <c r="F294" s="29"/>
+      <c r="G294" s="29"/>
+      <c r="H294" s="29"/>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C295" s="29"/>
+      <c r="D295" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E276" s="29"/>
-      <c r="F276" s="29"/>
-      <c r="G276" s="29"/>
-      <c r="H276" s="29"/>
-    </row>
-    <row r="277" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C277" s="29"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="29" t="s">
+      <c r="E295" s="29"/>
+      <c r="F295" s="29"/>
+      <c r="G295" s="29"/>
+      <c r="H295" s="29"/>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C296" s="29"/>
+      <c r="D296" s="29"/>
+      <c r="E296" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F277" s="29" t="s">
+      <c r="F296" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="G277" s="29"/>
-      <c r="H277" s="29"/>
-    </row>
-    <row r="278" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29" t="s">
+      <c r="G296" s="29"/>
+      <c r="H296" s="29"/>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C297" s="29"/>
+      <c r="D297" s="29"/>
+      <c r="E297" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F278" s="29" t="s">
+      <c r="F297" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G278" s="29"/>
-      <c r="H278" s="29"/>
-    </row>
-    <row r="279" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C279" s="29"/>
-      <c r="D279" s="29"/>
-      <c r="E279" s="29" t="s">
+      <c r="G297" s="29"/>
+      <c r="H297" s="29"/>
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C298" s="29"/>
+      <c r="D298" s="29"/>
+      <c r="E298" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F279" s="29" t="s">
+      <c r="F298" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="G279" s="29"/>
-      <c r="H279" s="29"/>
-    </row>
-    <row r="280" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C280" s="29"/>
-      <c r="D280" s="29" t="s">
+      <c r="G298" s="29"/>
+      <c r="H298" s="29"/>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C299" s="29"/>
+      <c r="D299" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E280" s="29"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="29"/>
-      <c r="H280" s="29"/>
-    </row>
-    <row r="281" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C281" s="29"/>
-      <c r="D281" s="29"/>
-      <c r="E281" s="29" t="s">
+      <c r="E299" s="29"/>
+      <c r="F299" s="29"/>
+      <c r="G299" s="29"/>
+      <c r="H299" s="29"/>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C300" s="29"/>
+      <c r="D300" s="29"/>
+      <c r="E300" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F281" s="29"/>
-      <c r="G281" s="29"/>
-      <c r="H281" s="29" t="s">
+      <c r="F300" s="29"/>
+      <c r="G300" s="29"/>
+      <c r="H300" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="282" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C282" s="29"/>
-      <c r="D282" s="29"/>
-      <c r="E282" s="29" t="s">
+    <row r="301" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C301" s="29"/>
+      <c r="D301" s="29"/>
+      <c r="E301" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F282" s="29"/>
-      <c r="G282" s="29"/>
-      <c r="H282" s="29" t="s">
+      <c r="F301" s="29"/>
+      <c r="G301" s="29"/>
+      <c r="H301" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C283" s="29"/>
-      <c r="D283" s="29"/>
-      <c r="E283" s="29" t="s">
+    <row r="302" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C302" s="29"/>
+      <c r="D302" s="29"/>
+      <c r="E302" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F283" s="29"/>
-      <c r="G283" s="29"/>
-      <c r="H283" s="29" t="s">
+      <c r="F302" s="29"/>
+      <c r="G302" s="29"/>
+      <c r="H302" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="284" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C284" s="29"/>
-      <c r="D284" s="29"/>
-      <c r="E284" s="29" t="s">
+    <row r="303" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C303" s="29"/>
+      <c r="D303" s="29"/>
+      <c r="E303" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F284" s="29"/>
-      <c r="G284" s="29"/>
-      <c r="H284" s="29" t="s">
+      <c r="F303" s="29"/>
+      <c r="G303" s="29"/>
+      <c r="H303" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C285" s="29"/>
-      <c r="D285" s="29"/>
-      <c r="E285" s="29" t="s">
+    <row r="304" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C304" s="29"/>
+      <c r="D304" s="29"/>
+      <c r="E304" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F285" s="29"/>
-      <c r="G285" s="29"/>
-      <c r="H285" s="29"/>
-    </row>
-    <row r="286" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C286" s="29"/>
-      <c r="D286" s="29"/>
-      <c r="E286" s="29" t="s">
+      <c r="F304" s="29"/>
+      <c r="G304" s="29"/>
+      <c r="H304" s="29"/>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F286" s="29"/>
-      <c r="G286" s="29" t="s">
+      <c r="F305" s="29"/>
+      <c r="G305" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H286" s="29"/>
-    </row>
-    <row r="287" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C287" s="29"/>
-      <c r="D287" s="29"/>
-      <c r="E287" s="29" t="s">
+      <c r="H305" s="29"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C306" s="29"/>
+      <c r="D306" s="29"/>
+      <c r="E306" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F287" s="29"/>
-      <c r="G287" s="29" t="s">
+      <c r="F306" s="29"/>
+      <c r="G306" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H287" s="29"/>
-    </row>
-    <row r="288" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C288" s="29"/>
-      <c r="D288" s="29"/>
-      <c r="E288" s="29" t="s">
+      <c r="H306" s="29"/>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C307" s="29"/>
+      <c r="D307" s="29"/>
+      <c r="E307" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F288" s="29"/>
-      <c r="G288" s="29" t="s">
+      <c r="F307" s="29"/>
+      <c r="G307" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H288" s="29"/>
-    </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C289" s="29"/>
-      <c r="D289" s="29"/>
-      <c r="E289" s="29" t="s">
+      <c r="H307" s="29"/>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C308" s="29"/>
+      <c r="D308" s="29"/>
+      <c r="E308" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F289" s="29"/>
-      <c r="G289" s="29" t="s">
+      <c r="F308" s="29"/>
+      <c r="G308" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H289" s="29"/>
-    </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B291" s="15" t="s">
+      <c r="H308" s="29"/>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B310" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C292" s="1" t="s">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C311" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D293" s="1" t="s">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D312" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C294" s="1" t="s">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C313" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D295" s="1" t="s">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D314" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C296" s="1" t="s">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C315" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D297" s="1" t="s">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D316" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C298" s="1" t="s">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C317" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D299" s="1" t="s">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D318" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C313" s="1" t="s">
+    <row r="332" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C332" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D314" s="1" t="s">
+    <row r="333" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D333" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D315" s="1" t="s">
+    <row r="334" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D334" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D316" s="1" t="s">
+    <row r="335" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D335" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C318" s="28" t="s">
+    <row r="337" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C337" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D318" s="28"/>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C319" s="28"/>
-      <c r="D319" s="28" t="s">
+      <c r="D337" s="28"/>
+    </row>
+    <row r="338" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C338" s="28"/>
+      <c r="D338" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C320" s="28"/>
-      <c r="D320" s="28" t="s">
+    <row r="339" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C339" s="28"/>
+      <c r="D339" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="321" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C321" s="28"/>
-      <c r="D321" s="28" t="s">
+    <row r="340" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C340" s="28"/>
+      <c r="D340" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="323" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C323" s="29" t="s">
+    <row r="342" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C342" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D323" s="29"/>
-      <c r="E323" s="29"/>
-      <c r="F323" s="29"/>
-      <c r="G323" s="29"/>
-      <c r="H323" s="29"/>
-    </row>
-    <row r="324" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C324" s="29"/>
-      <c r="D324" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="E324" s="29"/>
-      <c r="F324" s="29"/>
-      <c r="G324" s="29"/>
-      <c r="H324" s="29"/>
-    </row>
-    <row r="325" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C325" s="29"/>
-      <c r="D325" s="29" t="s">
+      <c r="D342" s="29"/>
+      <c r="E342" s="29"/>
+      <c r="F342" s="29"/>
+      <c r="G342" s="29"/>
+      <c r="H342" s="29"/>
+    </row>
+    <row r="343" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C343" s="29"/>
+      <c r="D343" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E343" s="29"/>
+      <c r="F343" s="29"/>
+      <c r="G343" s="29"/>
+    </row>
+    <row r="344" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C344" s="29"/>
+      <c r="D344" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E325" s="29"/>
-      <c r="F325" s="29"/>
-      <c r="G325" s="29"/>
-      <c r="H325" s="29"/>
-    </row>
-    <row r="326" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C326" s="29"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="29" t="s">
+      <c r="E344" s="29"/>
+      <c r="F344" s="29"/>
+      <c r="G344" s="29"/>
+      <c r="H344" s="29"/>
+    </row>
+    <row r="345" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C345" s="29"/>
+      <c r="D345" s="29"/>
+      <c r="E345" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F326" s="29" t="s">
+      <c r="F345" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="G326" s="29"/>
-      <c r="H326" s="29"/>
-    </row>
-    <row r="327" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C327" s="29"/>
-      <c r="D327" s="29"/>
-      <c r="E327" s="29" t="s">
+      <c r="G345" s="29"/>
+      <c r="H345" s="29"/>
+    </row>
+    <row r="346" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C346" s="29"/>
+      <c r="D346" s="29"/>
+      <c r="E346" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F327" s="29" t="s">
+      <c r="F346" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G327" s="29"/>
-      <c r="H327" s="29"/>
-    </row>
-    <row r="328" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C328" s="29"/>
-      <c r="D328" s="29"/>
-      <c r="E328" s="29" t="s">
+      <c r="G346" s="29"/>
+      <c r="H346" s="29"/>
+    </row>
+    <row r="347" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C347" s="29"/>
+      <c r="D347" s="29"/>
+      <c r="E347" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="F328" s="29" t="s">
+      <c r="F347" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="G328" s="29"/>
-      <c r="H328" s="29"/>
-    </row>
-    <row r="329" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C329" s="29"/>
-      <c r="D329" s="29" t="s">
+      <c r="G347" s="29"/>
+      <c r="H347" s="29"/>
+    </row>
+    <row r="348" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C348" s="29"/>
+      <c r="D348" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E329" s="29"/>
-      <c r="F329" s="29"/>
-      <c r="G329" s="29"/>
-      <c r="H329" s="29"/>
-    </row>
-    <row r="330" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C330" s="29"/>
-      <c r="D330" s="29"/>
-      <c r="E330" s="29" t="s">
+      <c r="E348" s="29"/>
+      <c r="F348" s="29"/>
+      <c r="G348" s="29"/>
+      <c r="H348" s="29"/>
+    </row>
+    <row r="349" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C349" s="29"/>
+      <c r="D349" s="29"/>
+      <c r="E349" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="F330" s="29"/>
-      <c r="G330" s="29"/>
-      <c r="H330" s="29" t="s">
+      <c r="F349" s="29"/>
+      <c r="G349" s="29"/>
+      <c r="H349" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C331" s="29"/>
-      <c r="D331" s="29"/>
-      <c r="E331" s="29" t="s">
+    <row r="350" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C350" s="29"/>
+      <c r="D350" s="29"/>
+      <c r="E350" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F331" s="29"/>
-      <c r="G331" s="29"/>
-      <c r="H331" s="29" t="s">
+      <c r="F350" s="29"/>
+      <c r="G350" s="29"/>
+      <c r="H350" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="332" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C332" s="29"/>
-      <c r="D332" s="29"/>
-      <c r="E332" s="29" t="s">
+    <row r="351" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C351" s="29"/>
+      <c r="D351" s="29"/>
+      <c r="E351" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F332" s="29"/>
-      <c r="G332" s="29"/>
-      <c r="H332" s="29" t="s">
+      <c r="F351" s="29"/>
+      <c r="G351" s="29"/>
+      <c r="H351" s="29" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="333" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C333" s="29"/>
-      <c r="D333" s="29"/>
-      <c r="E333" s="29" t="s">
+    <row r="352" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C352" s="29"/>
+      <c r="D352" s="29"/>
+      <c r="E352" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F333" s="29"/>
-      <c r="G333" s="29"/>
-      <c r="H333" s="29" t="s">
+      <c r="F352" s="29"/>
+      <c r="G352" s="29"/>
+      <c r="H352" s="29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="334" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C334" s="29"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="29" t="s">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C353" s="29"/>
+      <c r="D353" s="29"/>
+      <c r="E353" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F334" s="29"/>
-      <c r="G334" s="29"/>
-      <c r="H334" s="29"/>
-    </row>
-    <row r="335" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C335" s="29"/>
-      <c r="D335" s="29"/>
-      <c r="E335" s="29" t="s">
+      <c r="F353" s="29"/>
+      <c r="G353" s="29"/>
+      <c r="H353" s="29"/>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C354" s="29"/>
+      <c r="D354" s="29"/>
+      <c r="E354" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F335" s="29"/>
-      <c r="G335" s="29" t="s">
+      <c r="F354" s="29"/>
+      <c r="G354" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="H335" s="29"/>
-    </row>
-    <row r="336" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C336" s="29"/>
-      <c r="D336" s="29"/>
-      <c r="E336" s="29" t="s">
+      <c r="H354" s="29"/>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C355" s="29"/>
+      <c r="D355" s="29"/>
+      <c r="E355" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F336" s="29"/>
-      <c r="G336" s="29" t="s">
+      <c r="F355" s="29"/>
+      <c r="G355" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H336" s="29"/>
-    </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C337" s="29"/>
-      <c r="D337" s="29"/>
-      <c r="E337" s="29" t="s">
+      <c r="H355" s="29"/>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C356" s="29"/>
+      <c r="D356" s="29"/>
+      <c r="E356" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="F337" s="29"/>
-      <c r="G337" s="29" t="s">
+      <c r="F356" s="29"/>
+      <c r="G356" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="H337" s="29"/>
-    </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C338" s="29"/>
-      <c r="D338" s="29"/>
-      <c r="E338" s="29" t="s">
+      <c r="H356" s="29"/>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C357" s="29"/>
+      <c r="D357" s="29"/>
+      <c r="E357" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="F338" s="29"/>
-      <c r="G338" s="29" t="s">
+      <c r="F357" s="29"/>
+      <c r="G357" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="H338" s="29"/>
-    </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B340" s="15" t="s">
+      <c r="H357" s="29"/>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B359" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C341" s="1" t="s">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C360" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D342" s="1" t="s">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D361" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C343" s="1" t="s">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C362" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D344" s="1" t="s">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D363" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C345" s="1" t="s">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C364" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D346" s="1" t="s">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D365" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C347" s="1" t="s">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C366" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D348" s="1" t="s">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D367" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C362" s="1" t="s">
+    <row r="381" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C381" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D363" s="1" t="s">
+    <row r="382" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D382" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D364" s="1" t="s">
+    <row r="383" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D383" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C366" s="28" t="s">
+    <row r="385" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C385" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D366" s="28"/>
-    </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C367" s="28"/>
-      <c r="D367" s="28" t="s">
+      <c r="D385" s="28"/>
+    </row>
+    <row r="386" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C386" s="28"/>
+      <c r="D386" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C368" s="28"/>
-      <c r="D368" s="28" t="s">
+    <row r="387" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C387" s="28"/>
+      <c r="D387" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C369" s="28"/>
-      <c r="D369" s="28" t="s">
+    <row r="388" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C388" s="28"/>
+      <c r="D388" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="371" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C371" s="28" t="s">
+    <row r="390" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C390" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D371" s="28"/>
-    </row>
-    <row r="372" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C372" s="28"/>
-      <c r="D372" s="28" t="s">
+      <c r="D390" s="28"/>
+    </row>
+    <row r="391" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C391" s="28"/>
+      <c r="D391" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="373" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C373" s="28"/>
-      <c r="D373" s="28" t="s">
+    <row r="392" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C392" s="28"/>
+      <c r="D392" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="374" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C374" s="28"/>
-      <c r="D374" s="28" t="s">
+    <row r="393" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C393" s="28"/>
+      <c r="D393" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="376" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C376" s="29" t="s">
+    <row r="395" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C395" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="D376" s="29"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="29"/>
-      <c r="G376" s="29"/>
-      <c r="H376" s="29"/>
-    </row>
-    <row r="377" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C377" s="29"/>
-      <c r="D377" s="29" t="s">
+      <c r="D395" s="29"/>
+      <c r="E395" s="29"/>
+      <c r="F395" s="29"/>
+      <c r="G395" s="29"/>
+      <c r="H395" s="29"/>
+    </row>
+    <row r="396" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C396" s="29"/>
+      <c r="D396" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E396" s="29"/>
+      <c r="F396" s="29"/>
+      <c r="G396" s="29"/>
+      <c r="H396" s="29"/>
+    </row>
+    <row r="397" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C397" s="29"/>
+      <c r="D397" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E397" s="29"/>
+      <c r="F397" s="29"/>
+      <c r="G397" s="29"/>
+      <c r="H397" s="29"/>
+    </row>
+    <row r="398" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C398" s="29"/>
+      <c r="D398" s="29"/>
+      <c r="E398" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F398" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="G398" s="29"/>
+      <c r="H398" s="29"/>
+    </row>
+    <row r="399" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C399" s="29"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F399" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G399" s="29"/>
+      <c r="H399" s="29"/>
+    </row>
+    <row r="400" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C400" s="29"/>
+      <c r="D400" s="29"/>
+      <c r="E400" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F400" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="G400" s="29"/>
+      <c r="H400" s="29"/>
+    </row>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C401" s="29"/>
+      <c r="D401" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E401" s="29"/>
+      <c r="F401" s="29"/>
+      <c r="G401" s="29"/>
+      <c r="H401" s="29"/>
+    </row>
+    <row r="402" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F402" s="29"/>
+      <c r="G402" s="29"/>
+      <c r="H402" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="403" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+      <c r="E403" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F403" s="29"/>
+      <c r="G403" s="29"/>
+      <c r="H403" s="29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="404" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C404" s="29"/>
+      <c r="D404" s="29"/>
+      <c r="E404" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F404" s="29"/>
+      <c r="G404" s="29"/>
+      <c r="H404" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="405" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F405" s="29"/>
+      <c r="G405" s="29"/>
+      <c r="H405" s="29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F406" s="29"/>
+      <c r="G406" s="29"/>
+      <c r="H406" s="29"/>
+    </row>
+    <row r="407" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C407" s="29"/>
+      <c r="D407" s="29"/>
+      <c r="E407" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F407" s="29"/>
+      <c r="G407" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H407" s="29"/>
+    </row>
+    <row r="408" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C408" s="29"/>
+      <c r="D408" s="29"/>
+      <c r="E408" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F408" s="29"/>
+      <c r="G408" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H408" s="29"/>
+    </row>
+    <row r="409" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C409" s="29"/>
+      <c r="D409" s="29"/>
+      <c r="E409" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F409" s="29"/>
+      <c r="G409" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H409" s="29"/>
+    </row>
+    <row r="410" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C410" s="29"/>
+      <c r="D410" s="29"/>
+      <c r="E410" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F410" s="29"/>
+      <c r="G410" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="H410" s="29"/>
+    </row>
+    <row r="411" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C411" s="29"/>
+      <c r="D411" s="29"/>
+      <c r="E411" s="29"/>
+      <c r="F411" s="29"/>
+      <c r="G411" s="29"/>
+      <c r="H411" s="29"/>
+    </row>
+    <row r="412" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B412" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="413" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C413" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="414" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D414" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="415" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C415" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="416" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D416" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C417" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D418" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C419" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D420" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D421" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C423" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D424" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D425" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C427" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D428" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D429" s="28"/>
+    </row>
+    <row r="430" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D430" s="28"/>
+    </row>
+    <row r="431" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D431" s="28"/>
+    </row>
+    <row r="432" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D432" s="28"/>
+    </row>
+    <row r="433" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D433" s="28"/>
+    </row>
+    <row r="434" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D434" s="28"/>
+    </row>
+    <row r="435" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D435" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="443" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C443" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D443" s="28"/>
+    </row>
+    <row r="444" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C444" s="28"/>
+      <c r="D444" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="445" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D445" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E445" s="28"/>
+    </row>
+    <row r="446" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D446" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="E446" s="28"/>
+    </row>
+    <row r="447" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D447" s="28"/>
+      <c r="E447" s="28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="448" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D448" s="28"/>
+      <c r="E448" s="28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D449" s="28"/>
+      <c r="E449" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D450" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E450" s="28"/>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D451" s="28"/>
+      <c r="E451" s="28"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B454" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C455" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C456" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C457" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="E377" s="29"/>
-      <c r="F377" s="29"/>
-      <c r="G377" s="29"/>
-      <c r="H377" s="29"/>
-    </row>
-    <row r="378" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C378" s="29"/>
-      <c r="D378" s="29" t="s">
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B459" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C460" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B462" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C463" s="29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B465" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C466" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C467" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C468" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C469" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="E378" s="29"/>
-      <c r="F378" s="29"/>
-      <c r="G378" s="29"/>
-      <c r="H378" s="29"/>
-    </row>
-    <row r="379" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C379" s="29"/>
-      <c r="D379" s="29"/>
-      <c r="E379" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F379" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="G379" s="29"/>
-      <c r="H379" s="29"/>
-    </row>
-    <row r="380" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C380" s="29"/>
-      <c r="D380" s="29"/>
-      <c r="E380" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F380" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="G380" s="29"/>
-      <c r="H380" s="29"/>
-    </row>
-    <row r="381" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C381" s="29"/>
-      <c r="D381" s="29"/>
-      <c r="E381" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="F381" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="G381" s="29"/>
-      <c r="H381" s="29"/>
-    </row>
-    <row r="382" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C382" s="29"/>
-      <c r="D382" s="29" t="s">
+      <c r="D469" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C470" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E382" s="29"/>
-      <c r="F382" s="29"/>
-      <c r="G382" s="29"/>
-      <c r="H382" s="29"/>
-    </row>
-    <row r="383" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C383" s="29"/>
-      <c r="D383" s="29"/>
-      <c r="E383" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="F383" s="29"/>
-      <c r="G383" s="29"/>
-      <c r="H383" s="29" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="384" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29" t="s">
+      <c r="D470" s="29"/>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C471" s="29"/>
+      <c r="D471" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C472" s="29"/>
+      <c r="D472" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F384" s="29"/>
-      <c r="G384" s="29"/>
-      <c r="H384" s="29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C385" s="29"/>
-      <c r="D385" s="29"/>
-      <c r="E385" s="29" t="s">
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C473" s="29"/>
+      <c r="D473" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="F385" s="29"/>
-      <c r="G385" s="29"/>
-      <c r="H385" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C386" s="29"/>
-      <c r="D386" s="29"/>
-      <c r="E386" s="29" t="s">
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D474" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="F386" s="29"/>
-      <c r="G386" s="29"/>
-      <c r="H386" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C387" s="29"/>
-      <c r="D387" s="29"/>
-      <c r="E387" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F387" s="29"/>
-      <c r="G387" s="29"/>
-      <c r="H387" s="29"/>
-    </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C388" s="29"/>
-      <c r="D388" s="29"/>
-      <c r="E388" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="F388" s="29"/>
-      <c r="G388" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="H388" s="29"/>
-    </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C389" s="29"/>
-      <c r="D389" s="29"/>
-      <c r="E389" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="F389" s="29"/>
-      <c r="G389" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="H389" s="29"/>
-    </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C390" s="29"/>
-      <c r="D390" s="29"/>
-      <c r="E390" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="F390" s="29"/>
-      <c r="G390" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="H390" s="29"/>
-    </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C391" s="29"/>
-      <c r="D391" s="29"/>
-      <c r="E391" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F391" s="29"/>
-      <c r="G391" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="H391" s="29"/>
-    </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C392" s="29"/>
-      <c r="D392" s="29"/>
-      <c r="E392" s="29"/>
-      <c r="F392" s="29"/>
-      <c r="G392" s="29"/>
-      <c r="H392" s="29"/>
-    </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B393" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C394" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D395" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C396" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D397" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C398" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D399" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C400" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="401" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D401" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="402" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D402" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="404" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C404" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="405" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D405" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="406" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D406" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="408" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C408" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="409" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D409" s="28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="410" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D410" s="28"/>
-    </row>
-    <row r="411" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D411" s="28"/>
-    </row>
-    <row r="412" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D412" s="28"/>
-    </row>
-    <row r="413" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D413" s="28"/>
-    </row>
-    <row r="414" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D414" s="28"/>
-    </row>
-    <row r="415" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D415" s="28"/>
-    </row>
-    <row r="416" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D416" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="424" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C424" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D424" s="28"/>
-    </row>
-    <row r="425" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C425" s="28"/>
-      <c r="D425" s="28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="426" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D426" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E426" s="28"/>
-    </row>
-    <row r="427" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D427" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="E427" s="28"/>
-    </row>
-    <row r="428" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D428" s="28"/>
-      <c r="E428" s="28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="429" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D429" s="28"/>
-      <c r="E429" s="28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="430" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D430" s="28"/>
-      <c r="E430" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="431" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D431" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E431" s="28"/>
-    </row>
-    <row r="432" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D432" s="28"/>
-      <c r="E432" s="28"/>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A434" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B435" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C436" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C437" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C438" s="29" t="s">
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D475" s="29"/>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B476" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C477" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C478" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B480" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C481" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D482" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D483" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D484" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D485" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D486" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E487" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A490" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B491" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C492" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D493" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D494" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C495" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B497" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C498" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C499" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C500" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C501" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B503" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C504" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C505" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C506" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C507" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C508" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D508" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C509" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D509" s="29"/>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C510" s="29"/>
+      <c r="D510" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C511" s="29"/>
+      <c r="D511" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C512" s="29"/>
+      <c r="D512" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D513" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B515" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C516" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C517" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C518" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D519" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A521" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B522" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C523" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D524" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D525" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C526" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B528" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C529" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C530" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B532" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C533" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C534" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D535" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D536" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C537" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B539" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C540" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C541" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B543" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C544" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C545" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="546" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C546" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="547" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C547" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="548" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C548" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D548" s="29" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B440" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C441" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B443" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C444" s="29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B446" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C447" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C448" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C449" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C450" s="29" t="s">
+    <row r="549" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C549" s="29"/>
+      <c r="D549" s="29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="550" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C550" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D550" s="29"/>
+    </row>
+    <row r="551" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C551" s="29"/>
+      <c r="D551" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="552" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C552" s="29"/>
+      <c r="D552" s="29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="553" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C553" s="29"/>
+      <c r="D553" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D554" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B556" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="557" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C557" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="558" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C558" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C559" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="560" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D560" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A562" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B563" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C564" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C568" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C569" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C574" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B576" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C577" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C578" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B580" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C581" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C582" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B584" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C584" s="29"/>
+      <c r="D584" s="29"/>
+      <c r="E584" s="29"/>
+      <c r="F584" s="29"/>
+      <c r="G584" s="29"/>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B585" s="29"/>
+      <c r="C585" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D585" s="29"/>
+      <c r="E585" s="29"/>
+      <c r="F585" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G585" s="29"/>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B586" s="29"/>
+      <c r="C586" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="D450" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C451" s="29" t="s">
+      <c r="D586" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E586" s="29"/>
+      <c r="F586" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G586" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B587" s="29"/>
+      <c r="C587" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="D451" s="29"/>
-    </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C452" s="29"/>
-      <c r="D452" s="29" t="s">
+      <c r="D587" s="29"/>
+      <c r="E587" s="29"/>
+      <c r="F587" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="G587" s="29"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B588" s="29"/>
+      <c r="C588" s="29"/>
+      <c r="D588" s="29" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C453" s="29"/>
-      <c r="D453" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C454" s="29"/>
-      <c r="D454" s="29" t="s">
+      <c r="E588" s="29"/>
+      <c r="F588" s="29"/>
+      <c r="G588" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B589" s="29"/>
+      <c r="C589" s="29"/>
+      <c r="D589" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E589" s="29"/>
+      <c r="F589" s="29"/>
+      <c r="G589" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B590" s="29"/>
+      <c r="C590" s="29"/>
+      <c r="D590" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D455" s="29" t="s">
+      <c r="E590" s="29"/>
+      <c r="F590" s="29"/>
+      <c r="G590" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B591" s="29"/>
+      <c r="C591" s="29"/>
+      <c r="D591" s="29" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D456" s="29"/>
-    </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B457" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C458" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C459" s="28" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B461" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C462" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D463" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D464" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D465" s="1" t="s">
+      <c r="E591" s="29"/>
+      <c r="F591" s="29"/>
+      <c r="G591" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A592" s="16"/>
+      <c r="D592" s="29"/>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A593" s="16"/>
+      <c r="B593" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D593" s="29"/>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A594" s="16"/>
+      <c r="C594" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D594" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="E465" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D466" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F466" s="1" t="s">
+      <c r="E594" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D467" s="1" t="s">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A595" s="16"/>
+      <c r="C595" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D595" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A596" s="16"/>
+      <c r="C596" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D596" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E467" s="1" t="s">
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A597" s="16"/>
+      <c r="D597" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E468" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A470" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B471" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C472" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D473" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D474" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C475" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B477" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C478" s="29" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C479" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C480" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C481" s="29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B483" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C484" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C485" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C486" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C487" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C488" s="29" t="s">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A598" s="16"/>
+      <c r="D598" s="29"/>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A599" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D599" s="29"/>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B600" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B602" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B604" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B606" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="610" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B610" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="611" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B611" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="612" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B612" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="D488" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C489" s="29" t="s">
+      <c r="C612" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="613" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B613" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="D489" s="29"/>
-    </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C490" s="29"/>
-      <c r="D490" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C491" s="29"/>
-      <c r="D491" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C492" s="29"/>
-      <c r="D492" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D493" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B495" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C496" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C497" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C498" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D498" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D499" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A501" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B502" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C503" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D504" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D505" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C506" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B508" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C509" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C510" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B512" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C513" s="29" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C514" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D515" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D516" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C517" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B519" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C520" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C521" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B523" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C524" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C525" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C526" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C527" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C528" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D528" s="29" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C529" s="29"/>
-      <c r="D529" s="29" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C530" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D530" s="29"/>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C531" s="29"/>
-      <c r="D531" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C532" s="29"/>
-      <c r="D532" s="29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C533" s="29"/>
-      <c r="D533" s="29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D534" s="29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B536" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C537" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C538" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C539" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D540" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A542" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B543" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C544" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C548" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C549" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C554" s="29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B556" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C557" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C558" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B560" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C561" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C562" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B564" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="C564" s="29"/>
-      <c r="D564" s="29"/>
-      <c r="E564" s="29"/>
-      <c r="F564" s="29"/>
-      <c r="G564" s="29"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B565" s="29"/>
-      <c r="C565" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D565" s="29"/>
-      <c r="E565" s="29"/>
-      <c r="F565" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="G565" s="29"/>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B566" s="29"/>
-      <c r="C566" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D566" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="E566" s="29"/>
-      <c r="F566" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G566" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B567" s="29"/>
-      <c r="C567" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D567" s="29"/>
-      <c r="E567" s="29"/>
-      <c r="F567" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="G567" s="29"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B568" s="29"/>
-      <c r="C568" s="29"/>
-      <c r="D568" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E568" s="29"/>
-      <c r="F568" s="29"/>
-      <c r="G568" s="29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B569" s="29"/>
-      <c r="C569" s="29"/>
-      <c r="D569" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="E569" s="29"/>
-      <c r="F569" s="29"/>
-      <c r="G569" s="29" t="s">
+      <c r="C613" s="29"/>
+    </row>
+    <row r="614" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B614" s="29"/>
+      <c r="C614" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F614" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="615" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B615" s="29"/>
+      <c r="C615" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="F615" s="29" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B570" s="29"/>
-      <c r="C570" s="29"/>
-      <c r="D570" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="E570" s="29"/>
-      <c r="F570" s="29"/>
-      <c r="G570" s="29" t="s">
+    <row r="616" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B616" s="29"/>
+      <c r="C616" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="F616" s="29" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B571" s="29"/>
-      <c r="C571" s="29"/>
-      <c r="D571" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="E571" s="29"/>
-      <c r="F571" s="29"/>
-      <c r="G571" s="29" t="s">
+    <row r="617" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B617" s="29"/>
+      <c r="C617" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="F617" s="29" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A572" s="16"/>
-      <c r="D572" s="29"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A573" s="16"/>
-      <c r="B573" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D573" s="29"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="16"/>
-      <c r="C574" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D574" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A575" s="16"/>
-      <c r="C575" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D575" s="50" t="s">
+    <row r="619" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B619" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E575" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A576" s="16"/>
-      <c r="C576" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D576" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A577" s="16"/>
-      <c r="D577" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A578" s="16"/>
-      <c r="D578" s="29"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A579" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D579" s="29"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B580" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B582" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B584" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B586" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B590" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B591" s="29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B592" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="C592" s="29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B593" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="C593" s="29"/>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B594" s="29"/>
-      <c r="C594" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F594" s="29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B595" s="29"/>
-      <c r="C595" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="F595" s="29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B596" s="29"/>
-      <c r="C596" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="F596" s="29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B597" s="29"/>
-      <c r="C597" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="F597" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B599" s="1" t="s">
+      <c r="D619" s="29"/>
+    </row>
+    <row r="620" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C620" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D599" s="29"/>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C600" s="1" t="s">
+      <c r="D620" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="621" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C621" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D600" s="50" t="s">
+      <c r="D621" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="E600" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C601" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D601" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="E601" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A603" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B604" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B605" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="C605" s="51"/>
-      <c r="D605" s="51"/>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B606" s="51"/>
-      <c r="C606" s="51"/>
-      <c r="D606" s="51"/>
+      <c r="E621" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -13772,86 +14260,86 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -13864,24 +14352,24 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>380</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>381</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="I21" s="41" t="s">
-        <v>398</v>
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
       <c r="L21" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -13893,24 +14381,24 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>382</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>383</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>401</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>402</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
       <c r="L22" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
@@ -13922,24 +14410,24 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>384</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>385</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J23" s="41"/>
       <c r="K23" s="41"/>
       <c r="L23" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M23" s="41"/>
       <c r="N23" s="41"/>
@@ -13951,24 +14439,24 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>395</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
       <c r="L24" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -13980,24 +14468,24 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
       <c r="L25" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -14009,19 +14497,19 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26" s="41" t="s">
         <v>420</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>421</v>
       </c>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -14036,10 +14524,10 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>390</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>391</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
@@ -14059,10 +14547,10 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>392</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>393</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
@@ -14100,138 +14588,138 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C40" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C51" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C52" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C59" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B62" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
       <c r="J62" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O62" s="38"/>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
@@ -14243,37 +14731,37 @@
     <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B63" s="40"/>
       <c r="C63" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>397</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>398</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="H63" s="41" t="s">
         <v>455</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>456</v>
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="41"/>
       <c r="K63" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="L63" s="41" t="s">
         <v>449</v>
-      </c>
-      <c r="L63" s="41" t="s">
-        <v>450</v>
       </c>
       <c r="M63" s="41"/>
       <c r="N63" s="41"/>
       <c r="O63" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P63" s="41"/>
       <c r="Q63" s="41"/>
       <c r="S63" s="41"/>
       <c r="T63" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U63" s="41"/>
       <c r="V63" s="41"/>
@@ -14284,36 +14772,36 @@
     <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B64" s="40"/>
       <c r="C64" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="41" t="s">
         <v>401</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>402</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="H64" s="41" t="s">
         <v>457</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>458</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="41"/>
       <c r="K64" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L64" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M64" s="41"/>
       <c r="N64" s="41"/>
       <c r="O64" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q64" s="41"/>
       <c r="S64" s="41"/>
       <c r="T64" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U64" s="41"/>
       <c r="V64" s="41"/>
@@ -14324,36 +14812,36 @@
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B65" s="40"/>
       <c r="C65" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="D65" s="41" t="s">
         <v>479</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>480</v>
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="H65" s="41" t="s">
         <v>459</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>460</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="41"/>
       <c r="K65" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L65" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M65" s="41"/>
       <c r="N65" s="41"/>
       <c r="O65" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q65" s="41"/>
       <c r="S65" s="41"/>
       <c r="T65" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U65" s="41"/>
       <c r="V65" s="41"/>
@@ -14364,18 +14852,18 @@
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B66" s="40"/>
       <c r="C66" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="H66" s="41" t="s">
         <v>461</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>462</v>
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="41"/>
@@ -14384,15 +14872,15 @@
       <c r="M66" s="41"/>
       <c r="N66" s="41"/>
       <c r="O66" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P66" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q66" s="41"/>
       <c r="S66" s="41"/>
       <c r="T66" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U66" s="41"/>
       <c r="V66" s="41"/>
@@ -14403,18 +14891,18 @@
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B67" s="40"/>
       <c r="C67" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="D67" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>483</v>
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I67" s="41"/>
       <c r="J67" s="41"/>
@@ -14423,15 +14911,15 @@
       <c r="M67" s="41"/>
       <c r="N67" s="41"/>
       <c r="O67" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q67" s="41"/>
       <c r="S67" s="41"/>
       <c r="T67" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U67" s="41"/>
       <c r="V67" s="41"/>
@@ -14446,10 +14934,10 @@
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="41" t="s">
         <v>465</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>466</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -14458,10 +14946,10 @@
       <c r="M68" s="41"/>
       <c r="N68" s="41"/>
       <c r="O68" s="41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P68" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q68" s="41"/>
       <c r="R68" s="41"/>
@@ -14480,10 +14968,10 @@
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I69" s="41"/>
       <c r="J69" s="41"/>
@@ -14492,10 +14980,10 @@
       <c r="M69" s="41"/>
       <c r="N69" s="41"/>
       <c r="O69" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
@@ -14514,10 +15002,10 @@
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
@@ -14544,7 +15032,7 @@
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
@@ -14593,17 +15081,17 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C81" s="48"/>
       <c r="D81" s="48"/>
@@ -14761,7 +15249,7 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C95" s="47"/>
       <c r="D95" s="47"/>
@@ -14883,7 +15371,7 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B105" s="49" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
